--- a/AnalysisData/NBATemplate.xlsx
+++ b/AnalysisData/NBATemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chamucolol87\Desktop\NBAAnalyzer\AnalysisData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FC5E93-2ED0-44BD-8A51-616CBCD042C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34473053-0E8E-4BF5-AA94-9FA7A4BD0959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="601" activeTab="1" xr2:uid="{F638F9AC-EDFB-4283-9C34-CE5D256891CD}"/>
   </bookViews>
@@ -19,17 +19,21 @@
     <sheet name="Under" sheetId="2" r:id="rId4"/>
     <sheet name="ML Accuracy" sheetId="7" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Consolidate!$T$37:$V$64</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="277" r:id="rId6"/>
-    <pivotCache cacheId="282" r:id="rId7"/>
-    <pivotCache cacheId="286" r:id="rId8"/>
-    <pivotCache cacheId="291" r:id="rId9"/>
-    <pivotCache cacheId="296" r:id="rId10"/>
-    <pivotCache cacheId="302" r:id="rId11"/>
-    <pivotCache cacheId="308" r:id="rId12"/>
-    <pivotCache cacheId="312" r:id="rId13"/>
-    <pivotCache cacheId="316" r:id="rId14"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId8"/>
+    <pivotCache cacheId="3" r:id="rId9"/>
+    <pivotCache cacheId="4" r:id="rId10"/>
+    <pivotCache cacheId="5" r:id="rId11"/>
+    <pivotCache cacheId="6" r:id="rId12"/>
+    <pivotCache cacheId="7" r:id="rId13"/>
+    <pivotCache cacheId="8" r:id="rId14"/>
+    <pivotCache cacheId="12" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -48,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="213">
   <si>
     <t>file</t>
   </si>
@@ -673,6 +677,21 @@
   <si>
     <t>(All)</t>
   </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>Spread</t>
+  </si>
+  <si>
+    <t>Sum of points</t>
+  </si>
 </sst>
 </file>
 
@@ -1180,7 +1199,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1201,8 +1220,6 @@
     <xf numFmtId="9" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
@@ -1252,12 +1269,210 @@
   </cellStyles>
   <dxfs count="58">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1503,210 +1718,12 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1778,6 +1795,44 @@
         <s v="Consistent"/>
         <s v="No"/>
       </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Chamucolol87" refreshedDate="45732.922872916664" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="27" xr:uid="{21FB57D1-8DB6-41C6-8312-667A943EB74B}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="T37:U64" sheet="Consolidate"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="team" numFmtId="0">
+      <sharedItems count="16">
+        <s v="MIN"/>
+        <s v="CLE"/>
+        <s v="LAC"/>
+        <s v="TOR"/>
+        <s v="MIL"/>
+        <s v="PHI"/>
+        <s v="PHO"/>
+        <s v="BRK"/>
+        <s v="LAL"/>
+        <s v="POR"/>
+        <s v="None"/>
+        <s v="ATL"/>
+        <s v="DAL"/>
+        <s v="UTA"/>
+        <s v="OKC"/>
+        <s v="ORL"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="points" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="30"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -3888,6 +3943,119 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="27">
+  <r>
+    <x v="0"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="68">
   <r>
@@ -11794,7 +11962,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{46B40627-07F3-4D2F-920E-9ADA349AB27B}" name="PivotTable8" cacheId="296" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{46B40627-07F3-4D2F-920E-9ADA349AB27B}" name="PivotTable8" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="R2:T12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -12090,7 +12258,98 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DF5E25AC-E372-4CBF-8687-CBF270CBC9E3}" name="PivotTable6" cacheId="282" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{325DD11A-A3D8-4ACD-873A-52C562329ABB}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M51:P60" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="10"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Consistency" fld="10" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DF5E25AC-E372-4CBF-8687-CBF270CBC9E3}" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M25:O47" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -12219,8 +12478,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5C153422-E51A-4C78-B987-C083165D0893}" name="PivotTable5" cacheId="286" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5C153422-E51A-4C78-B987-C083165D0893}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M14:O22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -12302,7 +12561,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0BC75891-C309-499C-A747-48FE49196385}" name="PivotTable3" cacheId="302" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0BC75891-C309-499C-A747-48FE49196385}" name="PivotTable3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="BN4:BR12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="11">
     <pivotField axis="axisPage" showAll="0">
@@ -12664,7 +12923,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{41D0ABC2-0BCC-42F9-B838-11726F69C7E2}" name="PivotTable6" cacheId="291" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{41D0ABC2-0BCC-42F9-B838-11726F69C7E2}" name="PivotTable6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M2:P13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -12972,7 +13231,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E62B0701-D8F2-4374-A507-49A71B4E1EE2}" name="PivotTable9" cacheId="296" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E62B0701-D8F2-4374-A507-49A71B4E1EE2}" name="PivotTable9" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="W2:Y23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -13310,7 +13569,117 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F30779C-B6AF-471A-B425-54AB17D34897}" name="PivotTable3" cacheId="316" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8BC32072-1406-4F89-A825-B9DA44E0BCCE}" name="PivotTable5" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="X37:Y54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="17">
+        <item x="11"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of points" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F30779C-B6AF-471A-B425-54AB17D34897}" name="PivotTable3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="Q37:R52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
@@ -13421,8 +13790,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{27B94183-4330-4229-AF4E-C1A69AC705CF}" name="PivotTable2" cacheId="312" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{27B94183-4330-4229-AF4E-C1A69AC705CF}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K37:L51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
@@ -13526,8 +13895,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F2749D1B-0FEB-4890-A543-99FB4A2EEEEB}" name="PivotTable4" cacheId="308" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F2749D1B-0FEB-4890-A543-99FB4A2EEEEB}" name="PivotTable4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="BG3:BP18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="30">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -13713,8 +14082,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{18F3C01F-7078-45B3-B3C1-A1105DF5EEE0}" name="PivotTable1" cacheId="308" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{18F3C01F-7078-45B3-B3C1-A1105DF5EEE0}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AH3:AQ15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="30">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -13891,134 +14260,49 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{325DD11A-A3D8-4ACD-873A-52C562329ABB}" name="PivotTable8" cacheId="277" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M51:P60" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="10"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Consistency" fld="10" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{23B59A0C-054A-4F30-9EF5-070D83BF6EAF}" name="Table3" displayName="Table3" ref="B2:AE34" totalsRowShown="0" headerRowDxfId="57" dataDxfId="0">
-  <autoFilter ref="B2:AE34" xr:uid="{23B59A0C-054A-4F30-9EF5-070D83BF6EAF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{23B59A0C-054A-4F30-9EF5-070D83BF6EAF}" name="Table3" displayName="Table3" ref="B2:AE34" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+  <autoFilter ref="B2:AE34" xr:uid="{23B59A0C-054A-4F30-9EF5-070D83BF6EAF}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="All"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:AE34">
     <sortCondition ref="C2:C34"/>
   </sortState>
   <tableColumns count="30">
-    <tableColumn id="1" xr3:uid="{24593591-B60A-4BAA-AE9E-AD09A97415CB}" name="Periodicity" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{9E7F04FA-E2CF-4020-8B2F-7A5FC57A6729}" name="Game" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{B110EACF-2F8B-48AE-9468-15B7E6B5D8DC}" name="LR" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{201D140A-D037-4471-A2E8-FE8C8B8EA1EC}" name="RF" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{B4C395E6-CF63-4654-96B1-CC60AA2E999E}" name="Total" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{408B21E6-7F5A-42AC-A537-1A7F9F7CE3D6}" name="Win%" dataDxfId="25" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{8470C779-CCA2-4304-B535-7A9B5797C774}" name="ML%" dataDxfId="24" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{3DEA8DEE-44A2-49C3-964D-59F1841AA21E}" name="MLDiff%" dataDxfId="23" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{F992361E-BC4E-45C7-A991-D74C430D3FCD}" name="Consistent" dataDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{DAAA9A8A-D26C-4112-8C69-D67FAC3C9556}" name="No" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{D3EEE7C9-D797-40AD-83EC-136EA7D579B9}" name="Consistency" dataDxfId="20" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{FD15055B-E1B9-42F2-9A36-8EC6C6B272CE}" name="Factor" dataDxfId="19" dataCellStyle="Percent"/>
-    <tableColumn id="13" xr3:uid="{9F969F80-232A-4C59-8D15-C1A648816AC6}" name="Winner" dataDxfId="18"/>
-    <tableColumn id="14" xr3:uid="{60F811CB-3A76-4726-8569-7B236B136EE0}" name="ScoreDiff" dataDxfId="17"/>
-    <tableColumn id="15" xr3:uid="{FFE4F106-7CBC-436A-8073-09C027394E30}" name="Handicap" dataDxfId="16"/>
-    <tableColumn id="16" xr3:uid="{5C03892B-5CAD-4DFF-A220-AF470C1723E9}" name="Avd" dataDxfId="15"/>
-    <tableColumn id="17" xr3:uid="{C67C1DAF-6E0A-4852-A8CD-701F56755FFC}" name="AdvAbs" dataDxfId="14"/>
-    <tableColumn id="18" xr3:uid="{4EAD0FEA-09D9-489E-B1DD-01A1BEB6C235}" name="SpreadWinner" dataDxfId="13"/>
-    <tableColumn id="19" xr3:uid="{446AB8A5-E7D9-4D19-A7D6-1BDEE6E33681}" name="ALWinner" dataDxfId="12"/>
-    <tableColumn id="20" xr3:uid="{E4E3C559-64A7-4C91-9B37-02DB275CFADD}" name="AL%" dataDxfId="11" dataCellStyle="Percent"/>
-    <tableColumn id="21" xr3:uid="{523CD2CA-6675-4379-85A4-AC0A30CA68C9}" name="Consitent" dataDxfId="10"/>
-    <tableColumn id="22" xr3:uid="{43B1E650-1620-4074-AC57-3B39AEDF22E7}" name="Final%" dataDxfId="9" dataCellStyle="Percent"/>
-    <tableColumn id="23" xr3:uid="{CA6D2144-C60E-4FB5-B32B-FAAEA55582A6}" name="Ranking" dataDxfId="8"/>
-    <tableColumn id="24" xr3:uid="{BAAB4390-0BAF-4781-8C7F-7471845D96C1}" name="AbsRanking" dataDxfId="7"/>
-    <tableColumn id="25" xr3:uid="{57CD29B5-18B6-49A1-B4C2-0FFF3204AF74}" name="MoneyLeaders" dataDxfId="6"/>
-    <tableColumn id="26" xr3:uid="{5DA8DB83-1D83-4D6C-BEBA-B659DC37607C}" name="Top10%" dataDxfId="5"/>
-    <tableColumn id="27" xr3:uid="{B0C41434-66FB-4770-ACB9-CFC8151EB700}" name="Overall" dataDxfId="4"/>
-    <tableColumn id="28" xr3:uid="{2ABDFBD8-7FD2-4BDD-8C9D-7526B94F49E4}" name="CoversConsistent" dataDxfId="3"/>
-    <tableColumn id="29" xr3:uid="{A8295CCC-9D95-4081-9A7F-FBCD98D87AF1}" name="SpreadPotential" dataDxfId="2"/>
-    <tableColumn id="30" xr3:uid="{363AE8A3-3795-44FE-83EA-DF647ADA356C}" name="MLPotential" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{24593591-B60A-4BAA-AE9E-AD09A97415CB}" name="Periodicity" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{9E7F04FA-E2CF-4020-8B2F-7A5FC57A6729}" name="Game" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{B110EACF-2F8B-48AE-9468-15B7E6B5D8DC}" name="LR" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{201D140A-D037-4471-A2E8-FE8C8B8EA1EC}" name="RF" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{B4C395E6-CF63-4654-96B1-CC60AA2E999E}" name="Total" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{408B21E6-7F5A-42AC-A537-1A7F9F7CE3D6}" name="Win%" dataDxfId="50" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{8470C779-CCA2-4304-B535-7A9B5797C774}" name="ML%" dataDxfId="49" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{3DEA8DEE-44A2-49C3-964D-59F1841AA21E}" name="MLDiff%" dataDxfId="48" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{F992361E-BC4E-45C7-A991-D74C430D3FCD}" name="Consistent" dataDxfId="47"/>
+    <tableColumn id="10" xr3:uid="{DAAA9A8A-D26C-4112-8C69-D67FAC3C9556}" name="No" dataDxfId="46"/>
+    <tableColumn id="11" xr3:uid="{D3EEE7C9-D797-40AD-83EC-136EA7D579B9}" name="Consistency" dataDxfId="45" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{FD15055B-E1B9-42F2-9A36-8EC6C6B272CE}" name="Factor" dataDxfId="44" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{9F969F80-232A-4C59-8D15-C1A648816AC6}" name="Winner" dataDxfId="43"/>
+    <tableColumn id="14" xr3:uid="{60F811CB-3A76-4726-8569-7B236B136EE0}" name="ScoreDiff" dataDxfId="42"/>
+    <tableColumn id="15" xr3:uid="{FFE4F106-7CBC-436A-8073-09C027394E30}" name="Handicap" dataDxfId="41"/>
+    <tableColumn id="16" xr3:uid="{5C03892B-5CAD-4DFF-A220-AF470C1723E9}" name="Avd" dataDxfId="40"/>
+    <tableColumn id="17" xr3:uid="{C67C1DAF-6E0A-4852-A8CD-701F56755FFC}" name="AdvAbs" dataDxfId="39"/>
+    <tableColumn id="18" xr3:uid="{4EAD0FEA-09D9-489E-B1DD-01A1BEB6C235}" name="SpreadWinner" dataDxfId="38"/>
+    <tableColumn id="19" xr3:uid="{446AB8A5-E7D9-4D19-A7D6-1BDEE6E33681}" name="ALWinner" dataDxfId="37"/>
+    <tableColumn id="20" xr3:uid="{E4E3C559-64A7-4C91-9B37-02DB275CFADD}" name="AL%" dataDxfId="36" dataCellStyle="Percent"/>
+    <tableColumn id="21" xr3:uid="{523CD2CA-6675-4379-85A4-AC0A30CA68C9}" name="Consitent" dataDxfId="35"/>
+    <tableColumn id="22" xr3:uid="{43B1E650-1620-4074-AC57-3B39AEDF22E7}" name="Final%" dataDxfId="34" dataCellStyle="Percent"/>
+    <tableColumn id="23" xr3:uid="{CA6D2144-C60E-4FB5-B32B-FAAEA55582A6}" name="Ranking" dataDxfId="33"/>
+    <tableColumn id="24" xr3:uid="{BAAB4390-0BAF-4781-8C7F-7471845D96C1}" name="AbsRanking" dataDxfId="32"/>
+    <tableColumn id="25" xr3:uid="{57CD29B5-18B6-49A1-B4C2-0FFF3204AF74}" name="MoneyLeaders" dataDxfId="31"/>
+    <tableColumn id="26" xr3:uid="{5DA8DB83-1D83-4D6C-BEBA-B659DC37607C}" name="Top10%" dataDxfId="30"/>
+    <tableColumn id="27" xr3:uid="{B0C41434-66FB-4770-ACB9-CFC8151EB700}" name="Overall" dataDxfId="29"/>
+    <tableColumn id="28" xr3:uid="{2ABDFBD8-7FD2-4BDD-8C9D-7526B94F49E4}" name="CoversConsistent" dataDxfId="28"/>
+    <tableColumn id="29" xr3:uid="{A8295CCC-9D95-4081-9A7F-FBCD98D87AF1}" name="SpreadPotential" dataDxfId="27"/>
+    <tableColumn id="30" xr3:uid="{363AE8A3-3795-44FE-83EA-DF647ADA356C}" name="MLPotential" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14034,12 +14318,12 @@
     <tableColumn id="1" xr3:uid="{28C83374-99E0-47B7-B110-856708A41781}" name="Row Labels"/>
     <tableColumn id="2" xr3:uid="{E67848FD-3730-4F96-9103-EDD9208679A6}" name="Count of SpreadWinner"/>
     <tableColumn id="3" xr3:uid="{DDA68CAC-4F07-4759-BFC0-FCABA32013D3}" name="Average of MLDiff%" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{0CE3CD9C-5445-4F32-9417-713263072D2D}" name="Min of ScoreDiff" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{3561302D-EE9B-42CC-85CD-E711E9864CF1}" name="Average of ScoreDiff" dataDxfId="55"/>
-    <tableColumn id="6" xr3:uid="{267FF7EE-C850-4394-B718-E99597E11087}" name="Max of ScoreDiff" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{0CE3CD9C-5445-4F32-9417-713263072D2D}" name="Min of ScoreDiff" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{3561302D-EE9B-42CC-85CD-E711E9864CF1}" name="Average of ScoreDiff" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{267FF7EE-C850-4394-B718-E99597E11087}" name="Max of ScoreDiff" dataDxfId="23"/>
     <tableColumn id="7" xr3:uid="{3A8B2565-0416-439F-A249-D00E898DD166}" name="Average of Handicap"/>
     <tableColumn id="8" xr3:uid="{3B79C2FB-B828-4E9A-9A02-569C114B8B9D}" name="Average of Factor" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{91A6C969-D728-4722-B6CB-8D5C06569A31}" name="Average of AdvAbs" dataDxfId="53"/>
+    <tableColumn id="9" xr3:uid="{91A6C969-D728-4722-B6CB-8D5C06569A31}" name="Average of AdvAbs" dataDxfId="22"/>
     <tableColumn id="10" xr3:uid="{013C3033-85A0-469F-B0BA-B776FA9E5D55}" name="Average of AL%" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -14047,45 +14331,45 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{23194694-37BC-4048-A108-71D380E1B3E8}" name="Table8" displayName="Table8" ref="AS2:BB13" totalsRowShown="0" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{23194694-37BC-4048-A108-71D380E1B3E8}" name="Table8" displayName="Table8" ref="AS2:BB13" totalsRowShown="0" dataDxfId="21">
   <autoFilter ref="AS2:BB13" xr:uid="{23194694-37BC-4048-A108-71D380E1B3E8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AS3:BB13">
     <sortCondition descending="1" ref="AU2:AU13"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{16DCAEDB-5518-461F-B58E-8042B3D088B9}" name="Team" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{AD869B99-095F-4BE7-A413-E609CAB0F902}" name="Count of Winner" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{1CECCB19-4B6D-4C5B-8830-2F423852F7E4}" name="Average of AL%" dataDxfId="49" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{E0A1CA23-0926-4418-85AD-6E9AE6367600}" name="Average of MLDiff%" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{F9DF9285-C80D-468E-8601-0BF3C163ADD0}" name="Min of ScoreDiff" dataDxfId="47" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{642B3F80-5BEE-485E-8570-6C11D675BD85}" name="Average of ScoreDiff" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{FACF3C5A-CD21-4F10-9F90-72F0D4070FF7}" name="Max of ScoreDiff" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{22507F89-141D-474B-9314-040C6C3B4F36}" name="Average of Handicap" dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{EC29AD05-8E65-4733-BCA5-414A85C886C0}" name="Average of Factor" dataDxfId="43"/>
-    <tableColumn id="10" xr3:uid="{F57E27A6-1351-4123-9BA4-9FB4289A1109}" name="Average of AdvAbs" dataDxfId="42" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{16DCAEDB-5518-461F-B58E-8042B3D088B9}" name="Team" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{AD869B99-095F-4BE7-A413-E609CAB0F902}" name="Count of Winner" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{1CECCB19-4B6D-4C5B-8830-2F423852F7E4}" name="Average of AL%" dataDxfId="18" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{E0A1CA23-0926-4418-85AD-6E9AE6367600}" name="Average of MLDiff%" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{F9DF9285-C80D-468E-8601-0BF3C163ADD0}" name="Min of ScoreDiff" dataDxfId="16" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{642B3F80-5BEE-485E-8570-6C11D675BD85}" name="Average of ScoreDiff" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{FACF3C5A-CD21-4F10-9F90-72F0D4070FF7}" name="Max of ScoreDiff" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{22507F89-141D-474B-9314-040C6C3B4F36}" name="Average of Handicap" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{EC29AD05-8E65-4733-BCA5-414A85C886C0}" name="Average of Factor" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{F57E27A6-1351-4123-9BA4-9FB4289A1109}" name="Average of AdvAbs" dataDxfId="11" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{886BB0A1-CC6E-4BDC-9962-AE0D0C99BD1B}" name="Table111" displayName="Table111" ref="B2:J10" totalsRowShown="0" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{886BB0A1-CC6E-4BDC-9962-AE0D0C99BD1B}" name="Table111" displayName="Table111" ref="B2:J10" totalsRowShown="0" dataDxfId="10">
   <autoFilter ref="B2:J10" xr:uid="{502C677E-92F2-4E2E-B8DF-B38CE34D22FC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:J10">
     <sortCondition descending="1" ref="G2:G10"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{BDA70125-9855-4F4C-AC12-B2B3526A433F}" name="Game" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{0753FD2E-378D-4FC9-BAAF-F4B6F678B951}" name="ML Winner" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{91F7B914-D66A-459E-8EE1-B643E620A47B}" name="ML Win%" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{37EFAEF1-C1D6-47A0-80F9-F4ADCFD57F29}" name="ScoreDiff" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{AE527ACF-069F-4E1D-82A9-18EB5A482E4F}" name="Handicap" dataDxfId="36"/>
-    <tableColumn id="9" xr3:uid="{BB9BD1AA-A216-4605-9BB9-535C5847A8D4}" name="Adv" dataDxfId="35">
+    <tableColumn id="1" xr3:uid="{BDA70125-9855-4F4C-AC12-B2B3526A433F}" name="Game" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{0753FD2E-378D-4FC9-BAAF-F4B6F678B951}" name="ML Winner" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{91F7B914-D66A-459E-8EE1-B643E620A47B}" name="ML Win%" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{37EFAEF1-C1D6-47A0-80F9-F4ADCFD57F29}" name="ScoreDiff" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{AE527ACF-069F-4E1D-82A9-18EB5A482E4F}" name="Handicap" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{BB9BD1AA-A216-4605-9BB9-535C5847A8D4}" name="Adv" dataDxfId="4">
       <calculatedColumnFormula>Table111[[#This Row],[ScoreDiff]]+Table111[[#This Row],[Handicap]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7862B7D6-6456-46CC-ABD9-9F7E1750CAC8}" name="Spread Winner" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{4BF44559-46BB-45A1-8C38-8AFACC420720}" name="Betting Trend" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{28134A2B-AAEF-43FA-9131-E7C1B555E149}" name="Factor" dataDxfId="32">
+    <tableColumn id="6" xr3:uid="{7862B7D6-6456-46CC-ABD9-9F7E1750CAC8}" name="Spread Winner" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{4BF44559-46BB-45A1-8C38-8AFACC420720}" name="Betting Trend" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{28134A2B-AAEF-43FA-9131-E7C1B555E149}" name="Factor" dataDxfId="1">
       <calculatedColumnFormula>ABS(((Table111[[#This Row],[ScoreDiff]]*0.75)+((Table111[[#This Row],[Handicap]]))*Table111[[#This Row],[ML Win%]]))+IF(AND(Table111[[#This Row],[Betting Trend]]=Table111[[#This Row],[Spread Winner]],Table111[[#This Row],[Spread Winner]]=Table111[[#This Row],[ML Winner]],Table111[[#This Row],[Betting Trend]]=Table111[[#This Row],[ML Winner]]),1,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14130,7 +14414,7 @@
     <tableColumn id="2" xr3:uid="{AE4712FB-8A96-4EF8-B585-5C2B8130FFB1}" name="Type"/>
     <tableColumn id="3" xr3:uid="{F45A0A37-BF81-4CC3-802A-825C6D87FF02}" name="RF"/>
     <tableColumn id="4" xr3:uid="{590999DE-06B7-4FDF-871D-B84DCABA8E31}" name="LR"/>
-    <tableColumn id="5" xr3:uid="{FF8A30B3-FF0B-415E-A1C4-91BB24CC7C4A}" name="Average" dataDxfId="31">
+    <tableColumn id="5" xr3:uid="{FF8A30B3-FF0B-415E-A1C4-91BB24CC7C4A}" name="Average" dataDxfId="0">
       <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[LR]],Table1[[#This Row],[RF]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14904,11 +15188,10 @@
       <c r="M4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4">
         <v>77</v>
       </c>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18">
+      <c r="P4">
         <v>77</v>
       </c>
       <c r="R4" s="2" t="s">
@@ -15087,13 +15370,13 @@
       <c r="M5" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5">
         <v>5</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5">
         <v>6</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5">
         <v>11</v>
       </c>
       <c r="R5" s="2" t="s">
@@ -15240,7 +15523,7 @@
       <c r="BP5" s="3">
         <v>-1</v>
       </c>
-      <c r="BQ5" s="18">
+      <c r="BQ5">
         <v>0.56255886210091699</v>
       </c>
       <c r="BR5" s="3">
@@ -15276,11 +15559,10 @@
       <c r="M6" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6">
         <v>11</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18">
+      <c r="P6">
         <v>11</v>
       </c>
       <c r="R6" s="2" t="s">
@@ -15439,7 +15721,7 @@
       <c r="BP6" s="3">
         <v>1</v>
       </c>
-      <c r="BQ6" s="18">
+      <c r="BQ6">
         <v>0.84272758780351698</v>
       </c>
       <c r="BR6" s="3">
@@ -15475,13 +15757,13 @@
       <c r="M7" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7">
         <v>10</v>
       </c>
-      <c r="O7" s="18">
-        <v>1</v>
-      </c>
-      <c r="P7" s="18">
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
         <v>11</v>
       </c>
       <c r="R7" s="2" t="s">
@@ -15628,7 +15910,7 @@
       <c r="BP7" s="3">
         <v>1</v>
       </c>
-      <c r="BQ7" s="18">
+      <c r="BQ7">
         <v>0.88042284777007795</v>
       </c>
       <c r="BR7" s="3">
@@ -15664,11 +15946,10 @@
       <c r="M8" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8">
         <v>11</v>
       </c>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18">
+      <c r="P8">
         <v>11</v>
       </c>
       <c r="R8" s="2" t="s">
@@ -15815,7 +16096,7 @@
       <c r="BP8" s="3">
         <v>1</v>
       </c>
-      <c r="BQ8" s="18">
+      <c r="BQ8">
         <v>0.88588565378310402</v>
       </c>
       <c r="BR8" s="3">
@@ -15851,13 +16132,13 @@
       <c r="M9" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9">
         <v>5</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9">
         <v>6</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P9">
         <v>11</v>
       </c>
       <c r="R9" s="2" t="s">
@@ -16016,7 +16297,7 @@
       <c r="BP9" s="3">
         <v>-1</v>
       </c>
-      <c r="BQ9" s="18">
+      <c r="BQ9">
         <v>0.84386687617392298</v>
       </c>
       <c r="BR9" s="3">
@@ -16052,11 +16333,10 @@
       <c r="M10" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10">
         <v>11</v>
       </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18">
+      <c r="P10">
         <v>11</v>
       </c>
       <c r="R10" s="2" t="s">
@@ -16203,7 +16483,7 @@
       <c r="BP10" s="3">
         <v>-1</v>
       </c>
-      <c r="BQ10" s="18">
+      <c r="BQ10">
         <v>0.87680745840031205</v>
       </c>
       <c r="BR10" s="3">
@@ -16239,11 +16519,10 @@
       <c r="M11" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11">
         <v>11</v>
       </c>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18">
+      <c r="P11">
         <v>11</v>
       </c>
       <c r="R11" s="2" t="s">
@@ -16296,7 +16575,7 @@
       <c r="BP11" s="3">
         <v>1</v>
       </c>
-      <c r="BQ11" s="18">
+      <c r="BQ11">
         <v>0.976865478968996</v>
       </c>
       <c r="BR11" s="3">
@@ -16332,11 +16611,10 @@
       <c r="M12" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12">
         <v>11</v>
       </c>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18">
+      <c r="P12">
         <v>11</v>
       </c>
       <c r="R12" s="2" t="s">
@@ -16400,7 +16678,7 @@
       <c r="BP12" s="3">
         <v>1</v>
       </c>
-      <c r="BQ12" s="18">
+      <c r="BQ12">
         <v>5.8691347650008465</v>
       </c>
       <c r="BR12" s="3">
@@ -16436,13 +16714,13 @@
       <c r="M13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13">
         <v>152</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O13">
         <v>13</v>
       </c>
-      <c r="P13" s="18">
+      <c r="P13">
         <v>165</v>
       </c>
       <c r="W13" s="4">
@@ -19388,8 +19666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBB0E72-491A-4808-A57D-3D7A9394C08C}">
   <dimension ref="B1:CA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BS7" sqref="BS7"/>
+    <sheetView tabSelected="1" topLeftCell="N19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA51" sqref="AA51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19408,7 +19686,7 @@
     <col min="19" max="19" width="15.5703125" customWidth="1"/>
     <col min="20" max="20" width="11.42578125" customWidth="1"/>
     <col min="22" max="22" width="11.42578125" customWidth="1"/>
-    <col min="24" max="24" width="10.28515625" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13.5703125" customWidth="1"/>
     <col min="26" max="26" width="10.140625" customWidth="1"/>
     <col min="27" max="27" width="10" customWidth="1"/>
@@ -19627,19 +19905,19 @@
       </c>
     </row>
     <row r="3" spans="2:79" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3">
         <v>7</v>
       </c>
-      <c r="E3" s="16">
-        <v>1</v>
-      </c>
-      <c r="F3" s="16">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>8</v>
       </c>
       <c r="G3" s="8">
@@ -19651,10 +19929,10 @@
       <c r="I3" s="8">
         <v>4.2105344310779946E-2</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3">
         <v>6</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3">
         <v>5</v>
       </c>
       <c r="L3" s="8">
@@ -19663,58 +19941,58 @@
       <c r="M3" s="8">
         <v>0.50510200789567605</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" t="s">
         <v>169</v>
       </c>
-      <c r="O3" s="17">
+      <c r="O3" s="6">
         <v>4.0408160631654084</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3">
         <v>6.5</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="Q3" s="6">
         <v>10.540816063165408</v>
       </c>
-      <c r="R3" s="17">
+      <c r="R3" s="6">
         <v>10.540816063165408</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="S3" t="s">
         <v>169</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="T3" t="s">
         <v>101</v>
       </c>
       <c r="U3" s="8">
         <v>0.5</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="V3" t="s">
         <v>33</v>
       </c>
       <c r="W3" s="8">
         <v>0.50255100394783803</v>
       </c>
-      <c r="X3" s="16">
+      <c r="X3">
         <v>530.12922001480604</v>
       </c>
-      <c r="Y3" s="16">
+      <c r="Y3">
         <v>530.12922001480604</v>
       </c>
-      <c r="Z3" s="16" t="s">
+      <c r="Z3" t="s">
         <v>194</v>
       </c>
-      <c r="AA3" s="16" t="s">
+      <c r="AA3" t="s">
         <v>194</v>
       </c>
-      <c r="AB3" s="16" t="s">
+      <c r="AB3" t="s">
         <v>194</v>
       </c>
-      <c r="AC3" s="16" t="s">
+      <c r="AC3" t="s">
         <v>100</v>
       </c>
-      <c r="AD3" s="16" t="s">
+      <c r="AD3" t="s">
         <v>33</v>
       </c>
-      <c r="AE3" s="16" t="s">
+      <c r="AE3" t="s">
         <v>33</v>
       </c>
       <c r="AH3" s="1" t="s">
@@ -19840,20 +20118,20 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="2:79" x14ac:dyDescent="0.25">
-      <c r="B4" s="16">
+    <row r="4" spans="2:79" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>10</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" t="s">
         <v>186</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4">
         <v>-3</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" s="8">
@@ -19865,10 +20143,10 @@
       <c r="I4" s="8">
         <v>2.4487539762197197E-2</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4">
         <v>4</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4">
         <v>7</v>
       </c>
       <c r="L4" s="8">
@@ -19877,64 +20155,64 @@
       <c r="M4" s="8">
         <v>0.31653000861355446</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" t="s">
         <v>204</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="6">
         <v>0</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4">
         <v>6.5</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="Q4" s="6">
         <v>6.5</v>
       </c>
-      <c r="R4" s="17">
+      <c r="R4" s="6">
         <v>6.5</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="S4" t="s">
         <v>204</v>
       </c>
-      <c r="T4" s="16" t="s">
+      <c r="T4" t="s">
         <v>101</v>
       </c>
       <c r="U4" s="8">
         <v>0.5</v>
       </c>
-      <c r="V4" s="16" t="s">
+      <c r="V4" t="s">
         <v>33</v>
       </c>
       <c r="W4" s="8">
         <v>0.40826500430677726</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4">
         <v>325.37673138095687</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4">
         <v>325.37673138095687</v>
       </c>
-      <c r="Z4" s="16" t="s">
+      <c r="Z4" t="s">
         <v>194</v>
       </c>
-      <c r="AA4" s="16" t="s">
+      <c r="AA4" t="s">
         <v>194</v>
       </c>
-      <c r="AB4" s="16" t="s">
+      <c r="AB4" t="s">
         <v>194</v>
       </c>
-      <c r="AC4" s="16" t="s">
+      <c r="AC4" t="s">
         <v>100</v>
       </c>
-      <c r="AD4" s="16" t="s">
+      <c r="AD4" t="s">
         <v>33</v>
       </c>
-      <c r="AE4" s="16" t="s">
+      <c r="AE4" t="s">
         <v>33</v>
       </c>
       <c r="AH4" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="AI4" s="18">
+      <c r="AI4">
         <v>1</v>
       </c>
       <c r="AJ4" s="7">
@@ -19952,7 +20230,7 @@
       <c r="AN4" s="6">
         <v>0</v>
       </c>
-      <c r="AO4" s="18">
+      <c r="AO4">
         <v>6.5</v>
       </c>
       <c r="AP4" s="7">
@@ -19964,25 +20242,25 @@
       <c r="AS4" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="AT4" s="16">
+      <c r="AT4">
         <v>2</v>
       </c>
       <c r="AU4" s="8">
         <v>0.82939913571803481</v>
       </c>
-      <c r="AV4" s="16">
+      <c r="AV4">
         <v>0.45590692058149274</v>
       </c>
       <c r="AW4" s="9">
         <v>10.240507987261868</v>
       </c>
-      <c r="AX4" s="17">
+      <c r="AX4" s="6">
         <v>15.469799595576747</v>
       </c>
-      <c r="AY4" s="17">
+      <c r="AY4" s="6">
         <v>20.699091203891626</v>
       </c>
-      <c r="AZ4" s="17">
+      <c r="AZ4" s="6">
         <v>-13.5</v>
       </c>
       <c r="BA4" s="6">
@@ -19996,7 +20274,7 @@
       <c r="BG4" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="BH4" s="18">
+      <c r="BH4">
         <v>1</v>
       </c>
       <c r="BI4" s="7">
@@ -20011,7 +20289,7 @@
       <c r="BL4" s="6">
         <v>0</v>
       </c>
-      <c r="BM4" s="18">
+      <c r="BM4">
         <v>6.5</v>
       </c>
       <c r="BN4" s="7">
@@ -20054,20 +20332,20 @@
         <v>0.90090155746752776</v>
       </c>
     </row>
-    <row r="5" spans="2:79" x14ac:dyDescent="0.25">
-      <c r="B5" s="16">
+    <row r="5" spans="2:79" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>5</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5">
         <v>-3</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5">
         <v>-1</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5">
         <v>-4</v>
       </c>
       <c r="G5" s="8">
@@ -20079,10 +20357,10 @@
       <c r="I5" s="8">
         <v>6.174856134439799E-3</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5">
         <v>6</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5">
         <v>5</v>
       </c>
       <c r="L5" s="8">
@@ -20091,64 +20369,64 @@
       <c r="M5" s="8">
         <v>0.4440276575392787</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" t="s">
         <v>204</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="6">
         <v>1.7761106301571148</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5">
         <v>-6.5</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="6">
         <v>-4.723889369842885</v>
       </c>
-      <c r="R5" s="17">
+      <c r="R5" s="6">
         <v>4.723889369842885</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="S5" t="s">
         <v>169</v>
       </c>
-      <c r="T5" s="16" t="s">
+      <c r="T5" t="s">
         <v>204</v>
       </c>
       <c r="U5" s="8">
         <v>0.52838631796913549</v>
       </c>
-      <c r="V5" s="16" t="s">
+      <c r="V5" t="s">
         <v>33</v>
       </c>
       <c r="W5" s="8">
         <v>0.48620698775420712</v>
       </c>
-      <c r="X5" s="16">
+      <c r="X5">
         <v>-249.47313555136415</v>
       </c>
-      <c r="Y5" s="16">
+      <c r="Y5">
         <v>249.47313555136415</v>
       </c>
-      <c r="Z5" s="16" t="s">
+      <c r="Z5" t="s">
         <v>194</v>
       </c>
-      <c r="AA5" s="16" t="s">
+      <c r="AA5" t="s">
         <v>194</v>
       </c>
-      <c r="AB5" s="16" t="s">
+      <c r="AB5" t="s">
         <v>194</v>
       </c>
-      <c r="AC5" s="16" t="s">
+      <c r="AC5" t="s">
         <v>100</v>
       </c>
-      <c r="AD5" s="16" t="s">
+      <c r="AD5" t="s">
         <v>33</v>
       </c>
-      <c r="AE5" s="16" t="s">
+      <c r="AE5" t="s">
         <v>33</v>
       </c>
       <c r="AH5" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="AI5" s="18">
+      <c r="AI5">
         <v>2</v>
       </c>
       <c r="AJ5" s="7">
@@ -20166,7 +20444,7 @@
       <c r="AN5" s="6">
         <v>20.669362265738791</v>
       </c>
-      <c r="AO5" s="18">
+      <c r="AO5">
         <v>-13.5</v>
       </c>
       <c r="AP5" s="7">
@@ -20210,7 +20488,7 @@
       <c r="BG5" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="BH5" s="18">
+      <c r="BH5">
         <v>3</v>
       </c>
       <c r="BI5" s="7">
@@ -20225,7 +20503,7 @@
       <c r="BL5" s="6">
         <v>4.9903929386777524</v>
       </c>
-      <c r="BM5" s="18">
+      <c r="BM5">
         <v>-2.1666666666666665</v>
       </c>
       <c r="BN5" s="7">
@@ -20268,20 +20546,20 @@
         <v>0.81256420890615588</v>
       </c>
     </row>
-    <row r="6" spans="2:79" x14ac:dyDescent="0.25">
-      <c r="B6" s="16">
+    <row r="6" spans="2:79" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6">
         <v>-7</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6">
         <v>-3</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6">
         <v>-10</v>
       </c>
       <c r="G6" s="8">
@@ -20293,10 +20571,10 @@
       <c r="I6" s="8">
         <v>1.5979616352297166E-2</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6">
         <v>6</v>
       </c>
       <c r="L6" s="8">
@@ -20305,64 +20583,64 @@
       <c r="M6" s="8">
         <v>0.49903929386777524</v>
       </c>
-      <c r="N6" s="16" t="s">
+      <c r="N6" t="s">
         <v>204</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O6" s="6">
         <v>4.9903929386777524</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6">
         <v>-6.5</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="Q6" s="6">
         <v>-1.5096070613222476</v>
       </c>
-      <c r="R6" s="17">
+      <c r="R6" s="6">
         <v>1.5096070613222476</v>
       </c>
-      <c r="S6" s="16" t="s">
+      <c r="S6" t="s">
         <v>169</v>
       </c>
-      <c r="T6" s="16" t="s">
+      <c r="T6" t="s">
         <v>204</v>
       </c>
       <c r="U6" s="8">
         <v>0.58127943105045854</v>
       </c>
-      <c r="V6" s="16" t="s">
+      <c r="V6" t="s">
         <v>33</v>
       </c>
       <c r="W6" s="8">
         <v>0.54015936245911689</v>
       </c>
-      <c r="X6" s="16">
+      <c r="X6">
         <v>-86.691825178204908</v>
       </c>
-      <c r="Y6" s="16">
+      <c r="Y6">
         <v>86.691825178204908</v>
       </c>
-      <c r="Z6" s="16" t="s">
+      <c r="Z6" t="s">
         <v>194</v>
       </c>
-      <c r="AA6" s="16" t="s">
+      <c r="AA6" t="s">
         <v>194</v>
       </c>
-      <c r="AB6" s="16" t="s">
+      <c r="AB6" t="s">
         <v>194</v>
       </c>
-      <c r="AC6" s="16" t="s">
+      <c r="AC6" t="s">
         <v>100</v>
       </c>
-      <c r="AD6" s="16" t="s">
+      <c r="AD6" t="s">
         <v>33</v>
       </c>
-      <c r="AE6" s="16" t="s">
+      <c r="AE6" t="s">
         <v>33</v>
       </c>
       <c r="AH6" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="AI6" s="18">
+      <c r="AI6">
         <v>2</v>
       </c>
       <c r="AJ6" s="7">
@@ -20380,7 +20658,7 @@
       <c r="AN6" s="6">
         <v>20.837320190865682</v>
       </c>
-      <c r="AO6" s="18">
+      <c r="AO6">
         <v>-13</v>
       </c>
       <c r="AP6" s="7">
@@ -20392,25 +20670,25 @@
       <c r="AS6" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="AT6" s="16">
+      <c r="AT6">
         <v>1</v>
       </c>
       <c r="AU6" s="8">
         <v>0.69270147289783846</v>
       </c>
-      <c r="AV6" s="16">
+      <c r="AV6">
         <v>4.6695018316454728E-2</v>
       </c>
       <c r="AW6" s="9">
         <v>7.8317085009550533</v>
       </c>
-      <c r="AX6" s="17">
+      <c r="AX6" s="6">
         <v>7.8317085009550533</v>
       </c>
-      <c r="AY6" s="17">
+      <c r="AY6" s="6">
         <v>7.8317085009550533</v>
       </c>
-      <c r="AZ6" s="17">
+      <c r="AZ6" s="6">
         <v>-2.5</v>
       </c>
       <c r="BA6" s="6">
@@ -20424,7 +20702,7 @@
       <c r="BG6" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="BH6" s="18">
+      <c r="BH6">
         <v>3</v>
       </c>
       <c r="BI6" s="7">
@@ -20439,7 +20717,7 @@
       <c r="BL6" s="6">
         <v>20.669362265738791</v>
       </c>
-      <c r="BM6" s="18">
+      <c r="BM6">
         <v>-13.5</v>
       </c>
       <c r="BN6" s="7">
@@ -20483,19 +20761,19 @@
       </c>
     </row>
     <row r="7" spans="2:79" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B7" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7">
         <v>11</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7">
         <v>11</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7">
         <v>22</v>
       </c>
       <c r="G7" s="8">
@@ -20507,10 +20785,10 @@
       <c r="I7" s="8">
         <v>0.76783304047259571</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7">
         <v>11</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7">
         <v>0</v>
       </c>
       <c r="L7" s="8">
@@ -20519,64 +20797,64 @@
       <c r="M7" s="8">
         <v>0.92261101349086516</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="N7" t="s">
         <v>195</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="6">
         <v>20.297442296799034</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7">
         <v>-13</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="6">
         <v>7.2974422967990336</v>
       </c>
-      <c r="R7" s="17">
+      <c r="R7" s="6">
         <v>7.2974422967990336</v>
       </c>
-      <c r="S7" s="16" t="s">
+      <c r="S7" t="s">
         <v>195</v>
       </c>
-      <c r="T7" s="16" t="s">
+      <c r="T7" t="s">
         <v>195</v>
       </c>
       <c r="U7" s="8">
         <v>0.78204080641387252</v>
       </c>
-      <c r="V7" s="16" t="s">
+      <c r="V7" t="s">
         <v>100</v>
       </c>
       <c r="W7" s="8">
         <v>0.85232590995236879</v>
       </c>
-      <c r="X7" s="16">
+      <c r="X7">
         <v>632.50186200069083</v>
       </c>
-      <c r="Y7" s="16">
+      <c r="Y7">
         <v>632.50186200069083</v>
       </c>
-      <c r="Z7" s="16" t="s">
+      <c r="Z7" t="s">
         <v>194</v>
       </c>
-      <c r="AA7" s="16" t="s">
+      <c r="AA7" t="s">
         <v>194</v>
       </c>
-      <c r="AB7" s="16" t="s">
+      <c r="AB7" t="s">
         <v>194</v>
       </c>
-      <c r="AC7" s="16" t="s">
+      <c r="AC7" t="s">
         <v>100</v>
       </c>
-      <c r="AD7" s="16" t="s">
+      <c r="AD7" t="s">
         <v>33</v>
       </c>
-      <c r="AE7" s="16" t="s">
+      <c r="AE7" t="s">
         <v>33</v>
       </c>
       <c r="AH7" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AI7" s="18">
+      <c r="AI7">
         <v>1</v>
       </c>
       <c r="AJ7" s="7">
@@ -20594,7 +20872,7 @@
       <c r="AN7" s="6">
         <v>0.76046467615575997</v>
       </c>
-      <c r="AO7" s="18">
+      <c r="AO7">
         <v>5.5</v>
       </c>
       <c r="AP7" s="7">
@@ -20606,25 +20884,25 @@
       <c r="AS7" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="AT7" s="16">
+      <c r="AT7">
         <v>2</v>
       </c>
       <c r="AU7" s="8">
         <v>0.62898221863311221</v>
       </c>
-      <c r="AV7" s="16">
+      <c r="AV7">
         <v>4.5378998629126421E-2</v>
       </c>
       <c r="AW7" s="9">
         <v>3.4304492324471871</v>
       </c>
-      <c r="AX7" s="17">
+      <c r="AX7" s="6">
         <v>4.9744761440098353</v>
       </c>
-      <c r="AY7" s="17">
+      <c r="AY7" s="6">
         <v>6.5185030555724834</v>
       </c>
-      <c r="AZ7" s="17">
+      <c r="AZ7" s="6">
         <v>-2.5</v>
       </c>
       <c r="BA7" s="6">
@@ -20638,7 +20916,7 @@
       <c r="BG7" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="BH7" s="18">
+      <c r="BH7">
         <v>1</v>
       </c>
       <c r="BI7" s="7">
@@ -20653,7 +20931,7 @@
       <c r="BL7" s="6">
         <v>7.8317085009550533</v>
       </c>
-      <c r="BM7" s="18">
+      <c r="BM7">
         <v>-2.5</v>
       </c>
       <c r="BN7" s="7">
@@ -20696,20 +20974,20 @@
         <v>0.79438258119400917</v>
       </c>
     </row>
-    <row r="8" spans="2:79" x14ac:dyDescent="0.25">
-      <c r="B8" s="16">
+    <row r="8" spans="2:79" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>10</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8">
         <v>11</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8">
         <v>11</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8">
         <v>22</v>
       </c>
       <c r="G8" s="8">
@@ -20721,10 +20999,10 @@
       <c r="I8" s="8">
         <v>0.84145275329986557</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8">
         <v>11</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" s="8">
@@ -20733,64 +21011,64 @@
       <c r="M8" s="8">
         <v>0.94715091776662186</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="N8" t="s">
         <v>195</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="6">
         <v>20.837320190865682</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8">
         <v>-13</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="6">
         <v>7.8373201908656824</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="6">
         <v>7.8373201908656824</v>
       </c>
-      <c r="S8" s="16" t="s">
+      <c r="S8" t="s">
         <v>195</v>
       </c>
-      <c r="T8" s="16" t="s">
+      <c r="T8" t="s">
         <v>195</v>
       </c>
       <c r="U8" s="8">
         <v>0.84438853979108108</v>
       </c>
-      <c r="V8" s="16" t="s">
+      <c r="V8" t="s">
         <v>100</v>
       </c>
       <c r="W8" s="8">
         <v>0.89576972877885153</v>
       </c>
-      <c r="X8" s="16">
+      <c r="X8">
         <v>712.77990376713933</v>
       </c>
-      <c r="Y8" s="16">
+      <c r="Y8">
         <v>712.77990376713933</v>
       </c>
-      <c r="Z8" s="16" t="s">
+      <c r="Z8" t="s">
         <v>194</v>
       </c>
-      <c r="AA8" s="16" t="s">
+      <c r="AA8" t="s">
         <v>194</v>
       </c>
-      <c r="AB8" s="16" t="s">
+      <c r="AB8" t="s">
         <v>194</v>
       </c>
-      <c r="AC8" s="16" t="s">
+      <c r="AC8" t="s">
         <v>100</v>
       </c>
-      <c r="AD8" s="16" t="s">
+      <c r="AD8" t="s">
         <v>33</v>
       </c>
-      <c r="AE8" s="16" t="s">
+      <c r="AE8" t="s">
         <v>33</v>
       </c>
       <c r="AH8" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="AI8" s="18">
+      <c r="AI8">
         <v>1</v>
       </c>
       <c r="AJ8" s="7">
@@ -20808,7 +21086,7 @@
       <c r="AN8" s="6">
         <v>0</v>
       </c>
-      <c r="AO8" s="18">
+      <c r="AO8">
         <v>-5.5</v>
       </c>
       <c r="AP8" s="7">
@@ -20852,7 +21130,7 @@
       <c r="BG8" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="BH8" s="18">
+      <c r="BH8">
         <v>4</v>
       </c>
       <c r="BI8" s="7">
@@ -20867,7 +21145,7 @@
       <c r="BL8" s="6">
         <v>20.837320190865682</v>
       </c>
-      <c r="BM8" s="18">
+      <c r="BM8">
         <v>-13</v>
       </c>
       <c r="BN8" s="7">
@@ -20910,20 +21188,20 @@
         <v>0.62898221863311221</v>
       </c>
     </row>
-    <row r="9" spans="2:79" x14ac:dyDescent="0.25">
-      <c r="B9" s="16">
+    <row r="9" spans="2:79" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" t="s">
         <v>187</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9">
         <v>11</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9">
         <v>11</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9">
         <v>22</v>
       </c>
       <c r="G9" s="8">
@@ -20935,10 +21213,10 @@
       <c r="I9" s="8">
         <v>0.75664673822518957</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9">
         <v>11</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9">
         <v>0</v>
       </c>
       <c r="L9" s="8">
@@ -20947,64 +21225,64 @@
       <c r="M9" s="8">
         <v>0.91888224607506308</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="N9" t="s">
         <v>195</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="6">
         <v>20.215409413651386</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9">
         <v>-13</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="6">
         <v>7.2154094136513862</v>
       </c>
-      <c r="R9" s="17">
+      <c r="R9" s="6">
         <v>7.2154094136513862</v>
       </c>
-      <c r="S9" s="16" t="s">
+      <c r="S9" t="s">
         <v>195</v>
       </c>
-      <c r="T9" s="16" t="s">
+      <c r="T9" t="s">
         <v>195</v>
       </c>
       <c r="U9" s="8">
         <v>0.75973718466932449</v>
       </c>
-      <c r="V9" s="16" t="s">
+      <c r="V9" t="s">
         <v>100</v>
       </c>
       <c r="W9" s="8">
         <v>0.83930971537219379</v>
       </c>
-      <c r="X9" s="16">
+      <c r="X9">
         <v>616.08286134904097</v>
       </c>
-      <c r="Y9" s="16">
+      <c r="Y9">
         <v>616.08286134904097</v>
       </c>
-      <c r="Z9" s="16" t="s">
+      <c r="Z9" t="s">
         <v>194</v>
       </c>
-      <c r="AA9" s="16" t="s">
+      <c r="AA9" t="s">
         <v>194</v>
       </c>
-      <c r="AB9" s="16" t="s">
+      <c r="AB9" t="s">
         <v>194</v>
       </c>
-      <c r="AC9" s="16" t="s">
+      <c r="AC9" t="s">
         <v>100</v>
       </c>
-      <c r="AD9" s="16" t="s">
+      <c r="AD9" t="s">
         <v>33</v>
       </c>
-      <c r="AE9" s="16" t="s">
+      <c r="AE9" t="s">
         <v>33</v>
       </c>
       <c r="AH9" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="AI9" s="18">
+      <c r="AI9">
         <v>1</v>
       </c>
       <c r="AJ9" s="7">
@@ -21022,7 +21300,7 @@
       <c r="AN9" s="6">
         <v>4.0408160631654084</v>
       </c>
-      <c r="AO9" s="18">
+      <c r="AO9">
         <v>6.5</v>
       </c>
       <c r="AP9" s="7">
@@ -21066,7 +21344,7 @@
       <c r="BG9" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="BH9" s="18">
+      <c r="BH9">
         <v>2</v>
       </c>
       <c r="BI9" s="7">
@@ -21081,7 +21359,7 @@
       <c r="BL9" s="6">
         <v>6.5185030555724834</v>
       </c>
-      <c r="BM9" s="18">
+      <c r="BM9">
         <v>-2.5</v>
       </c>
       <c r="BN9" s="7">
@@ -21124,20 +21402,20 @@
         <v>0.75245590460555789</v>
       </c>
     </row>
-    <row r="10" spans="2:79" x14ac:dyDescent="0.25">
-      <c r="B10" s="16">
+    <row r="10" spans="2:79" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" t="s">
         <v>187</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10">
         <v>11</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10">
         <v>11</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10">
         <v>22</v>
       </c>
       <c r="G10" s="8">
@@ -21149,10 +21427,10 @@
       <c r="I10" s="8">
         <v>0.77675597088780546</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10">
         <v>11</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10">
         <v>0</v>
       </c>
       <c r="L10" s="8">
@@ -21161,64 +21439,64 @@
       <c r="M10" s="8">
         <v>0.92558532362926849</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="N10" t="s">
         <v>195</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O10" s="6">
         <v>20.362877119843908</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10">
         <v>-13</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="Q10" s="6">
         <v>7.3628771198439082</v>
       </c>
-      <c r="R10" s="17">
+      <c r="R10" s="6">
         <v>7.3628771198439082</v>
       </c>
-      <c r="S10" s="16" t="s">
+      <c r="S10" t="s">
         <v>195</v>
       </c>
-      <c r="T10" s="16" t="s">
+      <c r="T10" t="s">
         <v>195</v>
       </c>
       <c r="U10" s="8">
         <v>0.79136379390175848</v>
       </c>
-      <c r="V10" s="16" t="s">
+      <c r="V10" t="s">
         <v>100</v>
       </c>
       <c r="W10" s="8">
         <v>0.85847455876551348</v>
       </c>
-      <c r="X10" s="16">
+      <c r="X10">
         <v>642.63389428868891</v>
       </c>
-      <c r="Y10" s="16">
+      <c r="Y10">
         <v>642.63389428868891</v>
       </c>
-      <c r="Z10" s="16" t="s">
+      <c r="Z10" t="s">
         <v>194</v>
       </c>
-      <c r="AA10" s="16" t="s">
+      <c r="AA10" t="s">
         <v>194</v>
       </c>
-      <c r="AB10" s="16" t="s">
+      <c r="AB10" t="s">
         <v>194</v>
       </c>
-      <c r="AC10" s="16" t="s">
+      <c r="AC10" t="s">
         <v>100</v>
       </c>
-      <c r="AD10" s="16" t="s">
+      <c r="AD10" t="s">
         <v>33</v>
       </c>
-      <c r="AE10" s="16" t="s">
+      <c r="AE10" t="s">
         <v>33</v>
       </c>
       <c r="AH10" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="AI10" s="18">
+      <c r="AI10">
         <v>1</v>
       </c>
       <c r="AJ10" s="7">
@@ -21236,7 +21514,7 @@
       <c r="AN10" s="6">
         <v>3.3730979060718225</v>
       </c>
-      <c r="AO10" s="18">
+      <c r="AO10">
         <v>7.5</v>
       </c>
       <c r="AP10" s="7">
@@ -21280,7 +21558,7 @@
       <c r="BG10" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="BH10" s="18">
+      <c r="BH10">
         <v>4</v>
       </c>
       <c r="BI10" s="7">
@@ -21295,7 +21573,7 @@
       <c r="BL10" s="6">
         <v>17.190531673500551</v>
       </c>
-      <c r="BM10" s="18">
+      <c r="BM10">
         <v>0</v>
       </c>
       <c r="BN10" s="7">
@@ -21339,19 +21617,19 @@
       </c>
     </row>
     <row r="11" spans="2:79" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" t="s">
         <v>188</v>
       </c>
-      <c r="D11" s="16">
-        <v>1</v>
-      </c>
-      <c r="E11" s="16">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>-1</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" s="8">
@@ -21363,10 +21641,10 @@
       <c r="I11" s="8">
         <v>1.9876060775674054E-2</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11">
         <v>10</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11">
         <v>1</v>
       </c>
       <c r="L11" s="8">
@@ -21375,64 +21653,64 @@
       <c r="M11" s="8">
         <v>0.50024856841855625</v>
       </c>
-      <c r="N11" s="16" t="s">
+      <c r="N11" t="s">
         <v>168</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="6">
         <v>0</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11">
         <v>-5.5</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="Q11" s="6">
         <v>-5.5</v>
       </c>
-      <c r="R11" s="17">
+      <c r="R11" s="6">
         <v>5.5</v>
       </c>
-      <c r="S11" s="16" t="s">
+      <c r="S11" t="s">
         <v>166</v>
       </c>
-      <c r="T11" s="16" t="s">
+      <c r="T11" t="s">
         <v>168</v>
       </c>
       <c r="U11" s="8">
         <v>0.55782107471242448</v>
       </c>
-      <c r="V11" s="16" t="s">
+      <c r="V11" t="s">
         <v>33</v>
       </c>
       <c r="W11" s="8">
         <v>0.52903482156549031</v>
       </c>
-      <c r="X11" s="16">
+      <c r="X11">
         <v>-306.4402081686394</v>
       </c>
-      <c r="Y11" s="16">
+      <c r="Y11">
         <v>306.4402081686394</v>
       </c>
-      <c r="Z11" s="16" t="s">
+      <c r="Z11" t="s">
         <v>194</v>
       </c>
-      <c r="AA11" s="16" t="s">
+      <c r="AA11" t="s">
         <v>194</v>
       </c>
-      <c r="AB11" s="16" t="s">
+      <c r="AB11" t="s">
         <v>194</v>
       </c>
-      <c r="AC11" s="16" t="s">
+      <c r="AC11" t="s">
         <v>100</v>
       </c>
-      <c r="AD11" s="16" t="s">
+      <c r="AD11" t="s">
         <v>33</v>
       </c>
-      <c r="AE11" s="16" t="s">
+      <c r="AE11" t="s">
         <v>33</v>
       </c>
       <c r="AH11" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="AI11" s="18">
+      <c r="AI11">
         <v>2</v>
       </c>
       <c r="AJ11" s="7">
@@ -21450,7 +21728,7 @@
       <c r="AN11" s="6">
         <v>11.034913722592577</v>
       </c>
-      <c r="AO11" s="18">
+      <c r="AO11">
         <v>-6.5</v>
       </c>
       <c r="AP11" s="7">
@@ -21494,7 +21772,7 @@
       <c r="BG11" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="BH11" s="18">
+      <c r="BH11">
         <v>3</v>
       </c>
       <c r="BI11" s="7">
@@ -21509,7 +21787,7 @@
       <c r="BL11" s="6">
         <v>21.247374966264147</v>
       </c>
-      <c r="BM11" s="18">
+      <c r="BM11">
         <v>-13.5</v>
       </c>
       <c r="BN11" s="7">
@@ -21552,20 +21830,20 @@
         <v>0.82844266005735401</v>
       </c>
     </row>
-    <row r="12" spans="2:79" x14ac:dyDescent="0.25">
-      <c r="B12" s="16">
+    <row r="12" spans="2:79" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" t="s">
         <v>188</v>
       </c>
-      <c r="D12" s="16">
-        <v>1</v>
-      </c>
-      <c r="E12" s="16">
-        <v>1</v>
-      </c>
-      <c r="F12" s="16">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>2</v>
       </c>
       <c r="G12" s="8">
@@ -21577,10 +21855,10 @@
       <c r="I12" s="8">
         <v>3.0751532789877634E-2</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12">
         <v>5</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12">
         <v>6</v>
       </c>
       <c r="L12" s="8">
@@ -21589,64 +21867,64 @@
       <c r="M12" s="8">
         <v>0.38023233807787998</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="N12" t="s">
         <v>166</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O12" s="6">
         <v>0.76046467615575997</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12">
         <v>5.5</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="6">
         <v>6.2604646761557596</v>
       </c>
-      <c r="R12" s="17">
+      <c r="R12" s="6">
         <v>6.2604646761557596</v>
       </c>
-      <c r="S12" s="16" t="s">
+      <c r="S12" t="s">
         <v>166</v>
       </c>
-      <c r="T12" s="16" t="s">
+      <c r="T12" t="s">
         <v>166</v>
       </c>
       <c r="U12" s="8">
         <v>0.53164729689642198</v>
       </c>
-      <c r="V12" s="16" t="s">
+      <c r="V12" t="s">
         <v>100</v>
       </c>
       <c r="W12" s="8">
         <v>0.45593981748715096</v>
       </c>
-      <c r="X12" s="16">
+      <c r="X12">
         <v>333.32711432069908</v>
       </c>
-      <c r="Y12" s="16">
+      <c r="Y12">
         <v>333.32711432069908</v>
       </c>
-      <c r="Z12" s="16" t="s">
+      <c r="Z12" t="s">
         <v>194</v>
       </c>
-      <c r="AA12" s="16" t="s">
+      <c r="AA12" t="s">
         <v>194</v>
       </c>
-      <c r="AB12" s="16" t="s">
+      <c r="AB12" t="s">
         <v>194</v>
       </c>
-      <c r="AC12" s="16" t="s">
+      <c r="AC12" t="s">
         <v>100</v>
       </c>
-      <c r="AD12" s="16" t="s">
+      <c r="AD12" t="s">
         <v>33</v>
       </c>
-      <c r="AE12" s="16" t="s">
+      <c r="AE12" t="s">
         <v>33</v>
       </c>
       <c r="AH12" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="AI12" s="18">
+      <c r="AI12">
         <v>2</v>
       </c>
       <c r="AJ12" s="7">
@@ -21664,7 +21942,7 @@
       <c r="AN12" s="6">
         <v>6.5185030555724834</v>
       </c>
-      <c r="AO12" s="18">
+      <c r="AO12">
         <v>-2.5</v>
       </c>
       <c r="AP12" s="7">
@@ -21708,7 +21986,7 @@
       <c r="BG12" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="BH12" s="18">
+      <c r="BH12">
         <v>1</v>
       </c>
       <c r="BI12" s="7">
@@ -21723,7 +22001,7 @@
       <c r="BL12" s="6">
         <v>12.796722707038889</v>
       </c>
-      <c r="BM12" s="18">
+      <c r="BM12">
         <v>-13.5</v>
       </c>
       <c r="BN12" s="7">
@@ -21766,20 +22044,20 @@
         <v>0.53655524967319801</v>
       </c>
     </row>
-    <row r="13" spans="2:79" x14ac:dyDescent="0.25">
-      <c r="B13" s="16">
+    <row r="13" spans="2:79" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>5</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" t="s">
         <v>188</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13">
         <v>-3</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13">
         <v>-3</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13">
         <v>-6</v>
       </c>
       <c r="G13" s="8">
@@ -21791,10 +22069,10 @@
       <c r="I13" s="8">
         <v>5.0511837650806357E-2</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13">
         <v>7</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13">
         <v>4</v>
       </c>
       <c r="L13" s="8">
@@ -21803,64 +22081,64 @@
       <c r="M13" s="8">
         <v>0.52050868898949731</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="N13" t="s">
         <v>168</v>
       </c>
-      <c r="O13" s="17">
+      <c r="O13" s="6">
         <v>3.1230521339369837</v>
       </c>
-      <c r="P13" s="16">
+      <c r="P13">
         <v>-5.5</v>
       </c>
-      <c r="Q13" s="17">
+      <c r="Q13" s="6">
         <v>-2.3769478660630163</v>
       </c>
-      <c r="R13" s="17">
+      <c r="R13" s="6">
         <v>2.3769478660630163</v>
       </c>
-      <c r="S13" s="16" t="s">
+      <c r="S13" t="s">
         <v>166</v>
       </c>
-      <c r="T13" s="16" t="s">
+      <c r="T13" t="s">
         <v>101</v>
       </c>
       <c r="U13" s="8">
         <v>0.5</v>
       </c>
-      <c r="V13" s="16" t="s">
+      <c r="V13" t="s">
         <v>33</v>
       </c>
       <c r="W13" s="8">
         <v>0.51025434449474871</v>
       </c>
-      <c r="X13" s="16">
+      <c r="X13">
         <v>-119.1597261987739</v>
       </c>
-      <c r="Y13" s="16">
+      <c r="Y13">
         <v>119.1597261987739</v>
       </c>
-      <c r="Z13" s="16" t="s">
+      <c r="Z13" t="s">
         <v>194</v>
       </c>
-      <c r="AA13" s="16" t="s">
+      <c r="AA13" t="s">
         <v>194</v>
       </c>
-      <c r="AB13" s="16" t="s">
+      <c r="AB13" t="s">
         <v>194</v>
       </c>
-      <c r="AC13" s="16" t="s">
+      <c r="AC13" t="s">
         <v>100</v>
       </c>
-      <c r="AD13" s="16" t="s">
+      <c r="AD13" t="s">
         <v>33</v>
       </c>
-      <c r="AE13" s="16" t="s">
+      <c r="AE13" t="s">
         <v>33</v>
       </c>
       <c r="AH13" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="AI13" s="18">
+      <c r="AI13">
         <v>1</v>
       </c>
       <c r="AJ13" s="7">
@@ -21878,7 +22156,7 @@
       <c r="AN13" s="6">
         <v>7.8317085009550533</v>
       </c>
-      <c r="AO13" s="18">
+      <c r="AO13">
         <v>-2.5</v>
       </c>
       <c r="AP13" s="7">
@@ -21922,7 +22200,7 @@
       <c r="BG13" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="BH13" s="18">
+      <c r="BH13">
         <v>3</v>
       </c>
       <c r="BI13" s="7">
@@ -21937,7 +22215,7 @@
       <c r="BL13" s="6">
         <v>3.3730979060718225</v>
       </c>
-      <c r="BM13" s="18">
+      <c r="BM13">
         <v>2.5</v>
       </c>
       <c r="BN13" s="7">
@@ -21980,20 +22258,20 @@
         <v>0.69247874534904752</v>
       </c>
     </row>
-    <row r="14" spans="2:79" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
+    <row r="14" spans="2:79" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" t="s">
         <v>188</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14">
         <v>11</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14">
         <v>9</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14">
         <v>20</v>
       </c>
       <c r="G14" s="8">
@@ -22005,10 +22283,10 @@
       <c r="I14" s="8">
         <v>0.76039793284326485</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14">
         <v>10</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14">
         <v>1</v>
       </c>
       <c r="L14" s="8">
@@ -22017,64 +22295,64 @@
       <c r="M14" s="8">
         <v>0.85952658367502766</v>
       </c>
-      <c r="N14" s="16" t="s">
+      <c r="N14" t="s">
         <v>166</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O14" s="6">
         <v>17.190531673500551</v>
       </c>
-      <c r="P14" s="16">
+      <c r="P14">
         <v>5.5</v>
       </c>
-      <c r="Q14" s="17">
+      <c r="Q14" s="6">
         <v>22.690531673500551</v>
       </c>
-      <c r="R14" s="17">
+      <c r="R14" s="6">
         <v>22.690531673500551</v>
       </c>
-      <c r="S14" s="16" t="s">
+      <c r="S14" t="s">
         <v>166</v>
       </c>
-      <c r="T14" s="16" t="s">
+      <c r="T14" t="s">
         <v>166</v>
       </c>
       <c r="U14" s="8">
         <v>0.80021142388503896</v>
       </c>
-      <c r="V14" s="16" t="s">
+      <c r="V14" t="s">
         <v>100</v>
       </c>
       <c r="W14" s="8">
         <v>0.82986900378003337</v>
       </c>
-      <c r="X14" s="16">
+      <c r="X14">
         <v>1886.3680599374388</v>
       </c>
-      <c r="Y14" s="16">
+      <c r="Y14">
         <v>1886.3680599374388</v>
       </c>
-      <c r="Z14" s="16" t="s">
+      <c r="Z14" t="s">
         <v>194</v>
       </c>
-      <c r="AA14" s="16" t="s">
+      <c r="AA14" t="s">
         <v>194</v>
       </c>
-      <c r="AB14" s="16" t="s">
+      <c r="AB14" t="s">
         <v>194</v>
       </c>
-      <c r="AC14" s="16" t="s">
+      <c r="AC14" t="s">
         <v>100</v>
       </c>
-      <c r="AD14" s="16" t="s">
+      <c r="AD14" t="s">
         <v>33</v>
       </c>
-      <c r="AE14" s="16" t="s">
+      <c r="AE14" t="s">
         <v>33</v>
       </c>
       <c r="AH14" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="AI14" s="18">
+      <c r="AI14">
         <v>2</v>
       </c>
       <c r="AJ14" s="7">
@@ -22092,7 +22370,7 @@
       <c r="AN14" s="6">
         <v>20.699091203891626</v>
       </c>
-      <c r="AO14" s="18">
+      <c r="AO14">
         <v>-13.5</v>
       </c>
       <c r="AP14" s="7">
@@ -22106,7 +22384,7 @@
       <c r="BG14" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="BH14" s="18">
+      <c r="BH14">
         <v>2</v>
       </c>
       <c r="BI14" s="7">
@@ -22121,7 +22399,7 @@
       <c r="BL14" s="6">
         <v>20.026264459964263</v>
       </c>
-      <c r="BM14" s="18">
+      <c r="BM14">
         <v>2.5</v>
       </c>
       <c r="BN14" s="7">
@@ -22165,19 +22443,19 @@
       </c>
     </row>
     <row r="15" spans="2:79" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+      <c r="B15" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" t="s">
         <v>189</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15">
         <v>7</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15">
         <v>9</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15">
         <v>16</v>
       </c>
       <c r="G15" s="8">
@@ -22189,10 +22467,10 @@
       <c r="I15" s="8">
         <v>0.13854725045905891</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15">
         <v>10</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15">
         <v>1</v>
       </c>
       <c r="L15" s="8">
@@ -22201,64 +22479,64 @@
       <c r="M15" s="8">
         <v>0.79979516918993054</v>
       </c>
-      <c r="N15" s="16" t="s">
+      <c r="N15" t="s">
         <v>196</v>
       </c>
-      <c r="O15" s="17">
+      <c r="O15" s="6">
         <v>12.796722707038889</v>
       </c>
-      <c r="P15" s="16">
+      <c r="P15">
         <v>-13.5</v>
       </c>
-      <c r="Q15" s="17">
+      <c r="Q15" s="6">
         <v>-0.7032772929611113</v>
       </c>
-      <c r="R15" s="17">
+      <c r="R15" s="6">
         <v>0.7032772929611113</v>
       </c>
-      <c r="S15" s="16" t="s">
+      <c r="S15" t="s">
         <v>197</v>
       </c>
-      <c r="T15" s="16" t="s">
+      <c r="T15" t="s">
         <v>196</v>
       </c>
       <c r="U15" s="8">
         <v>0.82844266005735401</v>
       </c>
-      <c r="V15" s="16" t="s">
+      <c r="V15" t="s">
         <v>33</v>
       </c>
       <c r="W15" s="8">
         <v>0.81411891462364228</v>
       </c>
-      <c r="X15" s="16">
+      <c r="X15">
         <v>-38.562260251147102</v>
       </c>
-      <c r="Y15" s="16">
+      <c r="Y15">
         <v>38.562260251147102</v>
       </c>
-      <c r="Z15" s="16" t="s">
+      <c r="Z15" t="s">
         <v>194</v>
       </c>
-      <c r="AA15" s="16" t="s">
+      <c r="AA15" t="s">
         <v>194</v>
       </c>
-      <c r="AB15" s="16" t="s">
+      <c r="AB15" t="s">
         <v>194</v>
       </c>
-      <c r="AC15" s="16" t="s">
+      <c r="AC15" t="s">
         <v>100</v>
       </c>
-      <c r="AD15" s="16" t="s">
+      <c r="AD15" t="s">
         <v>33</v>
       </c>
-      <c r="AE15" s="16" t="s">
+      <c r="AE15" t="s">
         <v>33</v>
       </c>
       <c r="AH15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AI15" s="18">
+      <c r="AI15">
         <v>16</v>
       </c>
       <c r="AJ15" s="7">
@@ -22276,7 +22554,7 @@
       <c r="AN15" s="6">
         <v>20.837320190865682</v>
       </c>
-      <c r="AO15" s="18">
+      <c r="AO15">
         <v>-5</v>
       </c>
       <c r="AP15" s="7">
@@ -22290,7 +22568,7 @@
       <c r="BG15" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="BH15" s="18">
+      <c r="BH15">
         <v>1</v>
       </c>
       <c r="BI15" s="7">
@@ -22305,7 +22583,7 @@
       <c r="BL15" s="6">
         <v>11.034913722592577</v>
       </c>
-      <c r="BM15" s="18">
+      <c r="BM15">
         <v>-6.5</v>
       </c>
       <c r="BN15" s="7">
@@ -22348,20 +22626,20 @@
         <v>0.51991525124511884</v>
       </c>
     </row>
-    <row r="16" spans="2:79" x14ac:dyDescent="0.25">
-      <c r="B16" s="16">
+    <row r="16" spans="2:79" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>10</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" t="s">
         <v>189</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16">
         <v>11</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16">
         <v>11</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16">
         <v>22</v>
       </c>
       <c r="G16" s="8">
@@ -22373,10 +22651,10 @@
       <c r="I16" s="8">
         <v>0.81854939987347097</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16">
         <v>11</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" s="8">
@@ -22385,58 +22663,58 @@
       <c r="M16" s="8">
         <v>0.9395164666244904</v>
       </c>
-      <c r="N16" s="16" t="s">
+      <c r="N16" t="s">
         <v>196</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O16" s="6">
         <v>20.669362265738791</v>
       </c>
-      <c r="P16" s="16">
+      <c r="P16">
         <v>-13.5</v>
       </c>
-      <c r="Q16" s="17">
+      <c r="Q16" s="6">
         <v>7.1693622657387905</v>
       </c>
-      <c r="R16" s="17">
+      <c r="R16" s="6">
         <v>7.1693622657387905</v>
       </c>
-      <c r="S16" s="16" t="s">
+      <c r="S16" t="s">
         <v>196</v>
       </c>
-      <c r="T16" s="16" t="s">
+      <c r="T16" t="s">
         <v>196</v>
       </c>
       <c r="U16" s="8">
         <v>0.86523985496060851</v>
       </c>
-      <c r="V16" s="16" t="s">
+      <c r="V16" t="s">
         <v>100</v>
       </c>
       <c r="W16" s="8">
         <v>0.9023781607925494</v>
       </c>
-      <c r="X16" s="16">
+      <c r="X16">
         <v>658.36491867472625</v>
       </c>
-      <c r="Y16" s="16">
+      <c r="Y16">
         <v>658.36491867472625</v>
       </c>
-      <c r="Z16" s="16" t="s">
+      <c r="Z16" t="s">
         <v>194</v>
       </c>
-      <c r="AA16" s="16" t="s">
+      <c r="AA16" t="s">
         <v>194</v>
       </c>
-      <c r="AB16" s="16" t="s">
+      <c r="AB16" t="s">
         <v>194</v>
       </c>
-      <c r="AC16" s="16" t="s">
+      <c r="AC16" t="s">
         <v>100</v>
       </c>
-      <c r="AD16" s="16" t="s">
+      <c r="AD16" t="s">
         <v>33</v>
       </c>
-      <c r="AE16" s="16" t="s">
+      <c r="AE16" t="s">
         <v>33</v>
       </c>
       <c r="BC16" s="6"/>
@@ -22444,7 +22722,7 @@
       <c r="BG16" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="BH16" s="18">
+      <c r="BH16">
         <v>3</v>
       </c>
       <c r="BI16" s="7">
@@ -22459,7 +22737,7 @@
       <c r="BL16" s="6">
         <v>20.58912938825452</v>
       </c>
-      <c r="BM16" s="18">
+      <c r="BM16">
         <v>2.1666666666666665</v>
       </c>
       <c r="BN16" s="7">
@@ -22502,20 +22780,20 @@
         <v>0.77227807367142409</v>
       </c>
     </row>
-    <row r="17" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B17" s="16">
+    <row r="17" spans="2:68" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>5</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" t="s">
         <v>189</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17">
         <v>11</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17">
         <v>11</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17">
         <v>22</v>
       </c>
       <c r="G17" s="8">
@@ -22527,10 +22805,10 @@
       <c r="I17" s="8">
         <v>0.74772322168911498</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17">
         <v>11</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17">
         <v>0</v>
       </c>
       <c r="L17" s="8">
@@ -22539,58 +22817,58 @@
       <c r="M17" s="8">
         <v>0.91590774056303825</v>
       </c>
-      <c r="N17" s="16" t="s">
+      <c r="N17" t="s">
         <v>196</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O17" s="6">
         <v>20.14997029238684</v>
       </c>
-      <c r="P17" s="16">
+      <c r="P17">
         <v>-13.5</v>
       </c>
-      <c r="Q17" s="17">
+      <c r="Q17" s="6">
         <v>6.6499702923868398</v>
       </c>
-      <c r="R17" s="17">
+      <c r="R17" s="6">
         <v>6.6499702923868398</v>
       </c>
-      <c r="S17" s="16" t="s">
+      <c r="S17" t="s">
         <v>196</v>
       </c>
-      <c r="T17" s="16" t="s">
+      <c r="T17" t="s">
         <v>196</v>
       </c>
       <c r="U17" s="8">
         <v>0.78950994486630699</v>
       </c>
-      <c r="V17" s="16" t="s">
+      <c r="V17" t="s">
         <v>100</v>
       </c>
       <c r="W17" s="8">
         <v>0.85270884271467262</v>
       </c>
-      <c r="X17" s="16">
+      <c r="X17">
         <v>578.29285566217663</v>
       </c>
-      <c r="Y17" s="16">
+      <c r="Y17">
         <v>578.29285566217663</v>
       </c>
-      <c r="Z17" s="16" t="s">
+      <c r="Z17" t="s">
         <v>194</v>
       </c>
-      <c r="AA17" s="16" t="s">
+      <c r="AA17" t="s">
         <v>194</v>
       </c>
-      <c r="AB17" s="16" t="s">
+      <c r="AB17" t="s">
         <v>194</v>
       </c>
-      <c r="AC17" s="16" t="s">
+      <c r="AC17" t="s">
         <v>100</v>
       </c>
-      <c r="AD17" s="16" t="s">
+      <c r="AD17" t="s">
         <v>33</v>
       </c>
-      <c r="AE17" s="16" t="s">
+      <c r="AE17" t="s">
         <v>33</v>
       </c>
       <c r="BC17" s="6"/>
@@ -22598,7 +22876,7 @@
       <c r="BG17" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="BH17" s="18">
+      <c r="BH17">
         <v>1</v>
       </c>
       <c r="BI17" s="7">
@@ -22613,7 +22891,7 @@
       <c r="BL17" s="6">
         <v>10.240507987261868</v>
       </c>
-      <c r="BM17" s="18">
+      <c r="BM17">
         <v>-13.5</v>
       </c>
       <c r="BN17" s="7">
@@ -22626,20 +22904,20 @@
         <v>0.77227807367142409</v>
       </c>
     </row>
-    <row r="18" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B18" s="16">
+    <row r="18" spans="2:68" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>3</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" t="s">
         <v>189</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18">
         <v>11</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18">
         <v>11</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18">
         <v>22</v>
       </c>
       <c r="G18" s="8">
@@ -22651,10 +22929,10 @@
       <c r="I18" s="8">
         <v>0.79921768943578209</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18">
         <v>11</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18">
         <v>0</v>
       </c>
       <c r="L18" s="8">
@@ -22663,64 +22941,64 @@
       <c r="M18" s="8">
         <v>0.93307256314526066</v>
       </c>
-      <c r="N18" s="16" t="s">
+      <c r="N18" t="s">
         <v>196</v>
       </c>
-      <c r="O18" s="17">
+      <c r="O18" s="6">
         <v>20.527596389195736</v>
       </c>
-      <c r="P18" s="16">
+      <c r="P18">
         <v>-13.5</v>
       </c>
-      <c r="Q18" s="17">
+      <c r="Q18" s="6">
         <v>7.027596389195736</v>
       </c>
-      <c r="R18" s="17">
+      <c r="R18" s="6">
         <v>7.027596389195736</v>
       </c>
-      <c r="S18" s="16" t="s">
+      <c r="S18" t="s">
         <v>196</v>
       </c>
-      <c r="T18" s="16" t="s">
+      <c r="T18" t="s">
         <v>196</v>
       </c>
       <c r="U18" s="8">
         <v>0.78294282689155204</v>
       </c>
-      <c r="V18" s="16" t="s">
+      <c r="V18" t="s">
         <v>100</v>
       </c>
       <c r="W18" s="8">
         <v>0.85800769501840635</v>
       </c>
-      <c r="X18" s="16">
+      <c r="X18">
         <v>614.34573898746476</v>
       </c>
-      <c r="Y18" s="16">
+      <c r="Y18">
         <v>614.34573898746476</v>
       </c>
-      <c r="Z18" s="16" t="s">
+      <c r="Z18" t="s">
         <v>194</v>
       </c>
-      <c r="AA18" s="16" t="s">
+      <c r="AA18" t="s">
         <v>194</v>
       </c>
-      <c r="AB18" s="16" t="s">
+      <c r="AB18" t="s">
         <v>194</v>
       </c>
-      <c r="AC18" s="16" t="s">
+      <c r="AC18" t="s">
         <v>100</v>
       </c>
-      <c r="AD18" s="16" t="s">
+      <c r="AD18" t="s">
         <v>33</v>
       </c>
-      <c r="AE18" s="16" t="s">
+      <c r="AE18" t="s">
         <v>33</v>
       </c>
       <c r="BG18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="BH18" s="18">
+      <c r="BH18">
         <v>32</v>
       </c>
       <c r="BI18" s="7">
@@ -22735,7 +23013,7 @@
       <c r="BL18" s="6">
         <v>21.247374966264147</v>
       </c>
-      <c r="BM18" s="18">
+      <c r="BM18">
         <v>-4.84375</v>
       </c>
       <c r="BN18" s="7">
@@ -22749,19 +23027,19 @@
       </c>
     </row>
     <row r="19" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
+      <c r="B19" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" t="s">
         <v>190</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19">
         <v>3</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19">
         <v>9</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19">
         <v>12</v>
       </c>
       <c r="G19" s="8">
@@ -22773,10 +23051,10 @@
       <c r="I19" s="8">
         <v>4.6695018316454728E-2</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19">
         <v>8</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19">
         <v>3</v>
       </c>
       <c r="L19" s="8">
@@ -22785,75 +23063,75 @@
       <c r="M19" s="8">
         <v>0.65264237507958778</v>
       </c>
-      <c r="N19" s="16" t="s">
+      <c r="N19" t="s">
         <v>198</v>
       </c>
-      <c r="O19" s="17">
+      <c r="O19" s="6">
         <v>7.8317085009550533</v>
       </c>
-      <c r="P19" s="16">
+      <c r="P19">
         <v>-2.5</v>
       </c>
-      <c r="Q19" s="17">
+      <c r="Q19" s="6">
         <v>5.3317085009550533</v>
       </c>
-      <c r="R19" s="17">
+      <c r="R19" s="6">
         <v>5.3317085009550533</v>
       </c>
-      <c r="S19" s="16" t="s">
+      <c r="S19" t="s">
         <v>198</v>
       </c>
-      <c r="T19" s="16" t="s">
+      <c r="T19" t="s">
         <v>198</v>
       </c>
       <c r="U19" s="8">
         <v>0.69270147289783846</v>
       </c>
-      <c r="V19" s="16" t="s">
+      <c r="V19" t="s">
         <v>100</v>
       </c>
       <c r="W19" s="8">
         <v>0.67267192398871312</v>
       </c>
-      <c r="X19" s="16">
+      <c r="X19">
         <v>370.20403157808545</v>
       </c>
-      <c r="Y19" s="16">
+      <c r="Y19">
         <v>370.20403157808545</v>
       </c>
-      <c r="Z19" s="16" t="s">
+      <c r="Z19" t="s">
         <v>194</v>
       </c>
-      <c r="AA19" s="16" t="s">
+      <c r="AA19" t="s">
         <v>194</v>
       </c>
-      <c r="AB19" s="16" t="s">
+      <c r="AB19" t="s">
         <v>194</v>
       </c>
-      <c r="AC19" s="16" t="s">
+      <c r="AC19" t="s">
         <v>100</v>
       </c>
-      <c r="AD19" s="16" t="s">
+      <c r="AD19" t="s">
         <v>33</v>
       </c>
-      <c r="AE19" s="16" t="s">
+      <c r="AE19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B20" s="16">
+    <row r="20" spans="2:68" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>10</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" t="s">
         <v>190</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20">
         <v>-5</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20">
         <v>-1</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20">
         <v>-6</v>
       </c>
       <c r="G20" s="8">
@@ -22865,10 +23143,10 @@
       <c r="I20" s="8">
         <v>4.8937024115662253E-2</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20">
         <v>9</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20">
         <v>2</v>
       </c>
       <c r="L20" s="8">
@@ -22877,75 +23155,75 @@
       <c r="M20" s="8">
         <v>0.56218298434530378</v>
       </c>
-      <c r="N20" s="16" t="s">
+      <c r="N20" t="s">
         <v>205</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O20" s="6">
         <v>3.3730979060718225</v>
       </c>
-      <c r="P20" s="16">
+      <c r="P20">
         <v>7.5</v>
       </c>
-      <c r="Q20" s="17">
+      <c r="Q20" s="6">
         <v>10.873097906071823</v>
       </c>
-      <c r="R20" s="17">
+      <c r="R20" s="6">
         <v>10.873097906071823</v>
       </c>
-      <c r="S20" s="16" t="s">
+      <c r="S20" t="s">
         <v>205</v>
       </c>
-      <c r="T20" s="16" t="s">
+      <c r="T20" t="s">
         <v>205</v>
       </c>
       <c r="U20" s="8">
         <v>0.55974575373535651</v>
       </c>
-      <c r="V20" s="16" t="s">
+      <c r="V20" t="s">
         <v>100</v>
       </c>
       <c r="W20" s="8">
         <v>0.56096436904033009</v>
       </c>
-      <c r="X20" s="16">
+      <c r="X20">
         <v>610.39212498372171</v>
       </c>
-      <c r="Y20" s="16">
+      <c r="Y20">
         <v>610.39212498372171</v>
       </c>
-      <c r="Z20" s="16" t="s">
+      <c r="Z20" t="s">
         <v>194</v>
       </c>
-      <c r="AA20" s="16" t="s">
+      <c r="AA20" t="s">
         <v>194</v>
       </c>
-      <c r="AB20" s="16" t="s">
+      <c r="AB20" t="s">
         <v>194</v>
       </c>
-      <c r="AC20" s="16" t="s">
+      <c r="AC20" t="s">
         <v>100</v>
       </c>
-      <c r="AD20" s="16" t="s">
+      <c r="AD20" t="s">
         <v>33</v>
       </c>
-      <c r="AE20" s="16" t="s">
+      <c r="AE20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B21" s="16">
+    <row r="21" spans="2:68" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>5</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" t="s">
         <v>190</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21">
         <v>-5</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21">
         <v>5</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" s="8">
@@ -22957,10 +23235,10 @@
       <c r="I21" s="8">
         <v>2.5849641886283692E-2</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21">
         <v>6</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K21">
         <v>5</v>
       </c>
       <c r="L21" s="8">
@@ -22969,75 +23247,75 @@
       <c r="M21" s="8">
         <v>0.38326025180075024</v>
       </c>
-      <c r="N21" s="16" t="s">
+      <c r="N21" t="s">
         <v>205</v>
       </c>
-      <c r="O21" s="17">
+      <c r="O21" s="6">
         <v>0</v>
       </c>
-      <c r="P21" s="16">
+      <c r="P21">
         <v>7.5</v>
       </c>
-      <c r="Q21" s="17">
+      <c r="Q21" s="6">
         <v>7.5</v>
       </c>
-      <c r="R21" s="17">
+      <c r="R21" s="6">
         <v>7.5</v>
       </c>
-      <c r="S21" s="16" t="s">
+      <c r="S21" t="s">
         <v>205</v>
       </c>
-      <c r="T21" s="16" t="s">
+      <c r="T21" t="s">
         <v>101</v>
       </c>
       <c r="U21" s="8">
         <v>0.5</v>
       </c>
-      <c r="V21" s="16" t="s">
+      <c r="V21" t="s">
         <v>33</v>
       </c>
       <c r="W21" s="8">
         <v>0.44163012590037509</v>
       </c>
-      <c r="X21" s="16">
+      <c r="X21">
         <v>375.34466189181711</v>
       </c>
-      <c r="Y21" s="16">
+      <c r="Y21">
         <v>375.34466189181711</v>
       </c>
-      <c r="Z21" s="16" t="s">
+      <c r="Z21" t="s">
         <v>194</v>
       </c>
-      <c r="AA21" s="16" t="s">
+      <c r="AA21" t="s">
         <v>194</v>
       </c>
-      <c r="AB21" s="16" t="s">
+      <c r="AB21" t="s">
         <v>194</v>
       </c>
-      <c r="AC21" s="16" t="s">
+      <c r="AC21" t="s">
         <v>100</v>
       </c>
-      <c r="AD21" s="16" t="s">
+      <c r="AD21" t="s">
         <v>33</v>
       </c>
-      <c r="AE21" s="16" t="s">
+      <c r="AE21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B22" s="16">
+    <row r="22" spans="2:68" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>3</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" t="s">
         <v>190</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22">
         <v>-5</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22">
         <v>7</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22">
         <v>2</v>
       </c>
       <c r="G22" s="8">
@@ -23049,10 +23327,10 @@
       <c r="I22" s="8">
         <v>4.3496250871831066E-2</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22">
         <v>5</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22">
         <v>6</v>
       </c>
       <c r="L22" s="8">
@@ -23061,75 +23339,75 @@
       <c r="M22" s="8">
         <v>0.39246837449604222</v>
       </c>
-      <c r="N22" s="16" t="s">
+      <c r="N22" t="s">
         <v>198</v>
       </c>
-      <c r="O22" s="17">
+      <c r="O22" s="6">
         <v>0.78493674899208443</v>
       </c>
-      <c r="P22" s="16">
+      <c r="P22">
         <v>-7.5</v>
       </c>
-      <c r="Q22" s="17">
+      <c r="Q22" s="6">
         <v>-6.7150632510079156</v>
       </c>
-      <c r="R22" s="17">
+      <c r="R22" s="6">
         <v>6.7150632510079156</v>
       </c>
-      <c r="S22" s="16" t="s">
+      <c r="S22" t="s">
         <v>205</v>
       </c>
-      <c r="T22" s="16" t="s">
+      <c r="T22" t="s">
         <v>101</v>
       </c>
       <c r="U22" s="8">
         <v>0.5</v>
       </c>
-      <c r="V22" s="16" t="s">
+      <c r="V22" t="s">
         <v>33</v>
       </c>
       <c r="W22" s="8">
         <v>0.44623418724802111</v>
       </c>
-      <c r="X22" s="16">
+      <c r="X22">
         <v>-335.10542105867859</v>
       </c>
-      <c r="Y22" s="16">
+      <c r="Y22">
         <v>335.10542105867859</v>
       </c>
-      <c r="Z22" s="16" t="s">
+      <c r="Z22" t="s">
         <v>194</v>
       </c>
-      <c r="AA22" s="16" t="s">
+      <c r="AA22" t="s">
         <v>194</v>
       </c>
-      <c r="AB22" s="16" t="s">
+      <c r="AB22" t="s">
         <v>194</v>
       </c>
-      <c r="AC22" s="16" t="s">
+      <c r="AC22" t="s">
         <v>100</v>
       </c>
-      <c r="AD22" s="16" t="s">
+      <c r="AD22" t="s">
         <v>33</v>
       </c>
-      <c r="AE22" s="16" t="s">
+      <c r="AE22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B23" s="16" t="s">
+      <c r="B23" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" t="s">
         <v>191</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23">
         <v>3</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23">
         <v>7</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23">
         <v>10</v>
       </c>
       <c r="G23" s="8">
@@ -23141,10 +23419,10 @@
       <c r="I23" s="8">
         <v>7.0142135061641131E-2</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23">
         <v>9</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23">
         <v>2</v>
       </c>
       <c r="L23" s="8">
@@ -23153,75 +23431,75 @@
       <c r="M23" s="8">
         <v>0.65185030555724832</v>
       </c>
-      <c r="N23" s="16" t="s">
+      <c r="N23" t="s">
         <v>199</v>
       </c>
-      <c r="O23" s="17">
+      <c r="O23" s="6">
         <v>6.5185030555724834</v>
       </c>
-      <c r="P23" s="16">
+      <c r="P23">
         <v>-2.5</v>
       </c>
-      <c r="Q23" s="17">
+      <c r="Q23" s="6">
         <v>4.0185030555724834</v>
       </c>
-      <c r="R23" s="17">
+      <c r="R23" s="6">
         <v>4.0185030555724834</v>
       </c>
-      <c r="S23" s="16" t="s">
+      <c r="S23" t="s">
         <v>199</v>
       </c>
-      <c r="T23" s="16" t="s">
+      <c r="T23" t="s">
         <v>199</v>
       </c>
       <c r="U23" s="8">
         <v>0.63588471577965699</v>
       </c>
-      <c r="V23" s="16" t="s">
+      <c r="V23" t="s">
         <v>100</v>
       </c>
       <c r="W23" s="8">
         <v>0.6438675106684526</v>
       </c>
-      <c r="X23" s="16">
+      <c r="X23">
         <v>260.48383510237534</v>
       </c>
-      <c r="Y23" s="16">
+      <c r="Y23">
         <v>260.48383510237534</v>
       </c>
-      <c r="Z23" s="16" t="s">
+      <c r="Z23" t="s">
         <v>194</v>
       </c>
-      <c r="AA23" s="16" t="s">
+      <c r="AA23" t="s">
         <v>194</v>
       </c>
-      <c r="AB23" s="16" t="s">
+      <c r="AB23" t="s">
         <v>194</v>
       </c>
-      <c r="AC23" s="16" t="s">
+      <c r="AC23" t="s">
         <v>100</v>
       </c>
-      <c r="AD23" s="16" t="s">
+      <c r="AD23" t="s">
         <v>33</v>
       </c>
-      <c r="AE23" s="16" t="s">
+      <c r="AE23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B24" s="16">
+    <row r="24" spans="2:68" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>10</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" t="s">
         <v>191</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24">
         <v>5</v>
       </c>
-      <c r="E24" s="16">
-        <v>1</v>
-      </c>
-      <c r="F24" s="16">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
         <v>6</v>
       </c>
       <c r="G24" s="8">
@@ -23233,10 +23511,10 @@
       <c r="I24" s="8">
         <v>2.0615862196611712E-2</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24">
         <v>9</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K24">
         <v>2</v>
       </c>
       <c r="L24" s="8">
@@ -23245,75 +23523,75 @@
       <c r="M24" s="8">
         <v>0.57174153874119782</v>
       </c>
-      <c r="N24" s="16" t="s">
+      <c r="N24" t="s">
         <v>199</v>
       </c>
-      <c r="O24" s="17">
+      <c r="O24" s="6">
         <v>3.4304492324471871</v>
       </c>
-      <c r="P24" s="16">
+      <c r="P24">
         <v>-2.5</v>
       </c>
-      <c r="Q24" s="17">
+      <c r="Q24" s="6">
         <v>0.93044923244718714</v>
       </c>
-      <c r="R24" s="17">
+      <c r="R24" s="6">
         <v>0.93044923244718714</v>
       </c>
-      <c r="S24" s="16" t="s">
+      <c r="S24" t="s">
         <v>199</v>
       </c>
-      <c r="T24" s="16" t="s">
+      <c r="T24" t="s">
         <v>199</v>
       </c>
       <c r="U24" s="8">
         <v>0.62207972148656743</v>
       </c>
-      <c r="V24" s="16" t="s">
+      <c r="V24" t="s">
         <v>100</v>
       </c>
       <c r="W24" s="8">
         <v>0.59691063011388268</v>
       </c>
-      <c r="X24" s="16">
+      <c r="X24">
         <v>60.097049034830768</v>
       </c>
-      <c r="Y24" s="16">
+      <c r="Y24">
         <v>60.097049034830768</v>
       </c>
-      <c r="Z24" s="16" t="s">
+      <c r="Z24" t="s">
         <v>194</v>
       </c>
-      <c r="AA24" s="16" t="s">
+      <c r="AA24" t="s">
         <v>194</v>
       </c>
-      <c r="AB24" s="16" t="s">
+      <c r="AB24" t="s">
         <v>194</v>
       </c>
-      <c r="AC24" s="16" t="s">
+      <c r="AC24" t="s">
         <v>100</v>
       </c>
-      <c r="AD24" s="16" t="s">
+      <c r="AD24" t="s">
         <v>33</v>
       </c>
-      <c r="AE24" s="16" t="s">
+      <c r="AE24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B25" s="16">
+    <row r="25" spans="2:68" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B25">
         <v>5</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" t="s">
         <v>191</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25">
         <v>-9</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25">
         <v>-11</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25">
         <v>-20</v>
       </c>
       <c r="G25" s="8">
@@ -23325,10 +23603,10 @@
       <c r="I25" s="8">
         <v>4.9027021215001132E-2</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25">
         <v>10</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K25">
         <v>1</v>
       </c>
       <c r="L25" s="8">
@@ -23337,75 +23615,75 @@
       <c r="M25" s="8">
         <v>0.83791420759463042</v>
       </c>
-      <c r="N25" s="16" t="s">
+      <c r="N25" t="s">
         <v>206</v>
       </c>
-      <c r="O25" s="17">
+      <c r="O25" s="6">
         <v>16.75828415189261</v>
       </c>
-      <c r="P25" s="16">
+      <c r="P25">
         <v>2.5</v>
       </c>
-      <c r="Q25" s="17">
+      <c r="Q25" s="6">
         <v>19.25828415189261</v>
       </c>
-      <c r="R25" s="17">
+      <c r="R25" s="6">
         <v>19.25828415189261</v>
       </c>
-      <c r="S25" s="16" t="s">
+      <c r="S25" t="s">
         <v>206</v>
       </c>
-      <c r="T25" s="16" t="s">
+      <c r="T25" t="s">
         <v>206</v>
       </c>
       <c r="U25" s="8">
         <v>0.69302405261113353</v>
       </c>
-      <c r="V25" s="16" t="s">
+      <c r="V25" t="s">
         <v>100</v>
       </c>
       <c r="W25" s="8">
         <v>0.76546913010288198</v>
       </c>
-      <c r="X25" s="16">
+      <c r="X25">
         <v>1474.416777971064</v>
       </c>
-      <c r="Y25" s="16">
+      <c r="Y25">
         <v>1474.416777971064</v>
       </c>
-      <c r="Z25" s="16" t="s">
+      <c r="Z25" t="s">
         <v>194</v>
       </c>
-      <c r="AA25" s="16" t="s">
+      <c r="AA25" t="s">
         <v>194</v>
       </c>
-      <c r="AB25" s="16" t="s">
+      <c r="AB25" t="s">
         <v>194</v>
       </c>
-      <c r="AC25" s="16" t="s">
+      <c r="AC25" t="s">
         <v>100</v>
       </c>
-      <c r="AD25" s="16" t="s">
+      <c r="AD25" t="s">
         <v>33</v>
       </c>
-      <c r="AE25" s="16" t="s">
+      <c r="AE25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B26" s="16">
+    <row r="26" spans="2:68" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B26">
         <v>3</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" t="s">
         <v>191</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26">
         <v>-11</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26">
         <v>-11</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26">
         <v>-22</v>
       </c>
       <c r="G26" s="8">
@@ -23417,10 +23695,10 @@
       <c r="I26" s="8">
         <v>0.73085424454058145</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26">
         <v>11</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26">
         <v>0</v>
       </c>
       <c r="L26" s="8">
@@ -23429,75 +23707,75 @@
       <c r="M26" s="8">
         <v>0.91028474818019378</v>
       </c>
-      <c r="N26" s="16" t="s">
+      <c r="N26" t="s">
         <v>206</v>
       </c>
-      <c r="O26" s="17">
+      <c r="O26" s="6">
         <v>20.026264459964263</v>
       </c>
-      <c r="P26" s="16">
+      <c r="P26">
         <v>2.5</v>
       </c>
-      <c r="Q26" s="17">
+      <c r="Q26" s="6">
         <v>22.526264459964263</v>
       </c>
-      <c r="R26" s="17">
+      <c r="R26" s="6">
         <v>22.526264459964263</v>
       </c>
-      <c r="S26" s="16" t="s">
+      <c r="S26" t="s">
         <v>206</v>
       </c>
-      <c r="T26" s="16" t="s">
+      <c r="T26" t="s">
         <v>206</v>
       </c>
       <c r="U26" s="8">
         <v>0.69193343808696151</v>
       </c>
-      <c r="V26" s="16" t="s">
+      <c r="V26" t="s">
         <v>100</v>
       </c>
       <c r="W26" s="8">
         <v>0.80110909313357759</v>
       </c>
-      <c r="X26" s="16">
+      <c r="X26">
         <v>1807.8439831265543</v>
       </c>
-      <c r="Y26" s="16">
+      <c r="Y26">
         <v>1807.8439831265543</v>
       </c>
-      <c r="Z26" s="16" t="s">
+      <c r="Z26" t="s">
         <v>194</v>
       </c>
-      <c r="AA26" s="16" t="s">
+      <c r="AA26" t="s">
         <v>194</v>
       </c>
-      <c r="AB26" s="16" t="s">
+      <c r="AB26" t="s">
         <v>194</v>
       </c>
-      <c r="AC26" s="16" t="s">
+      <c r="AC26" t="s">
         <v>100</v>
       </c>
-      <c r="AD26" s="16" t="s">
+      <c r="AD26" t="s">
         <v>33</v>
       </c>
-      <c r="AE26" s="16" t="s">
+      <c r="AE26" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
+      <c r="B27" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" t="s">
         <v>192</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27">
         <v>3</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27">
         <v>7</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27">
         <v>10</v>
       </c>
       <c r="G27" s="8">
@@ -23509,10 +23787,10 @@
       <c r="I27" s="8">
         <v>5.1602130352147446E-3</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J27">
         <v>7</v>
       </c>
-      <c r="K27" s="16">
+      <c r="K27">
         <v>4</v>
       </c>
       <c r="L27" s="8">
@@ -23521,75 +23799,75 @@
       <c r="M27" s="8">
         <v>0.57628977225704248</v>
       </c>
-      <c r="N27" s="16" t="s">
+      <c r="N27" t="s">
         <v>200</v>
       </c>
-      <c r="O27" s="17">
+      <c r="O27" s="6">
         <v>5.7628977225704245</v>
       </c>
-      <c r="P27" s="16">
+      <c r="P27">
         <v>-6.5</v>
       </c>
-      <c r="Q27" s="17">
+      <c r="Q27" s="6">
         <v>-0.73710227742957546</v>
       </c>
-      <c r="R27" s="17">
+      <c r="R27" s="6">
         <v>0.73710227742957546</v>
       </c>
-      <c r="S27" s="16" t="s">
+      <c r="S27" t="s">
         <v>201</v>
       </c>
-      <c r="T27" s="16" t="s">
+      <c r="T27" t="s">
         <v>200</v>
       </c>
       <c r="U27" s="8">
         <v>0.57473395894821655</v>
       </c>
-      <c r="V27" s="16" t="s">
+      <c r="V27" t="s">
         <v>33</v>
       </c>
       <c r="W27" s="8">
         <v>0.57551186560262946</v>
       </c>
-      <c r="X27" s="16">
+      <c r="X27">
         <v>-41.721043243506607</v>
       </c>
-      <c r="Y27" s="16">
+      <c r="Y27">
         <v>41.721043243506607</v>
       </c>
-      <c r="Z27" s="16" t="s">
+      <c r="Z27" t="s">
         <v>194</v>
       </c>
-      <c r="AA27" s="16" t="s">
+      <c r="AA27" t="s">
         <v>194</v>
       </c>
-      <c r="AB27" s="16" t="s">
+      <c r="AB27" t="s">
         <v>194</v>
       </c>
-      <c r="AC27" s="16" t="s">
+      <c r="AC27" t="s">
         <v>100</v>
       </c>
-      <c r="AD27" s="16" t="s">
+      <c r="AD27" t="s">
         <v>33</v>
       </c>
-      <c r="AE27" s="16" t="s">
+      <c r="AE27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B28" s="16">
+    <row r="28" spans="2:68" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28">
         <v>10</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" t="s">
         <v>192</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28">
         <v>7</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28">
         <v>9</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28">
         <v>16</v>
       </c>
       <c r="G28" s="8">
@@ -23601,10 +23879,10 @@
       <c r="I28" s="8">
         <v>2.9619478215113348E-2</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J28">
         <v>8</v>
       </c>
-      <c r="K28" s="16">
+      <c r="K28">
         <v>3</v>
       </c>
       <c r="L28" s="8">
@@ -23613,75 +23891,75 @@
       <c r="M28" s="8">
         <v>0.68968210766203608</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="N28" t="s">
         <v>200</v>
       </c>
-      <c r="O28" s="17">
+      <c r="O28" s="6">
         <v>11.034913722592577</v>
       </c>
-      <c r="P28" s="16">
+      <c r="P28">
         <v>-6.5</v>
       </c>
-      <c r="Q28" s="17">
+      <c r="Q28" s="6">
         <v>4.5349137225925773</v>
       </c>
-      <c r="R28" s="17">
+      <c r="R28" s="6">
         <v>4.5349137225925773</v>
       </c>
-      <c r="S28" s="16" t="s">
+      <c r="S28" t="s">
         <v>200</v>
       </c>
-      <c r="T28" s="16" t="s">
+      <c r="T28" t="s">
         <v>200</v>
       </c>
       <c r="U28" s="8">
         <v>0.58731514308483601</v>
       </c>
-      <c r="V28" s="16" t="s">
+      <c r="V28" t="s">
         <v>100</v>
       </c>
       <c r="W28" s="8">
         <v>0.63849862537343605</v>
       </c>
-      <c r="X28" s="16">
+      <c r="X28">
         <v>290.20676095354997</v>
       </c>
-      <c r="Y28" s="16">
+      <c r="Y28">
         <v>290.20676095354997</v>
       </c>
-      <c r="Z28" s="16" t="s">
+      <c r="Z28" t="s">
         <v>194</v>
       </c>
-      <c r="AA28" s="16" t="s">
+      <c r="AA28" t="s">
         <v>194</v>
       </c>
-      <c r="AB28" s="16" t="s">
+      <c r="AB28" t="s">
         <v>194</v>
       </c>
-      <c r="AC28" s="16" t="s">
+      <c r="AC28" t="s">
         <v>100</v>
       </c>
-      <c r="AD28" s="16" t="s">
+      <c r="AD28" t="s">
         <v>33</v>
       </c>
-      <c r="AE28" s="16" t="s">
+      <c r="AE28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B29" s="16">
+    <row r="29" spans="2:68" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29">
         <v>5</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" t="s">
         <v>192</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29">
         <v>-11</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29">
         <v>-11</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29">
         <v>-22</v>
       </c>
       <c r="G29" s="8">
@@ -23693,10 +23971,10 @@
       <c r="I29" s="8">
         <v>0.78731423727895389</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29">
         <v>11</v>
       </c>
-      <c r="K29" s="16">
+      <c r="K29">
         <v>0</v>
       </c>
       <c r="L29" s="8">
@@ -23705,75 +23983,75 @@
       <c r="M29" s="8">
         <v>0.92910474575965141</v>
       </c>
-      <c r="N29" s="16" t="s">
+      <c r="N29" t="s">
         <v>201</v>
       </c>
-      <c r="O29" s="17">
+      <c r="O29" s="6">
         <v>20.440304406712333</v>
       </c>
-      <c r="P29" s="16">
+      <c r="P29">
         <v>6.5</v>
       </c>
-      <c r="Q29" s="17">
+      <c r="Q29" s="6">
         <v>26.940304406712333</v>
       </c>
-      <c r="R29" s="17">
+      <c r="R29" s="6">
         <v>26.940304406712333</v>
       </c>
-      <c r="S29" s="16" t="s">
+      <c r="S29" t="s">
         <v>201</v>
       </c>
-      <c r="T29" s="16" t="s">
+      <c r="T29" t="s">
         <v>201</v>
       </c>
       <c r="U29" s="8">
         <v>0.84423002566830108</v>
       </c>
-      <c r="V29" s="16" t="s">
+      <c r="V29" t="s">
         <v>100</v>
       </c>
       <c r="W29" s="8">
         <v>0.88666738571397619</v>
       </c>
-      <c r="X29" s="16">
+      <c r="X29">
         <v>2391.6313678830443</v>
       </c>
-      <c r="Y29" s="16">
+      <c r="Y29">
         <v>2391.6313678830443</v>
       </c>
-      <c r="Z29" s="16" t="s">
+      <c r="Z29" t="s">
         <v>194</v>
       </c>
-      <c r="AA29" s="16" t="s">
+      <c r="AA29" t="s">
         <v>194</v>
       </c>
-      <c r="AB29" s="16" t="s">
+      <c r="AB29" t="s">
         <v>194</v>
       </c>
-      <c r="AC29" s="16" t="s">
+      <c r="AC29" t="s">
         <v>100</v>
       </c>
-      <c r="AD29" s="16" t="s">
+      <c r="AD29" t="s">
         <v>33</v>
       </c>
-      <c r="AE29" s="16" t="s">
+      <c r="AE29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B30" s="16">
+    <row r="30" spans="2:68" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30">
         <v>3</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" t="s">
         <v>192</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30">
         <v>-11</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30">
         <v>-11</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30">
         <v>-22</v>
       </c>
       <c r="G30" s="8">
@@ -23785,10 +24063,10 @@
       <c r="I30" s="8">
         <v>0.80760855294379785</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J30">
         <v>11</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K30">
         <v>0</v>
       </c>
       <c r="L30" s="8">
@@ -23797,75 +24075,75 @@
       <c r="M30" s="8">
         <v>0.93586951764793269</v>
       </c>
-      <c r="N30" s="16" t="s">
+      <c r="N30" t="s">
         <v>201</v>
       </c>
-      <c r="O30" s="17">
+      <c r="O30" s="6">
         <v>20.58912938825452</v>
       </c>
-      <c r="P30" s="16">
+      <c r="P30">
         <v>6.5</v>
       </c>
-      <c r="Q30" s="17">
+      <c r="Q30" s="6">
         <v>27.08912938825452</v>
       </c>
-      <c r="R30" s="17">
+      <c r="R30" s="6">
         <v>27.08912938825452</v>
       </c>
-      <c r="S30" s="16" t="s">
+      <c r="S30" t="s">
         <v>201</v>
       </c>
-      <c r="T30" s="16" t="s">
+      <c r="T30" t="s">
         <v>201</v>
       </c>
       <c r="U30" s="8">
         <v>0.83840372920015604</v>
       </c>
-      <c r="V30" s="16" t="s">
+      <c r="V30" t="s">
         <v>100</v>
       </c>
       <c r="W30" s="8">
         <v>0.88713662342404431</v>
       </c>
-      <c r="X30" s="16">
+      <c r="X30">
         <v>2406.1571789488644</v>
       </c>
-      <c r="Y30" s="16">
+      <c r="Y30">
         <v>2406.1571789488644</v>
       </c>
-      <c r="Z30" s="16" t="s">
+      <c r="Z30" t="s">
         <v>194</v>
       </c>
-      <c r="AA30" s="16" t="s">
+      <c r="AA30" t="s">
         <v>194</v>
       </c>
-      <c r="AB30" s="16" t="s">
+      <c r="AB30" t="s">
         <v>194</v>
       </c>
-      <c r="AC30" s="16" t="s">
+      <c r="AC30" t="s">
         <v>100</v>
       </c>
-      <c r="AD30" s="16" t="s">
+      <c r="AD30" t="s">
         <v>33</v>
       </c>
-      <c r="AE30" s="16" t="s">
+      <c r="AE30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B31" s="16" t="s">
+      <c r="B31" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" t="s">
         <v>193</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31">
         <v>5</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31">
         <v>9</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31">
         <v>14</v>
       </c>
       <c r="G31" s="8">
@@ -23877,10 +24155,10 @@
       <c r="I31" s="8">
         <v>8.9210495177763915E-2</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J31">
         <v>9</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K31">
         <v>2</v>
       </c>
       <c r="L31" s="8">
@@ -23889,75 +24167,75 @@
       <c r="M31" s="8">
         <v>0.73146485623299062</v>
       </c>
-      <c r="N31" s="16" t="s">
+      <c r="N31" t="s">
         <v>202</v>
       </c>
-      <c r="O31" s="17">
+      <c r="O31" s="6">
         <v>10.240507987261868</v>
       </c>
-      <c r="P31" s="16">
+      <c r="P31">
         <v>-13.5</v>
       </c>
-      <c r="Q31" s="17">
+      <c r="Q31" s="6">
         <v>-3.2594920127381322</v>
       </c>
-      <c r="R31" s="17">
+      <c r="R31" s="6">
         <v>3.2594920127381322</v>
       </c>
-      <c r="S31" s="16" t="s">
+      <c r="S31" t="s">
         <v>203</v>
       </c>
-      <c r="T31" s="16" t="s">
+      <c r="T31" t="s">
         <v>202</v>
       </c>
       <c r="U31" s="8">
         <v>0.77227807367142409</v>
       </c>
-      <c r="V31" s="16" t="s">
+      <c r="V31" t="s">
         <v>33</v>
       </c>
       <c r="W31" s="8">
         <v>0.75187146495220736</v>
       </c>
-      <c r="X31" s="16">
+      <c r="X31">
         <v>-248.98647653495814</v>
       </c>
-      <c r="Y31" s="16">
+      <c r="Y31">
         <v>248.98647653495814</v>
       </c>
-      <c r="Z31" s="16" t="s">
+      <c r="Z31" t="s">
         <v>194</v>
       </c>
-      <c r="AA31" s="16" t="s">
+      <c r="AA31" t="s">
         <v>194</v>
       </c>
-      <c r="AB31" s="16" t="s">
+      <c r="AB31" t="s">
         <v>194</v>
       </c>
-      <c r="AC31" s="16" t="s">
+      <c r="AC31" t="s">
         <v>100</v>
       </c>
-      <c r="AD31" s="16" t="s">
+      <c r="AD31" t="s">
         <v>33</v>
       </c>
-      <c r="AE31" s="16" t="s">
+      <c r="AE31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B32" s="16">
+    <row r="32" spans="2:68" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32">
         <v>10</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" t="s">
         <v>193</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32">
         <v>11</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32">
         <v>11</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32">
         <v>22</v>
       </c>
       <c r="G32" s="8">
@@ -23969,10 +24247,10 @@
       <c r="I32" s="8">
         <v>0.82260334598522156</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J32">
         <v>11</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K32">
         <v>0</v>
       </c>
       <c r="L32" s="8">
@@ -23981,75 +24259,75 @@
       <c r="M32" s="8">
         <v>0.94086778199507393</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="N32" t="s">
         <v>202</v>
       </c>
-      <c r="O32" s="17">
+      <c r="O32" s="6">
         <v>20.699091203891626</v>
       </c>
-      <c r="P32" s="16">
+      <c r="P32">
         <v>-13.5</v>
       </c>
-      <c r="Q32" s="17">
+      <c r="Q32" s="6">
         <v>7.1990912038916264</v>
       </c>
-      <c r="R32" s="17">
+      <c r="R32" s="6">
         <v>7.1990912038916264</v>
       </c>
-      <c r="S32" s="16" t="s">
+      <c r="S32" t="s">
         <v>202</v>
       </c>
-      <c r="T32" s="16" t="s">
+      <c r="T32" t="s">
         <v>202</v>
       </c>
       <c r="U32" s="8">
         <v>0.88652019776464552</v>
       </c>
-      <c r="V32" s="16" t="s">
+      <c r="V32" t="s">
         <v>100</v>
       </c>
       <c r="W32" s="8">
         <v>0.91369398987985972</v>
       </c>
-      <c r="X32" s="16">
+      <c r="X32">
         <v>669.20312530191643</v>
       </c>
-      <c r="Y32" s="16">
+      <c r="Y32">
         <v>669.20312530191643</v>
       </c>
-      <c r="Z32" s="16" t="s">
+      <c r="Z32" t="s">
         <v>194</v>
       </c>
-      <c r="AA32" s="16" t="s">
+      <c r="AA32" t="s">
         <v>194</v>
       </c>
-      <c r="AB32" s="16" t="s">
+      <c r="AB32" t="s">
         <v>194</v>
       </c>
-      <c r="AC32" s="16" t="s">
+      <c r="AC32" t="s">
         <v>100</v>
       </c>
-      <c r="AD32" s="16" t="s">
+      <c r="AD32" t="s">
         <v>33</v>
       </c>
-      <c r="AE32" s="16" t="s">
+      <c r="AE32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B33" s="16">
+    <row r="33" spans="2:31" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33">
         <v>5</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" t="s">
         <v>193</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33">
         <v>11</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33">
         <v>11</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33">
         <v>22</v>
       </c>
       <c r="G33" s="8">
@@ -24061,10 +24339,10 @@
       <c r="I33" s="8">
         <v>0.84617009861309955</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J33">
         <v>11</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K33">
         <v>0</v>
       </c>
       <c r="L33" s="8">
@@ -24073,75 +24351,75 @@
       <c r="M33" s="8">
         <v>0.94872336620436659</v>
       </c>
-      <c r="N33" s="16" t="s">
+      <c r="N33" t="s">
         <v>202</v>
       </c>
-      <c r="O33" s="17">
+      <c r="O33" s="6">
         <v>20.871914056496067</v>
       </c>
-      <c r="P33" s="16">
+      <c r="P33">
         <v>-13.5</v>
       </c>
-      <c r="Q33" s="17">
+      <c r="Q33" s="6">
         <v>7.3719140564960668</v>
       </c>
-      <c r="R33" s="17">
+      <c r="R33" s="6">
         <v>7.3719140564960668</v>
       </c>
-      <c r="S33" s="16" t="s">
+      <c r="S33" t="s">
         <v>202</v>
       </c>
-      <c r="T33" s="16" t="s">
+      <c r="T33" t="s">
         <v>202</v>
       </c>
       <c r="U33" s="8">
         <v>0.87275173515343951</v>
       </c>
-      <c r="V33" s="16" t="s">
+      <c r="V33" t="s">
         <v>100</v>
       </c>
       <c r="W33" s="8">
         <v>0.91073755067890305</v>
       </c>
-      <c r="X33" s="16">
+      <c r="X33">
         <v>682.86619092334161</v>
       </c>
-      <c r="Y33" s="16">
+      <c r="Y33">
         <v>682.86619092334161</v>
       </c>
-      <c r="Z33" s="16" t="s">
+      <c r="Z33" t="s">
         <v>194</v>
       </c>
-      <c r="AA33" s="16" t="s">
+      <c r="AA33" t="s">
         <v>194</v>
       </c>
-      <c r="AB33" s="16" t="s">
+      <c r="AB33" t="s">
         <v>194</v>
       </c>
-      <c r="AC33" s="16" t="s">
+      <c r="AC33" t="s">
         <v>100</v>
       </c>
-      <c r="AD33" s="16" t="s">
+      <c r="AD33" t="s">
         <v>33</v>
       </c>
-      <c r="AE33" s="16" t="s">
+      <c r="AE33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B34" s="16">
+    <row r="34" spans="2:31" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34">
         <v>3</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" t="s">
         <v>193</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34">
         <v>11</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34">
         <v>11</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34">
         <v>22</v>
       </c>
       <c r="G34" s="8">
@@ -24153,10 +24431,10 @@
       <c r="I34" s="8">
         <v>0.89736931358147443</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34">
         <v>11</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K34">
         <v>0</v>
       </c>
       <c r="L34" s="8">
@@ -24165,58 +24443,58 @@
       <c r="M34" s="8">
         <v>0.96578977119382481</v>
       </c>
-      <c r="N34" s="16" t="s">
+      <c r="N34" t="s">
         <v>202</v>
       </c>
-      <c r="O34" s="17">
+      <c r="O34" s="6">
         <v>21.247374966264147</v>
       </c>
-      <c r="P34" s="16">
+      <c r="P34">
         <v>-13.5</v>
       </c>
-      <c r="Q34" s="17">
+      <c r="Q34" s="6">
         <v>7.7473749662641467</v>
       </c>
-      <c r="R34" s="17">
+      <c r="R34" s="6">
         <v>7.7473749662641467</v>
       </c>
-      <c r="S34" s="16" t="s">
+      <c r="S34" t="s">
         <v>202</v>
       </c>
-      <c r="T34" s="16" t="s">
+      <c r="T34" t="s">
         <v>202</v>
       </c>
       <c r="U34" s="8">
         <v>0.94343273948449802</v>
       </c>
-      <c r="V34" s="16" t="s">
+      <c r="V34" t="s">
         <v>100</v>
       </c>
       <c r="W34" s="8">
         <v>0.95461125533916147</v>
       </c>
-      <c r="X34" s="16">
+      <c r="X34">
         <v>751.156016382487</v>
       </c>
-      <c r="Y34" s="16">
+      <c r="Y34">
         <v>751.156016382487</v>
       </c>
-      <c r="Z34" s="16" t="s">
+      <c r="Z34" t="s">
         <v>194</v>
       </c>
-      <c r="AA34" s="16" t="s">
+      <c r="AA34" t="s">
         <v>194</v>
       </c>
-      <c r="AB34" s="16" t="s">
+      <c r="AB34" t="s">
         <v>194</v>
       </c>
-      <c r="AC34" s="16" t="s">
+      <c r="AC34" t="s">
         <v>100</v>
       </c>
-      <c r="AD34" s="16" t="s">
+      <c r="AD34" t="s">
         <v>33</v>
       </c>
-      <c r="AE34" s="16" t="s">
+      <c r="AE34" t="s">
         <v>33</v>
       </c>
     </row>
@@ -24245,6 +24523,21 @@
       <c r="R37" t="s">
         <v>185</v>
       </c>
+      <c r="T37" t="s">
+        <v>184</v>
+      </c>
+      <c r="U37" t="s">
+        <v>208</v>
+      </c>
+      <c r="V37" t="s">
+        <v>209</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="38" spans="2:31" x14ac:dyDescent="0.25">
       <c r="H38">
@@ -24256,7 +24549,7 @@
       <c r="K38" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="L38" s="18">
+      <c r="L38">
         <v>30</v>
       </c>
       <c r="N38">
@@ -24268,8 +24561,23 @@
       <c r="Q38" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="R38" s="18">
+      <c r="R38">
         <v>22</v>
+      </c>
+      <c r="T38" t="s">
+        <v>202</v>
+      </c>
+      <c r="U38">
+        <v>30</v>
+      </c>
+      <c r="V38" t="s">
+        <v>210</v>
+      </c>
+      <c r="X38" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y38" s="16">
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="2:31" x14ac:dyDescent="0.25">
@@ -24283,7 +24591,7 @@
       <c r="K39" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="L39" s="18">
+      <c r="L39">
         <v>25</v>
       </c>
       <c r="N39">
@@ -24295,8 +24603,23 @@
       <c r="Q39" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="R39" s="18">
+      <c r="R39">
         <v>18</v>
+      </c>
+      <c r="T39" t="s">
+        <v>196</v>
+      </c>
+      <c r="U39">
+        <v>25</v>
+      </c>
+      <c r="V39" t="s">
+        <v>210</v>
+      </c>
+      <c r="X39" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y39" s="16">
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="2:31" x14ac:dyDescent="0.25">
@@ -24310,7 +24633,7 @@
       <c r="K40" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="L40" s="18">
+      <c r="L40">
         <v>23</v>
       </c>
       <c r="N40">
@@ -24322,8 +24645,23 @@
       <c r="Q40" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="R40" s="18">
+      <c r="R40">
         <v>17</v>
+      </c>
+      <c r="T40" t="s">
+        <v>195</v>
+      </c>
+      <c r="U40">
+        <v>23</v>
+      </c>
+      <c r="V40" t="s">
+        <v>210</v>
+      </c>
+      <c r="X40" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y40" s="16">
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="2:31" x14ac:dyDescent="0.25">
@@ -24337,7 +24675,7 @@
       <c r="K41" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="L41" s="18">
+      <c r="L41">
         <v>14</v>
       </c>
       <c r="N41">
@@ -24349,8 +24687,23 @@
       <c r="Q41" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="R41" s="18">
+      <c r="R41">
         <v>16</v>
+      </c>
+      <c r="T41" t="s">
+        <v>195</v>
+      </c>
+      <c r="U41">
+        <v>22</v>
+      </c>
+      <c r="V41" t="s">
+        <v>211</v>
+      </c>
+      <c r="X41" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y41" s="16">
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="2:31" x14ac:dyDescent="0.25">
@@ -24364,7 +24717,7 @@
       <c r="K42" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="L42" s="18">
+      <c r="L42">
         <v>9</v>
       </c>
       <c r="N42">
@@ -24376,8 +24729,23 @@
       <c r="Q42" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="R42" s="18">
+      <c r="R42">
         <v>16</v>
+      </c>
+      <c r="T42" t="s">
+        <v>201</v>
+      </c>
+      <c r="U42">
+        <v>18</v>
+      </c>
+      <c r="V42" t="s">
+        <v>211</v>
+      </c>
+      <c r="X42" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y42" s="16">
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="2:31" x14ac:dyDescent="0.25">
@@ -24391,7 +24759,7 @@
       <c r="K43" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="L43" s="18">
+      <c r="L43">
         <v>8</v>
       </c>
       <c r="N43">
@@ -24403,8 +24771,23 @@
       <c r="Q43" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="R43" s="18">
+      <c r="R43">
         <v>13</v>
+      </c>
+      <c r="T43" t="s">
+        <v>166</v>
+      </c>
+      <c r="U43">
+        <v>17</v>
+      </c>
+      <c r="V43" t="s">
+        <v>211</v>
+      </c>
+      <c r="X43" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y43" s="16">
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="2:31" x14ac:dyDescent="0.25">
@@ -24418,7 +24801,7 @@
       <c r="K44" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="L44" s="18">
+      <c r="L44">
         <v>7</v>
       </c>
       <c r="N44">
@@ -24430,8 +24813,23 @@
       <c r="Q44" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="R44" s="18">
+      <c r="R44">
         <v>11</v>
+      </c>
+      <c r="T44" t="s">
+        <v>205</v>
+      </c>
+      <c r="U44">
+        <v>16</v>
+      </c>
+      <c r="V44" t="s">
+        <v>211</v>
+      </c>
+      <c r="X44" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y44" s="16">
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="2:31" x14ac:dyDescent="0.25">
@@ -24445,7 +24843,7 @@
       <c r="K45" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="L45" s="18">
+      <c r="L45">
         <v>7</v>
       </c>
       <c r="N45">
@@ -24457,8 +24855,23 @@
       <c r="Q45" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="R45" s="18">
+      <c r="R45">
         <v>11</v>
+      </c>
+      <c r="T45" t="s">
+        <v>202</v>
+      </c>
+      <c r="U45">
+        <v>16</v>
+      </c>
+      <c r="V45" t="s">
+        <v>211</v>
+      </c>
+      <c r="X45" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y45" s="16">
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="2:31" x14ac:dyDescent="0.25">
@@ -24471,7 +24884,7 @@
       <c r="K46" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="L46" s="18">
+      <c r="L46">
         <v>6</v>
       </c>
       <c r="N46">
@@ -24483,8 +24896,23 @@
       <c r="Q46" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="R46" s="18">
+      <c r="R46">
         <v>5</v>
+      </c>
+      <c r="T46" t="s">
+        <v>201</v>
+      </c>
+      <c r="U46">
+        <v>14</v>
+      </c>
+      <c r="V46" t="s">
+        <v>210</v>
+      </c>
+      <c r="X46" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y46" s="16">
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.25">
@@ -24498,7 +24926,7 @@
       <c r="K47" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="L47" s="18">
+      <c r="L47">
         <v>5</v>
       </c>
       <c r="N47">
@@ -24510,8 +24938,23 @@
       <c r="Q47" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="R47" s="18">
+      <c r="R47">
         <v>5</v>
+      </c>
+      <c r="T47" t="s">
+        <v>206</v>
+      </c>
+      <c r="U47">
+        <v>13</v>
+      </c>
+      <c r="V47" t="s">
+        <v>211</v>
+      </c>
+      <c r="X47" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y47" s="16">
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="2:31" x14ac:dyDescent="0.25">
@@ -24525,7 +24968,7 @@
       <c r="K48" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="L48" s="18">
+      <c r="L48">
         <v>5</v>
       </c>
       <c r="N48">
@@ -24537,11 +24980,26 @@
       <c r="Q48" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="R48" s="18">
+      <c r="R48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="T48" t="s">
+        <v>196</v>
+      </c>
+      <c r="U48">
+        <v>11</v>
+      </c>
+      <c r="V48" t="s">
+        <v>211</v>
+      </c>
+      <c r="X48" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y48" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H49">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -24552,7 +25010,7 @@
       <c r="K49" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="L49" s="18">
+      <c r="L49">
         <v>3</v>
       </c>
       <c r="N49">
@@ -24564,11 +25022,26 @@
       <c r="Q49" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="R49" s="18">
+      <c r="R49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="T49" t="s">
+        <v>169</v>
+      </c>
+      <c r="U49">
+        <v>11</v>
+      </c>
+      <c r="V49" t="s">
+        <v>211</v>
+      </c>
+      <c r="X49" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y49" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H50">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -24579,7 +25052,7 @@
       <c r="K50" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="L50" s="18">
+      <c r="L50">
         <v>2</v>
       </c>
       <c r="N50">
@@ -24591,11 +25064,26 @@
       <c r="Q50" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="R50" s="18">
+      <c r="R50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="T50" t="s">
+        <v>199</v>
+      </c>
+      <c r="U50">
+        <v>9</v>
+      </c>
+      <c r="V50" t="s">
+        <v>210</v>
+      </c>
+      <c r="X50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y50" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H51">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -24606,7 +25094,7 @@
       <c r="K51" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L51" s="18">
+      <c r="L51">
         <v>144</v>
       </c>
       <c r="N51">
@@ -24618,11 +25106,26 @@
       <c r="Q51" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="R51" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s">
+        <v>166</v>
+      </c>
+      <c r="U51">
+        <v>8</v>
+      </c>
+      <c r="V51" t="s">
+        <v>210</v>
+      </c>
+      <c r="X51" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y51" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H52">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -24639,11 +25142,26 @@
       <c r="Q52" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R52" s="18">
+      <c r="R52">
         <v>144</v>
       </c>
-    </row>
-    <row r="53" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="T52" t="s">
+        <v>206</v>
+      </c>
+      <c r="U52">
+        <v>7</v>
+      </c>
+      <c r="V52" t="s">
+        <v>210</v>
+      </c>
+      <c r="X52" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y52" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H53">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -24657,8 +25175,23 @@
       <c r="O53" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="54" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="T53" t="s">
+        <v>200</v>
+      </c>
+      <c r="U53">
+        <v>7</v>
+      </c>
+      <c r="V53" t="s">
+        <v>210</v>
+      </c>
+      <c r="X53" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y53" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H54">
         <v>8</v>
       </c>
@@ -24671,8 +25204,23 @@
       <c r="O54" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="55" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="T54" t="s">
+        <v>101</v>
+      </c>
+      <c r="U54">
+        <v>6</v>
+      </c>
+      <c r="V54" t="s">
+        <v>210</v>
+      </c>
+      <c r="X54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y54" s="16">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="55" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H55">
         <f>H54-1</f>
         <v>7</v>
@@ -24686,8 +25234,17 @@
       <c r="O55" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="56" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="T55" t="s">
+        <v>204</v>
+      </c>
+      <c r="U55">
+        <v>5</v>
+      </c>
+      <c r="V55" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H56">
         <f t="shared" ref="H56:H61" si="2">H55-1</f>
         <v>6</v>
@@ -24701,8 +25258,17 @@
       <c r="O56" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="57" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="T56" t="s">
+        <v>198</v>
+      </c>
+      <c r="U56">
+        <v>5</v>
+      </c>
+      <c r="V56" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="57" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H57">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -24716,8 +25282,17 @@
       <c r="O57" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="58" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="T57" t="s">
+        <v>198</v>
+      </c>
+      <c r="U57">
+        <v>5</v>
+      </c>
+      <c r="V57" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H58">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -24731,8 +25306,17 @@
       <c r="O58" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="59" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="T58" t="s">
+        <v>199</v>
+      </c>
+      <c r="U58">
+        <v>5</v>
+      </c>
+      <c r="V58" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H59">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -24746,8 +25330,17 @@
       <c r="O59" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="60" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="T59" t="s">
+        <v>204</v>
+      </c>
+      <c r="U59">
+        <v>4</v>
+      </c>
+      <c r="V59" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H60">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -24761,8 +25354,17 @@
       <c r="O60" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="61" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="T60" t="s">
+        <v>205</v>
+      </c>
+      <c r="U60">
+        <v>3</v>
+      </c>
+      <c r="V60" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H61">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -24776,8 +25378,17 @@
       <c r="O61" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="62" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="T61" t="s">
+        <v>203</v>
+      </c>
+      <c r="U61">
+        <v>3</v>
+      </c>
+      <c r="V61" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H62">
         <v>8</v>
       </c>
@@ -24790,8 +25401,17 @@
       <c r="O62" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="63" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="T62" t="s">
+        <v>168</v>
+      </c>
+      <c r="U62">
+        <v>2</v>
+      </c>
+      <c r="V62" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H63">
         <v>7</v>
       </c>
@@ -24804,8 +25424,17 @@
       <c r="O63" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="64" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="T63" t="s">
+        <v>200</v>
+      </c>
+      <c r="U63">
+        <v>2</v>
+      </c>
+      <c r="V63" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H64">
         <v>6</v>
       </c>
@@ -24817,6 +25446,15 @@
       </c>
       <c r="O64" t="s">
         <v>206</v>
+      </c>
+      <c r="T64" t="s">
+        <v>197</v>
+      </c>
+      <c r="U64">
+        <v>1</v>
+      </c>
+      <c r="V64" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="8:15" x14ac:dyDescent="0.25">
@@ -24890,13 +25528,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="T37:V64" xr:uid="{ECBB0E72-491A-4808-A57D-3D7A9394C08C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T38:V64">
+      <sortCondition descending="1" ref="U37:U64"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
   <tableParts count="3">
-    <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
@@ -27988,13 +28631,13 @@
       <c r="M53" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N53" s="18">
+      <c r="N53">
         <v>3</v>
       </c>
-      <c r="O53" s="18">
+      <c r="O53">
         <v>2</v>
       </c>
-      <c r="P53" s="18">
+      <c r="P53">
         <v>5</v>
       </c>
     </row>
@@ -28036,13 +28679,13 @@
       <c r="M54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N54" s="18">
+      <c r="N54">
         <v>7</v>
       </c>
-      <c r="O54" s="18">
+      <c r="O54">
         <v>4</v>
       </c>
-      <c r="P54" s="18">
+      <c r="P54">
         <v>11</v>
       </c>
     </row>
@@ -28084,13 +28727,13 @@
       <c r="M55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N55" s="18">
+      <c r="N55">
         <v>5</v>
       </c>
-      <c r="O55" s="18">
+      <c r="O55">
         <v>6</v>
       </c>
-      <c r="P55" s="18">
+      <c r="P55">
         <v>11</v>
       </c>
     </row>
@@ -28132,13 +28775,13 @@
       <c r="M56" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N56" s="18">
+      <c r="N56">
         <v>8</v>
       </c>
-      <c r="O56" s="18">
+      <c r="O56">
         <v>2</v>
       </c>
-      <c r="P56" s="18">
+      <c r="P56">
         <v>10</v>
       </c>
     </row>
@@ -28180,13 +28823,13 @@
       <c r="M57" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N57" s="18">
+      <c r="N57">
         <v>7</v>
       </c>
-      <c r="O57" s="18">
+      <c r="O57">
         <v>3</v>
       </c>
-      <c r="P57" s="18">
+      <c r="P57">
         <v>10</v>
       </c>
     </row>
@@ -28228,13 +28871,13 @@
       <c r="M58" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N58" s="18">
+      <c r="N58">
         <v>6</v>
       </c>
-      <c r="O58" s="18">
+      <c r="O58">
         <v>4</v>
       </c>
-      <c r="P58" s="18">
+      <c r="P58">
         <v>10</v>
       </c>
     </row>
@@ -28276,13 +28919,13 @@
       <c r="M59" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N59" s="18">
+      <c r="N59">
         <v>6</v>
       </c>
-      <c r="O59" s="18">
+      <c r="O59">
         <v>5</v>
       </c>
-      <c r="P59" s="18">
+      <c r="P59">
         <v>11</v>
       </c>
     </row>
@@ -28324,13 +28967,13 @@
       <c r="M60" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N60" s="18">
+      <c r="N60">
         <v>42</v>
       </c>
-      <c r="O60" s="18">
+      <c r="O60">
         <v>26</v>
       </c>
-      <c r="P60" s="18">
+      <c r="P60">
         <v>68</v>
       </c>
     </row>

--- a/AnalysisData/NBATemplate.xlsx
+++ b/AnalysisData/NBATemplate.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chamucolol87\Desktop\NBAAnalyzer\AnalysisData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BD9758-0B32-4AF2-BA34-9591737AE44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B543CAD5-86A6-4F26-802E-623C4AE10F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="601" activeTab="1" xr2:uid="{F638F9AC-EDFB-4283-9C34-CE5D256891CD}"/>
+    <workbookView xWindow="12000" yWindow="0" windowWidth="12000" windowHeight="12900" tabRatio="601" activeTab="1" xr2:uid="{F638F9AC-EDFB-4283-9C34-CE5D256891CD}"/>
   </bookViews>
   <sheets>
     <sheet name="dataNBA23" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <pivotCache cacheId="7" r:id="rId13"/>
     <pivotCache cacheId="8" r:id="rId14"/>
     <pivotCache cacheId="9" r:id="rId15"/>
+    <pivotCache cacheId="13" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="220">
   <si>
     <t>file</t>
   </si>
@@ -700,6 +701,18 @@
   </si>
   <si>
     <t>CHI</t>
+  </si>
+  <si>
+    <t>NUM</t>
+  </si>
+  <si>
+    <t>TEAM</t>
+  </si>
+  <si>
+    <t>Sum of NUM</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -1897,6 +1910,47 @@
     </cacheField>
     <cacheField name="points" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="39"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Chamucolol87" refreshedDate="45733.796104166664" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="29" xr:uid="{85498596-7C2B-4DA5-88AF-7300D0B58CD1}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B45:C74" sheet="Consolidate"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="NUM" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="16"/>
+    </cacheField>
+    <cacheField name="TEAM" numFmtId="0">
+      <sharedItems count="19">
+        <s v="HOU"/>
+        <s v="GSW"/>
+        <s v="MIN"/>
+        <s v="NYK"/>
+        <s v="DET"/>
+        <s v="CHI"/>
+        <s v="POR"/>
+        <s v="LAL"/>
+        <s v="MEM"/>
+        <s v="PHO"/>
+        <s v="TOR"/>
+        <s v="SAC"/>
+        <s v="SAS"/>
+        <s v="NOP"/>
+        <s v="PHI"/>
+        <s v="UTA"/>
+        <s v="IND"/>
+        <s v="WAS"/>
+        <s v="DEN"/>
+      </sharedItems>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -3444,6 +3498,127 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="29">
+  <r>
+    <n v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="18"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="40">
   <r>
@@ -12394,1329 +12569,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{41D0ABC2-0BCC-42F9-B838-11726F69C7E2}" name="PivotTable6" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M2:P16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="231">
-        <item m="1" x="215"/>
-        <item m="1" x="216"/>
-        <item m="1" x="217"/>
-        <item m="1" x="218"/>
-        <item m="1" x="219"/>
-        <item m="1" x="220"/>
-        <item m="1" x="221"/>
-        <item m="1" x="222"/>
-        <item m="1" x="223"/>
-        <item m="1" x="224"/>
-        <item m="1" x="225"/>
-        <item m="1" x="226"/>
-        <item m="1" x="227"/>
-        <item m="1" x="228"/>
-        <item m="1" x="229"/>
-        <item m="1" x="210"/>
-        <item m="1" x="211"/>
-        <item m="1" x="212"/>
-        <item m="1" x="213"/>
-        <item m="1" x="214"/>
-        <item x="11"/>
-        <item m="1" x="200"/>
-        <item m="1" x="201"/>
-        <item m="1" x="202"/>
-        <item m="1" x="203"/>
-        <item m="1" x="204"/>
-        <item m="1" x="205"/>
-        <item m="1" x="206"/>
-        <item m="1" x="207"/>
-        <item m="1" x="208"/>
-        <item m="1" x="209"/>
-        <item m="1" x="191"/>
-        <item m="1" x="192"/>
-        <item m="1" x="193"/>
-        <item m="1" x="194"/>
-        <item m="1" x="195"/>
-        <item m="1" x="196"/>
-        <item m="1" x="197"/>
-        <item m="1" x="198"/>
-        <item m="1" x="199"/>
-        <item m="1" x="186"/>
-        <item m="1" x="187"/>
-        <item m="1" x="188"/>
-        <item m="1" x="189"/>
-        <item m="1" x="190"/>
-        <item m="1" x="176"/>
-        <item m="1" x="177"/>
-        <item m="1" x="178"/>
-        <item m="1" x="179"/>
-        <item m="1" x="180"/>
-        <item m="1" x="181"/>
-        <item m="1" x="182"/>
-        <item m="1" x="183"/>
-        <item m="1" x="184"/>
-        <item m="1" x="185"/>
-        <item m="1" x="168"/>
-        <item m="1" x="169"/>
-        <item m="1" x="170"/>
-        <item m="1" x="171"/>
-        <item m="1" x="172"/>
-        <item m="1" x="173"/>
-        <item m="1" x="174"/>
-        <item m="1" x="175"/>
-        <item m="1" x="161"/>
-        <item m="1" x="162"/>
-        <item m="1" x="163"/>
-        <item m="1" x="164"/>
-        <item m="1" x="165"/>
-        <item m="1" x="166"/>
-        <item m="1" x="167"/>
-        <item m="1" x="152"/>
-        <item m="1" x="153"/>
-        <item m="1" x="154"/>
-        <item m="1" x="155"/>
-        <item m="1" x="156"/>
-        <item m="1" x="157"/>
-        <item m="1" x="158"/>
-        <item m="1" x="159"/>
-        <item m="1" x="160"/>
-        <item m="1" x="147"/>
-        <item m="1" x="148"/>
-        <item m="1" x="149"/>
-        <item m="1" x="150"/>
-        <item m="1" x="151"/>
-        <item m="1" x="137"/>
-        <item m="1" x="138"/>
-        <item m="1" x="139"/>
-        <item m="1" x="140"/>
-        <item m="1" x="141"/>
-        <item m="1" x="142"/>
-        <item m="1" x="143"/>
-        <item m="1" x="144"/>
-        <item m="1" x="145"/>
-        <item m="1" x="146"/>
-        <item m="1" x="131"/>
-        <item m="1" x="132"/>
-        <item m="1" x="133"/>
-        <item m="1" x="134"/>
-        <item m="1" x="135"/>
-        <item m="1" x="136"/>
-        <item m="1" x="122"/>
-        <item m="1" x="123"/>
-        <item m="1" x="124"/>
-        <item m="1" x="125"/>
-        <item m="1" x="126"/>
-        <item m="1" x="127"/>
-        <item m="1" x="128"/>
-        <item m="1" x="129"/>
-        <item m="1" x="130"/>
-        <item m="1" x="115"/>
-        <item m="1" x="116"/>
-        <item m="1" x="117"/>
-        <item m="1" x="118"/>
-        <item m="1" x="119"/>
-        <item m="1" x="120"/>
-        <item m="1" x="121"/>
-        <item m="1" x="106"/>
-        <item m="1" x="107"/>
-        <item m="1" x="108"/>
-        <item m="1" x="109"/>
-        <item m="1" x="110"/>
-        <item m="1" x="111"/>
-        <item m="1" x="112"/>
-        <item m="1" x="113"/>
-        <item m="1" x="114"/>
-        <item m="1" x="98"/>
-        <item m="1" x="99"/>
-        <item m="1" x="100"/>
-        <item m="1" x="101"/>
-        <item m="1" x="102"/>
-        <item m="1" x="103"/>
-        <item m="1" x="104"/>
-        <item m="1" x="105"/>
-        <item m="1" x="93"/>
-        <item m="1" x="94"/>
-        <item m="1" x="95"/>
-        <item m="1" x="96"/>
-        <item m="1" x="97"/>
-        <item m="1" x="92"/>
-        <item m="1" x="84"/>
-        <item m="1" x="85"/>
-        <item m="1" x="86"/>
-        <item m="1" x="87"/>
-        <item m="1" x="88"/>
-        <item m="1" x="89"/>
-        <item m="1" x="90"/>
-        <item m="1" x="91"/>
-        <item m="1" x="76"/>
-        <item m="1" x="77"/>
-        <item m="1" x="78"/>
-        <item m="1" x="79"/>
-        <item m="1" x="80"/>
-        <item m="1" x="81"/>
-        <item m="1" x="82"/>
-        <item m="1" x="83"/>
-        <item m="1" x="68"/>
-        <item m="1" x="69"/>
-        <item m="1" x="70"/>
-        <item m="1" x="71"/>
-        <item m="1" x="72"/>
-        <item m="1" x="73"/>
-        <item m="1" x="74"/>
-        <item m="1" x="75"/>
-        <item m="1" x="56"/>
-        <item m="1" x="57"/>
-        <item m="1" x="58"/>
-        <item m="1" x="59"/>
-        <item m="1" x="60"/>
-        <item m="1" x="61"/>
-        <item m="1" x="62"/>
-        <item m="1" x="63"/>
-        <item m="1" x="64"/>
-        <item m="1" x="65"/>
-        <item m="1" x="66"/>
-        <item m="1" x="67"/>
-        <item m="1" x="52"/>
-        <item m="1" x="53"/>
-        <item m="1" x="54"/>
-        <item m="1" x="55"/>
-        <item m="1" x="43"/>
-        <item m="1" x="44"/>
-        <item m="1" x="45"/>
-        <item m="1" x="46"/>
-        <item m="1" x="47"/>
-        <item m="1" x="48"/>
-        <item m="1" x="49"/>
-        <item m="1" x="50"/>
-        <item m="1" x="51"/>
-        <item m="1" x="38"/>
-        <item m="1" x="39"/>
-        <item m="1" x="40"/>
-        <item m="1" x="41"/>
-        <item m="1" x="42"/>
-        <item m="1" x="28"/>
-        <item m="1" x="29"/>
-        <item m="1" x="30"/>
-        <item m="1" x="31"/>
-        <item m="1" x="32"/>
-        <item m="1" x="33"/>
-        <item m="1" x="34"/>
-        <item m="1" x="35"/>
-        <item m="1" x="36"/>
-        <item m="1" x="37"/>
-        <item m="1" x="20"/>
-        <item m="1" x="21"/>
-        <item m="1" x="22"/>
-        <item m="1" x="23"/>
-        <item m="1" x="24"/>
-        <item m="1" x="25"/>
-        <item m="1" x="26"/>
-        <item m="1" x="27"/>
-        <item m="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item m="1" x="15"/>
-        <item m="1" x="16"/>
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
-        <item m="1" x="19"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="219"/>
-    </i>
-    <i>
-      <x v="220"/>
-    </i>
-    <i>
-      <x v="221"/>
-    </i>
-    <i>
-      <x v="222"/>
-    </i>
-    <i>
-      <x v="223"/>
-    </i>
-    <i>
-      <x v="224"/>
-    </i>
-    <i>
-      <x v="225"/>
-    </i>
-    <i>
-      <x v="226"/>
-    </i>
-    <i>
-      <x v="227"/>
-    </i>
-    <i>
-      <x v="228"/>
-    </i>
-    <i>
-      <x v="229"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="9"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Consistency" fld="9" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{325DD11A-A3D8-4ACD-873A-52C562329ABB}" name="PivotTable8" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M51:P60" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="10"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Consistency" fld="10" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DF5E25AC-E372-4CBF-8687-CBF270CBC9E3}" name="PivotTable6" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M25:O47" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField axis="axisRow" numFmtId="2" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField dataField="1" numFmtId="2" showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="22">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Average of LRU probability" fld="6" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
-    <dataField name="Average of RFU probability" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5C153422-E51A-4C78-B987-C083165D0893}" name="PivotTable5" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M14:O22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField dataField="1" numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField dataField="1" numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of LRU  prediction" fld="5" baseField="0" baseItem="0" numFmtId="2"/>
-    <dataField name="Sum of RFU prediction" fld="7" baseField="0" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E62B0701-D8F2-4374-A507-49A71B4E1EE2}" name="PivotTable9" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="W2:Y32" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="231">
-        <item m="1" x="215"/>
-        <item m="1" x="216"/>
-        <item m="1" x="217"/>
-        <item m="1" x="218"/>
-        <item m="1" x="219"/>
-        <item m="1" x="220"/>
-        <item m="1" x="221"/>
-        <item m="1" x="222"/>
-        <item m="1" x="223"/>
-        <item m="1" x="224"/>
-        <item m="1" x="225"/>
-        <item m="1" x="226"/>
-        <item m="1" x="227"/>
-        <item m="1" x="228"/>
-        <item m="1" x="229"/>
-        <item m="1" x="210"/>
-        <item m="1" x="211"/>
-        <item m="1" x="212"/>
-        <item m="1" x="213"/>
-        <item m="1" x="214"/>
-        <item x="11"/>
-        <item m="1" x="200"/>
-        <item m="1" x="201"/>
-        <item m="1" x="202"/>
-        <item m="1" x="203"/>
-        <item m="1" x="204"/>
-        <item m="1" x="205"/>
-        <item m="1" x="206"/>
-        <item m="1" x="207"/>
-        <item m="1" x="208"/>
-        <item m="1" x="209"/>
-        <item m="1" x="191"/>
-        <item m="1" x="192"/>
-        <item m="1" x="193"/>
-        <item m="1" x="194"/>
-        <item m="1" x="195"/>
-        <item m="1" x="196"/>
-        <item m="1" x="197"/>
-        <item m="1" x="198"/>
-        <item m="1" x="199"/>
-        <item m="1" x="186"/>
-        <item m="1" x="187"/>
-        <item m="1" x="188"/>
-        <item m="1" x="189"/>
-        <item m="1" x="190"/>
-        <item m="1" x="176"/>
-        <item m="1" x="177"/>
-        <item m="1" x="178"/>
-        <item m="1" x="179"/>
-        <item m="1" x="180"/>
-        <item m="1" x="181"/>
-        <item m="1" x="182"/>
-        <item m="1" x="183"/>
-        <item m="1" x="184"/>
-        <item m="1" x="185"/>
-        <item m="1" x="168"/>
-        <item m="1" x="169"/>
-        <item m="1" x="170"/>
-        <item m="1" x="171"/>
-        <item m="1" x="172"/>
-        <item m="1" x="173"/>
-        <item m="1" x="174"/>
-        <item m="1" x="175"/>
-        <item m="1" x="161"/>
-        <item m="1" x="162"/>
-        <item m="1" x="163"/>
-        <item m="1" x="164"/>
-        <item m="1" x="165"/>
-        <item m="1" x="166"/>
-        <item m="1" x="167"/>
-        <item m="1" x="152"/>
-        <item m="1" x="153"/>
-        <item m="1" x="154"/>
-        <item m="1" x="155"/>
-        <item m="1" x="156"/>
-        <item m="1" x="157"/>
-        <item m="1" x="158"/>
-        <item m="1" x="159"/>
-        <item m="1" x="160"/>
-        <item m="1" x="147"/>
-        <item m="1" x="148"/>
-        <item m="1" x="149"/>
-        <item m="1" x="150"/>
-        <item m="1" x="151"/>
-        <item m="1" x="137"/>
-        <item m="1" x="138"/>
-        <item m="1" x="139"/>
-        <item m="1" x="140"/>
-        <item m="1" x="141"/>
-        <item m="1" x="142"/>
-        <item m="1" x="143"/>
-        <item m="1" x="144"/>
-        <item m="1" x="145"/>
-        <item m="1" x="146"/>
-        <item m="1" x="131"/>
-        <item m="1" x="132"/>
-        <item m="1" x="133"/>
-        <item m="1" x="134"/>
-        <item m="1" x="135"/>
-        <item m="1" x="136"/>
-        <item m="1" x="122"/>
-        <item m="1" x="123"/>
-        <item m="1" x="124"/>
-        <item m="1" x="125"/>
-        <item m="1" x="126"/>
-        <item m="1" x="127"/>
-        <item m="1" x="128"/>
-        <item m="1" x="129"/>
-        <item m="1" x="130"/>
-        <item m="1" x="115"/>
-        <item m="1" x="116"/>
-        <item m="1" x="117"/>
-        <item m="1" x="118"/>
-        <item m="1" x="119"/>
-        <item m="1" x="120"/>
-        <item m="1" x="121"/>
-        <item m="1" x="106"/>
-        <item m="1" x="107"/>
-        <item m="1" x="108"/>
-        <item m="1" x="109"/>
-        <item m="1" x="110"/>
-        <item m="1" x="111"/>
-        <item m="1" x="112"/>
-        <item m="1" x="113"/>
-        <item m="1" x="114"/>
-        <item m="1" x="98"/>
-        <item m="1" x="99"/>
-        <item m="1" x="100"/>
-        <item m="1" x="101"/>
-        <item m="1" x="102"/>
-        <item m="1" x="103"/>
-        <item m="1" x="104"/>
-        <item m="1" x="105"/>
-        <item m="1" x="93"/>
-        <item m="1" x="94"/>
-        <item m="1" x="95"/>
-        <item m="1" x="96"/>
-        <item m="1" x="97"/>
-        <item m="1" x="92"/>
-        <item m="1" x="84"/>
-        <item m="1" x="85"/>
-        <item m="1" x="86"/>
-        <item m="1" x="87"/>
-        <item m="1" x="88"/>
-        <item m="1" x="89"/>
-        <item m="1" x="90"/>
-        <item m="1" x="91"/>
-        <item m="1" x="76"/>
-        <item m="1" x="77"/>
-        <item m="1" x="78"/>
-        <item m="1" x="79"/>
-        <item m="1" x="80"/>
-        <item m="1" x="81"/>
-        <item m="1" x="82"/>
-        <item m="1" x="83"/>
-        <item m="1" x="68"/>
-        <item m="1" x="69"/>
-        <item m="1" x="70"/>
-        <item m="1" x="71"/>
-        <item m="1" x="72"/>
-        <item m="1" x="73"/>
-        <item m="1" x="74"/>
-        <item m="1" x="75"/>
-        <item m="1" x="56"/>
-        <item m="1" x="57"/>
-        <item m="1" x="58"/>
-        <item m="1" x="59"/>
-        <item m="1" x="60"/>
-        <item m="1" x="61"/>
-        <item m="1" x="62"/>
-        <item m="1" x="63"/>
-        <item m="1" x="64"/>
-        <item m="1" x="65"/>
-        <item m="1" x="66"/>
-        <item m="1" x="67"/>
-        <item m="1" x="52"/>
-        <item m="1" x="53"/>
-        <item m="1" x="54"/>
-        <item m="1" x="55"/>
-        <item m="1" x="43"/>
-        <item m="1" x="44"/>
-        <item m="1" x="45"/>
-        <item m="1" x="46"/>
-        <item m="1" x="47"/>
-        <item m="1" x="48"/>
-        <item m="1" x="49"/>
-        <item m="1" x="50"/>
-        <item m="1" x="51"/>
-        <item m="1" x="38"/>
-        <item m="1" x="39"/>
-        <item m="1" x="40"/>
-        <item m="1" x="41"/>
-        <item m="1" x="42"/>
-        <item m="1" x="28"/>
-        <item m="1" x="29"/>
-        <item m="1" x="30"/>
-        <item m="1" x="31"/>
-        <item m="1" x="32"/>
-        <item m="1" x="33"/>
-        <item m="1" x="34"/>
-        <item m="1" x="35"/>
-        <item m="1" x="36"/>
-        <item m="1" x="37"/>
-        <item m="1" x="20"/>
-        <item m="1" x="21"/>
-        <item m="1" x="22"/>
-        <item m="1" x="23"/>
-        <item m="1" x="24"/>
-        <item m="1" x="25"/>
-        <item m="1" x="26"/>
-        <item m="1" x="27"/>
-        <item m="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item m="1" x="15"/>
-        <item m="1" x="16"/>
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
-        <item m="1" x="19"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" numFmtId="2" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item m="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField dataField="1" numFmtId="2" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="30">
-    <i>
-      <x v="20"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="219"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i>
-      <x v="220"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="221"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="222"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="223"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i>
-      <x v="224"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="225"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="226"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="227"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="228"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="229"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Average of LR probability" fld="2" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
-    <dataField name="Average of RF probability" fld="4" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{46B40627-07F3-4D2F-920E-9ADA349AB27B}" name="PivotTable8" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="R2:T15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="231">
-        <item m="1" x="215"/>
-        <item m="1" x="216"/>
-        <item m="1" x="217"/>
-        <item m="1" x="218"/>
-        <item m="1" x="219"/>
-        <item m="1" x="220"/>
-        <item m="1" x="221"/>
-        <item m="1" x="222"/>
-        <item m="1" x="223"/>
-        <item m="1" x="224"/>
-        <item m="1" x="225"/>
-        <item m="1" x="226"/>
-        <item m="1" x="227"/>
-        <item m="1" x="228"/>
-        <item m="1" x="229"/>
-        <item m="1" x="210"/>
-        <item m="1" x="211"/>
-        <item m="1" x="212"/>
-        <item m="1" x="213"/>
-        <item m="1" x="214"/>
-        <item x="11"/>
-        <item m="1" x="200"/>
-        <item m="1" x="201"/>
-        <item m="1" x="202"/>
-        <item m="1" x="203"/>
-        <item m="1" x="204"/>
-        <item m="1" x="205"/>
-        <item m="1" x="206"/>
-        <item m="1" x="207"/>
-        <item m="1" x="208"/>
-        <item m="1" x="209"/>
-        <item m="1" x="191"/>
-        <item m="1" x="192"/>
-        <item m="1" x="193"/>
-        <item m="1" x="194"/>
-        <item m="1" x="195"/>
-        <item m="1" x="196"/>
-        <item m="1" x="197"/>
-        <item m="1" x="198"/>
-        <item m="1" x="199"/>
-        <item m="1" x="186"/>
-        <item m="1" x="187"/>
-        <item m="1" x="188"/>
-        <item m="1" x="189"/>
-        <item m="1" x="190"/>
-        <item m="1" x="176"/>
-        <item m="1" x="177"/>
-        <item m="1" x="178"/>
-        <item m="1" x="179"/>
-        <item m="1" x="180"/>
-        <item m="1" x="181"/>
-        <item m="1" x="182"/>
-        <item m="1" x="183"/>
-        <item m="1" x="184"/>
-        <item m="1" x="185"/>
-        <item m="1" x="168"/>
-        <item m="1" x="169"/>
-        <item m="1" x="170"/>
-        <item m="1" x="171"/>
-        <item m="1" x="172"/>
-        <item m="1" x="173"/>
-        <item m="1" x="174"/>
-        <item m="1" x="175"/>
-        <item m="1" x="161"/>
-        <item m="1" x="162"/>
-        <item m="1" x="163"/>
-        <item m="1" x="164"/>
-        <item m="1" x="165"/>
-        <item m="1" x="166"/>
-        <item m="1" x="167"/>
-        <item m="1" x="152"/>
-        <item m="1" x="153"/>
-        <item m="1" x="154"/>
-        <item m="1" x="155"/>
-        <item m="1" x="156"/>
-        <item m="1" x="157"/>
-        <item m="1" x="158"/>
-        <item m="1" x="159"/>
-        <item m="1" x="160"/>
-        <item m="1" x="147"/>
-        <item m="1" x="148"/>
-        <item m="1" x="149"/>
-        <item m="1" x="150"/>
-        <item m="1" x="151"/>
-        <item m="1" x="137"/>
-        <item m="1" x="138"/>
-        <item m="1" x="139"/>
-        <item m="1" x="140"/>
-        <item m="1" x="141"/>
-        <item m="1" x="142"/>
-        <item m="1" x="143"/>
-        <item m="1" x="144"/>
-        <item m="1" x="145"/>
-        <item m="1" x="146"/>
-        <item m="1" x="131"/>
-        <item m="1" x="132"/>
-        <item m="1" x="133"/>
-        <item m="1" x="134"/>
-        <item m="1" x="135"/>
-        <item m="1" x="136"/>
-        <item m="1" x="122"/>
-        <item m="1" x="123"/>
-        <item m="1" x="124"/>
-        <item m="1" x="125"/>
-        <item m="1" x="126"/>
-        <item m="1" x="127"/>
-        <item m="1" x="128"/>
-        <item m="1" x="129"/>
-        <item m="1" x="130"/>
-        <item m="1" x="115"/>
-        <item m="1" x="116"/>
-        <item m="1" x="117"/>
-        <item m="1" x="118"/>
-        <item m="1" x="119"/>
-        <item m="1" x="120"/>
-        <item m="1" x="121"/>
-        <item m="1" x="106"/>
-        <item m="1" x="107"/>
-        <item m="1" x="108"/>
-        <item m="1" x="109"/>
-        <item m="1" x="110"/>
-        <item m="1" x="111"/>
-        <item m="1" x="112"/>
-        <item m="1" x="113"/>
-        <item m="1" x="114"/>
-        <item m="1" x="98"/>
-        <item m="1" x="99"/>
-        <item m="1" x="100"/>
-        <item m="1" x="101"/>
-        <item m="1" x="102"/>
-        <item m="1" x="103"/>
-        <item m="1" x="104"/>
-        <item m="1" x="105"/>
-        <item m="1" x="93"/>
-        <item m="1" x="94"/>
-        <item m="1" x="95"/>
-        <item m="1" x="96"/>
-        <item m="1" x="97"/>
-        <item m="1" x="92"/>
-        <item m="1" x="84"/>
-        <item m="1" x="85"/>
-        <item m="1" x="86"/>
-        <item m="1" x="87"/>
-        <item m="1" x="88"/>
-        <item m="1" x="89"/>
-        <item m="1" x="90"/>
-        <item m="1" x="91"/>
-        <item m="1" x="76"/>
-        <item m="1" x="77"/>
-        <item m="1" x="78"/>
-        <item m="1" x="79"/>
-        <item m="1" x="80"/>
-        <item m="1" x="81"/>
-        <item m="1" x="82"/>
-        <item m="1" x="83"/>
-        <item m="1" x="68"/>
-        <item m="1" x="69"/>
-        <item m="1" x="70"/>
-        <item m="1" x="71"/>
-        <item m="1" x="72"/>
-        <item m="1" x="73"/>
-        <item m="1" x="74"/>
-        <item m="1" x="75"/>
-        <item m="1" x="56"/>
-        <item m="1" x="57"/>
-        <item m="1" x="58"/>
-        <item m="1" x="59"/>
-        <item m="1" x="60"/>
-        <item m="1" x="61"/>
-        <item m="1" x="62"/>
-        <item m="1" x="63"/>
-        <item m="1" x="64"/>
-        <item m="1" x="65"/>
-        <item m="1" x="66"/>
-        <item m="1" x="67"/>
-        <item m="1" x="52"/>
-        <item m="1" x="53"/>
-        <item m="1" x="54"/>
-        <item m="1" x="55"/>
-        <item m="1" x="43"/>
-        <item m="1" x="44"/>
-        <item m="1" x="45"/>
-        <item m="1" x="46"/>
-        <item m="1" x="47"/>
-        <item m="1" x="48"/>
-        <item m="1" x="49"/>
-        <item m="1" x="50"/>
-        <item m="1" x="51"/>
-        <item m="1" x="38"/>
-        <item m="1" x="39"/>
-        <item m="1" x="40"/>
-        <item m="1" x="41"/>
-        <item m="1" x="42"/>
-        <item m="1" x="28"/>
-        <item m="1" x="29"/>
-        <item m="1" x="30"/>
-        <item m="1" x="31"/>
-        <item m="1" x="32"/>
-        <item m="1" x="33"/>
-        <item m="1" x="34"/>
-        <item m="1" x="35"/>
-        <item m="1" x="36"/>
-        <item m="1" x="37"/>
-        <item m="1" x="20"/>
-        <item m="1" x="21"/>
-        <item m="1" x="22"/>
-        <item m="1" x="23"/>
-        <item m="1" x="24"/>
-        <item m="1" x="25"/>
-        <item m="1" x="26"/>
-        <item m="1" x="27"/>
-        <item m="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item m="1" x="15"/>
-        <item m="1" x="16"/>
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
-        <item m="1" x="19"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField dataField="1" numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="219"/>
-    </i>
-    <i>
-      <x v="220"/>
-    </i>
-    <i>
-      <x v="221"/>
-    </i>
-    <i>
-      <x v="222"/>
-    </i>
-    <i>
-      <x v="223"/>
-    </i>
-    <i>
-      <x v="224"/>
-    </i>
-    <i>
-      <x v="225"/>
-    </i>
-    <i>
-      <x v="226"/>
-    </i>
-    <i>
-      <x v="227"/>
-    </i>
-    <i>
-      <x v="228"/>
-    </i>
-    <i>
-      <x v="229"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of LR prediction" fld="1" baseField="0" baseItem="0" numFmtId="2"/>
-    <dataField name="Sum of RF prediction" fld="3" baseField="0" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0BC75891-C309-499C-A747-48FE49196385}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="BN4:BR14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="11">
@@ -14095,7 +12947,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{07DC3275-8343-4A92-8482-227437CDB06C}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K46:L60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
@@ -14181,6 +13033,1451 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Sum of num" fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{325DD11A-A3D8-4ACD-873A-52C562329ABB}" name="PivotTable8" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M51:P60" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="10"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Consistency" fld="10" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DF5E25AC-E372-4CBF-8687-CBF270CBC9E3}" name="PivotTable6" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M25:O47" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="2" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="22">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Average of LRU probability" fld="6" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
+    <dataField name="Average of RFU probability" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5C153422-E51A-4C78-B987-C083165D0893}" name="PivotTable5" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M14:O22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of LRU  prediction" fld="5" baseField="0" baseItem="0" numFmtId="2"/>
+    <dataField name="Sum of RFU prediction" fld="7" baseField="0" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{41D0ABC2-0BCC-42F9-B838-11726F69C7E2}" name="PivotTable6" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M2:P16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="231">
+        <item m="1" x="215"/>
+        <item m="1" x="216"/>
+        <item m="1" x="217"/>
+        <item m="1" x="218"/>
+        <item m="1" x="219"/>
+        <item m="1" x="220"/>
+        <item m="1" x="221"/>
+        <item m="1" x="222"/>
+        <item m="1" x="223"/>
+        <item m="1" x="224"/>
+        <item m="1" x="225"/>
+        <item m="1" x="226"/>
+        <item m="1" x="227"/>
+        <item m="1" x="228"/>
+        <item m="1" x="229"/>
+        <item m="1" x="210"/>
+        <item m="1" x="211"/>
+        <item m="1" x="212"/>
+        <item m="1" x="213"/>
+        <item m="1" x="214"/>
+        <item x="11"/>
+        <item m="1" x="200"/>
+        <item m="1" x="201"/>
+        <item m="1" x="202"/>
+        <item m="1" x="203"/>
+        <item m="1" x="204"/>
+        <item m="1" x="205"/>
+        <item m="1" x="206"/>
+        <item m="1" x="207"/>
+        <item m="1" x="208"/>
+        <item m="1" x="209"/>
+        <item m="1" x="191"/>
+        <item m="1" x="192"/>
+        <item m="1" x="193"/>
+        <item m="1" x="194"/>
+        <item m="1" x="195"/>
+        <item m="1" x="196"/>
+        <item m="1" x="197"/>
+        <item m="1" x="198"/>
+        <item m="1" x="199"/>
+        <item m="1" x="186"/>
+        <item m="1" x="187"/>
+        <item m="1" x="188"/>
+        <item m="1" x="189"/>
+        <item m="1" x="190"/>
+        <item m="1" x="176"/>
+        <item m="1" x="177"/>
+        <item m="1" x="178"/>
+        <item m="1" x="179"/>
+        <item m="1" x="180"/>
+        <item m="1" x="181"/>
+        <item m="1" x="182"/>
+        <item m="1" x="183"/>
+        <item m="1" x="184"/>
+        <item m="1" x="185"/>
+        <item m="1" x="168"/>
+        <item m="1" x="169"/>
+        <item m="1" x="170"/>
+        <item m="1" x="171"/>
+        <item m="1" x="172"/>
+        <item m="1" x="173"/>
+        <item m="1" x="174"/>
+        <item m="1" x="175"/>
+        <item m="1" x="161"/>
+        <item m="1" x="162"/>
+        <item m="1" x="163"/>
+        <item m="1" x="164"/>
+        <item m="1" x="165"/>
+        <item m="1" x="166"/>
+        <item m="1" x="167"/>
+        <item m="1" x="152"/>
+        <item m="1" x="153"/>
+        <item m="1" x="154"/>
+        <item m="1" x="155"/>
+        <item m="1" x="156"/>
+        <item m="1" x="157"/>
+        <item m="1" x="158"/>
+        <item m="1" x="159"/>
+        <item m="1" x="160"/>
+        <item m="1" x="147"/>
+        <item m="1" x="148"/>
+        <item m="1" x="149"/>
+        <item m="1" x="150"/>
+        <item m="1" x="151"/>
+        <item m="1" x="137"/>
+        <item m="1" x="138"/>
+        <item m="1" x="139"/>
+        <item m="1" x="140"/>
+        <item m="1" x="141"/>
+        <item m="1" x="142"/>
+        <item m="1" x="143"/>
+        <item m="1" x="144"/>
+        <item m="1" x="145"/>
+        <item m="1" x="146"/>
+        <item m="1" x="131"/>
+        <item m="1" x="132"/>
+        <item m="1" x="133"/>
+        <item m="1" x="134"/>
+        <item m="1" x="135"/>
+        <item m="1" x="136"/>
+        <item m="1" x="122"/>
+        <item m="1" x="123"/>
+        <item m="1" x="124"/>
+        <item m="1" x="125"/>
+        <item m="1" x="126"/>
+        <item m="1" x="127"/>
+        <item m="1" x="128"/>
+        <item m="1" x="129"/>
+        <item m="1" x="130"/>
+        <item m="1" x="115"/>
+        <item m="1" x="116"/>
+        <item m="1" x="117"/>
+        <item m="1" x="118"/>
+        <item m="1" x="119"/>
+        <item m="1" x="120"/>
+        <item m="1" x="121"/>
+        <item m="1" x="106"/>
+        <item m="1" x="107"/>
+        <item m="1" x="108"/>
+        <item m="1" x="109"/>
+        <item m="1" x="110"/>
+        <item m="1" x="111"/>
+        <item m="1" x="112"/>
+        <item m="1" x="113"/>
+        <item m="1" x="114"/>
+        <item m="1" x="98"/>
+        <item m="1" x="99"/>
+        <item m="1" x="100"/>
+        <item m="1" x="101"/>
+        <item m="1" x="102"/>
+        <item m="1" x="103"/>
+        <item m="1" x="104"/>
+        <item m="1" x="105"/>
+        <item m="1" x="93"/>
+        <item m="1" x="94"/>
+        <item m="1" x="95"/>
+        <item m="1" x="96"/>
+        <item m="1" x="97"/>
+        <item m="1" x="92"/>
+        <item m="1" x="84"/>
+        <item m="1" x="85"/>
+        <item m="1" x="86"/>
+        <item m="1" x="87"/>
+        <item m="1" x="88"/>
+        <item m="1" x="89"/>
+        <item m="1" x="90"/>
+        <item m="1" x="91"/>
+        <item m="1" x="76"/>
+        <item m="1" x="77"/>
+        <item m="1" x="78"/>
+        <item m="1" x="79"/>
+        <item m="1" x="80"/>
+        <item m="1" x="81"/>
+        <item m="1" x="82"/>
+        <item m="1" x="83"/>
+        <item m="1" x="68"/>
+        <item m="1" x="69"/>
+        <item m="1" x="70"/>
+        <item m="1" x="71"/>
+        <item m="1" x="72"/>
+        <item m="1" x="73"/>
+        <item m="1" x="74"/>
+        <item m="1" x="75"/>
+        <item m="1" x="56"/>
+        <item m="1" x="57"/>
+        <item m="1" x="58"/>
+        <item m="1" x="59"/>
+        <item m="1" x="60"/>
+        <item m="1" x="61"/>
+        <item m="1" x="62"/>
+        <item m="1" x="63"/>
+        <item m="1" x="64"/>
+        <item m="1" x="65"/>
+        <item m="1" x="66"/>
+        <item m="1" x="67"/>
+        <item m="1" x="52"/>
+        <item m="1" x="53"/>
+        <item m="1" x="54"/>
+        <item m="1" x="55"/>
+        <item m="1" x="43"/>
+        <item m="1" x="44"/>
+        <item m="1" x="45"/>
+        <item m="1" x="46"/>
+        <item m="1" x="47"/>
+        <item m="1" x="48"/>
+        <item m="1" x="49"/>
+        <item m="1" x="50"/>
+        <item m="1" x="51"/>
+        <item m="1" x="38"/>
+        <item m="1" x="39"/>
+        <item m="1" x="40"/>
+        <item m="1" x="41"/>
+        <item m="1" x="42"/>
+        <item m="1" x="28"/>
+        <item m="1" x="29"/>
+        <item m="1" x="30"/>
+        <item m="1" x="31"/>
+        <item m="1" x="32"/>
+        <item m="1" x="33"/>
+        <item m="1" x="34"/>
+        <item m="1" x="35"/>
+        <item m="1" x="36"/>
+        <item m="1" x="37"/>
+        <item m="1" x="20"/>
+        <item m="1" x="21"/>
+        <item m="1" x="22"/>
+        <item m="1" x="23"/>
+        <item m="1" x="24"/>
+        <item m="1" x="25"/>
+        <item m="1" x="26"/>
+        <item m="1" x="27"/>
+        <item m="1" x="12"/>
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item m="1" x="15"/>
+        <item m="1" x="16"/>
+        <item m="1" x="17"/>
+        <item m="1" x="18"/>
+        <item m="1" x="19"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="219"/>
+    </i>
+    <i>
+      <x v="220"/>
+    </i>
+    <i>
+      <x v="221"/>
+    </i>
+    <i>
+      <x v="222"/>
+    </i>
+    <i>
+      <x v="223"/>
+    </i>
+    <i>
+      <x v="224"/>
+    </i>
+    <i>
+      <x v="225"/>
+    </i>
+    <i>
+      <x v="226"/>
+    </i>
+    <i>
+      <x v="227"/>
+    </i>
+    <i>
+      <x v="228"/>
+    </i>
+    <i>
+      <x v="229"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="9"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Consistency" fld="9" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E62B0701-D8F2-4374-A507-49A71B4E1EE2}" name="PivotTable9" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="W2:Y32" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="231">
+        <item m="1" x="215"/>
+        <item m="1" x="216"/>
+        <item m="1" x="217"/>
+        <item m="1" x="218"/>
+        <item m="1" x="219"/>
+        <item m="1" x="220"/>
+        <item m="1" x="221"/>
+        <item m="1" x="222"/>
+        <item m="1" x="223"/>
+        <item m="1" x="224"/>
+        <item m="1" x="225"/>
+        <item m="1" x="226"/>
+        <item m="1" x="227"/>
+        <item m="1" x="228"/>
+        <item m="1" x="229"/>
+        <item m="1" x="210"/>
+        <item m="1" x="211"/>
+        <item m="1" x="212"/>
+        <item m="1" x="213"/>
+        <item m="1" x="214"/>
+        <item x="11"/>
+        <item m="1" x="200"/>
+        <item m="1" x="201"/>
+        <item m="1" x="202"/>
+        <item m="1" x="203"/>
+        <item m="1" x="204"/>
+        <item m="1" x="205"/>
+        <item m="1" x="206"/>
+        <item m="1" x="207"/>
+        <item m="1" x="208"/>
+        <item m="1" x="209"/>
+        <item m="1" x="191"/>
+        <item m="1" x="192"/>
+        <item m="1" x="193"/>
+        <item m="1" x="194"/>
+        <item m="1" x="195"/>
+        <item m="1" x="196"/>
+        <item m="1" x="197"/>
+        <item m="1" x="198"/>
+        <item m="1" x="199"/>
+        <item m="1" x="186"/>
+        <item m="1" x="187"/>
+        <item m="1" x="188"/>
+        <item m="1" x="189"/>
+        <item m="1" x="190"/>
+        <item m="1" x="176"/>
+        <item m="1" x="177"/>
+        <item m="1" x="178"/>
+        <item m="1" x="179"/>
+        <item m="1" x="180"/>
+        <item m="1" x="181"/>
+        <item m="1" x="182"/>
+        <item m="1" x="183"/>
+        <item m="1" x="184"/>
+        <item m="1" x="185"/>
+        <item m="1" x="168"/>
+        <item m="1" x="169"/>
+        <item m="1" x="170"/>
+        <item m="1" x="171"/>
+        <item m="1" x="172"/>
+        <item m="1" x="173"/>
+        <item m="1" x="174"/>
+        <item m="1" x="175"/>
+        <item m="1" x="161"/>
+        <item m="1" x="162"/>
+        <item m="1" x="163"/>
+        <item m="1" x="164"/>
+        <item m="1" x="165"/>
+        <item m="1" x="166"/>
+        <item m="1" x="167"/>
+        <item m="1" x="152"/>
+        <item m="1" x="153"/>
+        <item m="1" x="154"/>
+        <item m="1" x="155"/>
+        <item m="1" x="156"/>
+        <item m="1" x="157"/>
+        <item m="1" x="158"/>
+        <item m="1" x="159"/>
+        <item m="1" x="160"/>
+        <item m="1" x="147"/>
+        <item m="1" x="148"/>
+        <item m="1" x="149"/>
+        <item m="1" x="150"/>
+        <item m="1" x="151"/>
+        <item m="1" x="137"/>
+        <item m="1" x="138"/>
+        <item m="1" x="139"/>
+        <item m="1" x="140"/>
+        <item m="1" x="141"/>
+        <item m="1" x="142"/>
+        <item m="1" x="143"/>
+        <item m="1" x="144"/>
+        <item m="1" x="145"/>
+        <item m="1" x="146"/>
+        <item m="1" x="131"/>
+        <item m="1" x="132"/>
+        <item m="1" x="133"/>
+        <item m="1" x="134"/>
+        <item m="1" x="135"/>
+        <item m="1" x="136"/>
+        <item m="1" x="122"/>
+        <item m="1" x="123"/>
+        <item m="1" x="124"/>
+        <item m="1" x="125"/>
+        <item m="1" x="126"/>
+        <item m="1" x="127"/>
+        <item m="1" x="128"/>
+        <item m="1" x="129"/>
+        <item m="1" x="130"/>
+        <item m="1" x="115"/>
+        <item m="1" x="116"/>
+        <item m="1" x="117"/>
+        <item m="1" x="118"/>
+        <item m="1" x="119"/>
+        <item m="1" x="120"/>
+        <item m="1" x="121"/>
+        <item m="1" x="106"/>
+        <item m="1" x="107"/>
+        <item m="1" x="108"/>
+        <item m="1" x="109"/>
+        <item m="1" x="110"/>
+        <item m="1" x="111"/>
+        <item m="1" x="112"/>
+        <item m="1" x="113"/>
+        <item m="1" x="114"/>
+        <item m="1" x="98"/>
+        <item m="1" x="99"/>
+        <item m="1" x="100"/>
+        <item m="1" x="101"/>
+        <item m="1" x="102"/>
+        <item m="1" x="103"/>
+        <item m="1" x="104"/>
+        <item m="1" x="105"/>
+        <item m="1" x="93"/>
+        <item m="1" x="94"/>
+        <item m="1" x="95"/>
+        <item m="1" x="96"/>
+        <item m="1" x="97"/>
+        <item m="1" x="92"/>
+        <item m="1" x="84"/>
+        <item m="1" x="85"/>
+        <item m="1" x="86"/>
+        <item m="1" x="87"/>
+        <item m="1" x="88"/>
+        <item m="1" x="89"/>
+        <item m="1" x="90"/>
+        <item m="1" x="91"/>
+        <item m="1" x="76"/>
+        <item m="1" x="77"/>
+        <item m="1" x="78"/>
+        <item m="1" x="79"/>
+        <item m="1" x="80"/>
+        <item m="1" x="81"/>
+        <item m="1" x="82"/>
+        <item m="1" x="83"/>
+        <item m="1" x="68"/>
+        <item m="1" x="69"/>
+        <item m="1" x="70"/>
+        <item m="1" x="71"/>
+        <item m="1" x="72"/>
+        <item m="1" x="73"/>
+        <item m="1" x="74"/>
+        <item m="1" x="75"/>
+        <item m="1" x="56"/>
+        <item m="1" x="57"/>
+        <item m="1" x="58"/>
+        <item m="1" x="59"/>
+        <item m="1" x="60"/>
+        <item m="1" x="61"/>
+        <item m="1" x="62"/>
+        <item m="1" x="63"/>
+        <item m="1" x="64"/>
+        <item m="1" x="65"/>
+        <item m="1" x="66"/>
+        <item m="1" x="67"/>
+        <item m="1" x="52"/>
+        <item m="1" x="53"/>
+        <item m="1" x="54"/>
+        <item m="1" x="55"/>
+        <item m="1" x="43"/>
+        <item m="1" x="44"/>
+        <item m="1" x="45"/>
+        <item m="1" x="46"/>
+        <item m="1" x="47"/>
+        <item m="1" x="48"/>
+        <item m="1" x="49"/>
+        <item m="1" x="50"/>
+        <item m="1" x="51"/>
+        <item m="1" x="38"/>
+        <item m="1" x="39"/>
+        <item m="1" x="40"/>
+        <item m="1" x="41"/>
+        <item m="1" x="42"/>
+        <item m="1" x="28"/>
+        <item m="1" x="29"/>
+        <item m="1" x="30"/>
+        <item m="1" x="31"/>
+        <item m="1" x="32"/>
+        <item m="1" x="33"/>
+        <item m="1" x="34"/>
+        <item m="1" x="35"/>
+        <item m="1" x="36"/>
+        <item m="1" x="37"/>
+        <item m="1" x="20"/>
+        <item m="1" x="21"/>
+        <item m="1" x="22"/>
+        <item m="1" x="23"/>
+        <item m="1" x="24"/>
+        <item m="1" x="25"/>
+        <item m="1" x="26"/>
+        <item m="1" x="27"/>
+        <item m="1" x="12"/>
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item m="1" x="15"/>
+        <item m="1" x="16"/>
+        <item m="1" x="17"/>
+        <item m="1" x="18"/>
+        <item m="1" x="19"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" numFmtId="2" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item m="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="30">
+    <i>
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="219"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="220"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="221"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="222"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="223"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="224"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="225"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="226"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="227"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="228"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="229"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Average of LR probability" fld="2" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
+    <dataField name="Average of RF probability" fld="4" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{46B40627-07F3-4D2F-920E-9ADA349AB27B}" name="PivotTable8" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="R2:T15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="231">
+        <item m="1" x="215"/>
+        <item m="1" x="216"/>
+        <item m="1" x="217"/>
+        <item m="1" x="218"/>
+        <item m="1" x="219"/>
+        <item m="1" x="220"/>
+        <item m="1" x="221"/>
+        <item m="1" x="222"/>
+        <item m="1" x="223"/>
+        <item m="1" x="224"/>
+        <item m="1" x="225"/>
+        <item m="1" x="226"/>
+        <item m="1" x="227"/>
+        <item m="1" x="228"/>
+        <item m="1" x="229"/>
+        <item m="1" x="210"/>
+        <item m="1" x="211"/>
+        <item m="1" x="212"/>
+        <item m="1" x="213"/>
+        <item m="1" x="214"/>
+        <item x="11"/>
+        <item m="1" x="200"/>
+        <item m="1" x="201"/>
+        <item m="1" x="202"/>
+        <item m="1" x="203"/>
+        <item m="1" x="204"/>
+        <item m="1" x="205"/>
+        <item m="1" x="206"/>
+        <item m="1" x="207"/>
+        <item m="1" x="208"/>
+        <item m="1" x="209"/>
+        <item m="1" x="191"/>
+        <item m="1" x="192"/>
+        <item m="1" x="193"/>
+        <item m="1" x="194"/>
+        <item m="1" x="195"/>
+        <item m="1" x="196"/>
+        <item m="1" x="197"/>
+        <item m="1" x="198"/>
+        <item m="1" x="199"/>
+        <item m="1" x="186"/>
+        <item m="1" x="187"/>
+        <item m="1" x="188"/>
+        <item m="1" x="189"/>
+        <item m="1" x="190"/>
+        <item m="1" x="176"/>
+        <item m="1" x="177"/>
+        <item m="1" x="178"/>
+        <item m="1" x="179"/>
+        <item m="1" x="180"/>
+        <item m="1" x="181"/>
+        <item m="1" x="182"/>
+        <item m="1" x="183"/>
+        <item m="1" x="184"/>
+        <item m="1" x="185"/>
+        <item m="1" x="168"/>
+        <item m="1" x="169"/>
+        <item m="1" x="170"/>
+        <item m="1" x="171"/>
+        <item m="1" x="172"/>
+        <item m="1" x="173"/>
+        <item m="1" x="174"/>
+        <item m="1" x="175"/>
+        <item m="1" x="161"/>
+        <item m="1" x="162"/>
+        <item m="1" x="163"/>
+        <item m="1" x="164"/>
+        <item m="1" x="165"/>
+        <item m="1" x="166"/>
+        <item m="1" x="167"/>
+        <item m="1" x="152"/>
+        <item m="1" x="153"/>
+        <item m="1" x="154"/>
+        <item m="1" x="155"/>
+        <item m="1" x="156"/>
+        <item m="1" x="157"/>
+        <item m="1" x="158"/>
+        <item m="1" x="159"/>
+        <item m="1" x="160"/>
+        <item m="1" x="147"/>
+        <item m="1" x="148"/>
+        <item m="1" x="149"/>
+        <item m="1" x="150"/>
+        <item m="1" x="151"/>
+        <item m="1" x="137"/>
+        <item m="1" x="138"/>
+        <item m="1" x="139"/>
+        <item m="1" x="140"/>
+        <item m="1" x="141"/>
+        <item m="1" x="142"/>
+        <item m="1" x="143"/>
+        <item m="1" x="144"/>
+        <item m="1" x="145"/>
+        <item m="1" x="146"/>
+        <item m="1" x="131"/>
+        <item m="1" x="132"/>
+        <item m="1" x="133"/>
+        <item m="1" x="134"/>
+        <item m="1" x="135"/>
+        <item m="1" x="136"/>
+        <item m="1" x="122"/>
+        <item m="1" x="123"/>
+        <item m="1" x="124"/>
+        <item m="1" x="125"/>
+        <item m="1" x="126"/>
+        <item m="1" x="127"/>
+        <item m="1" x="128"/>
+        <item m="1" x="129"/>
+        <item m="1" x="130"/>
+        <item m="1" x="115"/>
+        <item m="1" x="116"/>
+        <item m="1" x="117"/>
+        <item m="1" x="118"/>
+        <item m="1" x="119"/>
+        <item m="1" x="120"/>
+        <item m="1" x="121"/>
+        <item m="1" x="106"/>
+        <item m="1" x="107"/>
+        <item m="1" x="108"/>
+        <item m="1" x="109"/>
+        <item m="1" x="110"/>
+        <item m="1" x="111"/>
+        <item m="1" x="112"/>
+        <item m="1" x="113"/>
+        <item m="1" x="114"/>
+        <item m="1" x="98"/>
+        <item m="1" x="99"/>
+        <item m="1" x="100"/>
+        <item m="1" x="101"/>
+        <item m="1" x="102"/>
+        <item m="1" x="103"/>
+        <item m="1" x="104"/>
+        <item m="1" x="105"/>
+        <item m="1" x="93"/>
+        <item m="1" x="94"/>
+        <item m="1" x="95"/>
+        <item m="1" x="96"/>
+        <item m="1" x="97"/>
+        <item m="1" x="92"/>
+        <item m="1" x="84"/>
+        <item m="1" x="85"/>
+        <item m="1" x="86"/>
+        <item m="1" x="87"/>
+        <item m="1" x="88"/>
+        <item m="1" x="89"/>
+        <item m="1" x="90"/>
+        <item m="1" x="91"/>
+        <item m="1" x="76"/>
+        <item m="1" x="77"/>
+        <item m="1" x="78"/>
+        <item m="1" x="79"/>
+        <item m="1" x="80"/>
+        <item m="1" x="81"/>
+        <item m="1" x="82"/>
+        <item m="1" x="83"/>
+        <item m="1" x="68"/>
+        <item m="1" x="69"/>
+        <item m="1" x="70"/>
+        <item m="1" x="71"/>
+        <item m="1" x="72"/>
+        <item m="1" x="73"/>
+        <item m="1" x="74"/>
+        <item m="1" x="75"/>
+        <item m="1" x="56"/>
+        <item m="1" x="57"/>
+        <item m="1" x="58"/>
+        <item m="1" x="59"/>
+        <item m="1" x="60"/>
+        <item m="1" x="61"/>
+        <item m="1" x="62"/>
+        <item m="1" x="63"/>
+        <item m="1" x="64"/>
+        <item m="1" x="65"/>
+        <item m="1" x="66"/>
+        <item m="1" x="67"/>
+        <item m="1" x="52"/>
+        <item m="1" x="53"/>
+        <item m="1" x="54"/>
+        <item m="1" x="55"/>
+        <item m="1" x="43"/>
+        <item m="1" x="44"/>
+        <item m="1" x="45"/>
+        <item m="1" x="46"/>
+        <item m="1" x="47"/>
+        <item m="1" x="48"/>
+        <item m="1" x="49"/>
+        <item m="1" x="50"/>
+        <item m="1" x="51"/>
+        <item m="1" x="38"/>
+        <item m="1" x="39"/>
+        <item m="1" x="40"/>
+        <item m="1" x="41"/>
+        <item m="1" x="42"/>
+        <item m="1" x="28"/>
+        <item m="1" x="29"/>
+        <item m="1" x="30"/>
+        <item m="1" x="31"/>
+        <item m="1" x="32"/>
+        <item m="1" x="33"/>
+        <item m="1" x="34"/>
+        <item m="1" x="35"/>
+        <item m="1" x="36"/>
+        <item m="1" x="37"/>
+        <item m="1" x="20"/>
+        <item m="1" x="21"/>
+        <item m="1" x="22"/>
+        <item m="1" x="23"/>
+        <item m="1" x="24"/>
+        <item m="1" x="25"/>
+        <item m="1" x="26"/>
+        <item m="1" x="27"/>
+        <item m="1" x="12"/>
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item m="1" x="15"/>
+        <item m="1" x="16"/>
+        <item m="1" x="17"/>
+        <item m="1" x="18"/>
+        <item m="1" x="19"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="219"/>
+    </i>
+    <i>
+      <x v="220"/>
+    </i>
+    <i>
+      <x v="221"/>
+    </i>
+    <i>
+      <x v="222"/>
+    </i>
+    <i>
+      <x v="223"/>
+    </i>
+    <i>
+      <x v="224"/>
+    </i>
+    <i>
+      <x v="225"/>
+    </i>
+    <i>
+      <x v="226"/>
+    </i>
+    <i>
+      <x v="227"/>
+    </i>
+    <i>
+      <x v="228"/>
+    </i>
+    <i>
+      <x v="229"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of LR prediction" fld="1" baseField="0" baseItem="0" numFmtId="2"/>
+    <dataField name="Sum of RF prediction" fld="3" baseField="0" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C937C835-64E7-4E31-914F-6ECE9AD11E43}" name="PivotTable6" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D45:E65" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="20">
+        <item x="5"/>
+        <item x="18"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="16"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="13"/>
+        <item x="3"/>
+        <item x="14"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="15"/>
+        <item x="17"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="20">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of NUM" fld="0" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -14809,9 +15106,16 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{23B59A0C-054A-4F30-9EF5-070D83BF6EAF}" name="Table3" displayName="Table3" ref="B2:AE42" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
-  <autoFilter ref="B2:AE42" xr:uid="{23B59A0C-054A-4F30-9EF5-070D83BF6EAF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B33:AE42">
-    <sortCondition descending="1" ref="R2:R42"/>
+  <autoFilter ref="B2:AE42" xr:uid="{23B59A0C-054A-4F30-9EF5-070D83BF6EAF}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="10"/>
+        <filter val="All"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:AE42">
+    <sortCondition ref="C2:C42"/>
   </sortState>
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{24593591-B60A-4BAA-AE9E-AD09A97415CB}" name="Periodicity" dataDxfId="55"/>
@@ -21305,17 +21609,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBB0E72-491A-4808-A57D-3D7A9394C08C}">
-  <sheetPr filterMode="1"/>
   <dimension ref="B1:CA86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X82" sqref="X82"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T41" sqref="T41:U42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -21546,90 +21851,90 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="2:79" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>85</v>
+    <row r="3" spans="2:79" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="E3">
-        <v>-5</v>
+        <v>-11</v>
       </c>
       <c r="F3">
-        <v>-4</v>
+        <v>-22</v>
       </c>
       <c r="G3" s="8">
-        <v>0.18181818181818182</v>
+        <v>1</v>
       </c>
       <c r="H3" s="8">
-        <v>0.64729303103946745</v>
+        <v>0.83972084006603231</v>
       </c>
       <c r="I3" s="8">
-        <v>5.7320547861127169E-3</v>
+        <v>0.83972084006603231</v>
       </c>
       <c r="J3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L3" s="8">
-        <v>0.54545454545454541</v>
+        <v>1</v>
       </c>
       <c r="M3" s="8">
-        <v>0.45818858610406488</v>
+        <v>0.94657361335534418</v>
       </c>
       <c r="N3" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="O3" s="6">
-        <v>1.8327543444162595</v>
+        <v>20.824619493817572</v>
       </c>
       <c r="P3">
-        <v>-7.5</v>
+        <v>-6</v>
       </c>
       <c r="Q3" s="6">
-        <v>-5.6672456555837405</v>
+        <v>14.824619493817572</v>
       </c>
       <c r="R3" s="6">
-        <v>5.6672456555837405</v>
+        <v>14.824619493817572</v>
       </c>
       <c r="S3" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="T3" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="U3" s="8">
-        <v>0.68605526105943804</v>
+        <v>0.81336482084160555</v>
       </c>
       <c r="V3" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="W3" s="8">
-        <v>0.5721219235817514</v>
+        <v>0.87996921709847487</v>
       </c>
       <c r="X3">
-        <v>-388.70322619925224</v>
+        <v>1310.1852478784911</v>
       </c>
       <c r="Y3">
-        <v>388.70322619925224</v>
+        <v>1310.1852478784911</v>
       </c>
       <c r="Z3" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AA3" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AB3" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AC3" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="AD3" t="s">
         <v>33</v>
@@ -21760,90 +22065,90 @@
         <v>0.89596504532762344</v>
       </c>
     </row>
-    <row r="4" spans="2:79" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>85</v>
+    <row r="4" spans="2:79" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>-11</v>
       </c>
       <c r="E4">
+        <v>-11</v>
+      </c>
+      <c r="F4">
+        <v>-22</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.75124136002112496</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0.75124136002112496</v>
+      </c>
+      <c r="J4">
         <v>11</v>
       </c>
-      <c r="F4">
-        <v>16</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0.71358690741572672</v>
-      </c>
-      <c r="I4" s="8">
-        <v>5.7546763317456562E-2</v>
-      </c>
-      <c r="J4">
-        <v>8</v>
-      </c>
       <c r="K4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L4" s="8">
-        <v>0.72727272727272729</v>
+        <v>1</v>
       </c>
       <c r="M4" s="8">
-        <v>0.72271078732039362</v>
+        <v>0.91708045334037502</v>
       </c>
       <c r="N4" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="O4" s="6">
-        <v>11.563372597126298</v>
+        <v>20.175769973488251</v>
       </c>
       <c r="P4">
         <v>-6</v>
       </c>
       <c r="Q4" s="6">
-        <v>5.5633725971262979</v>
+        <v>14.175769973488251</v>
       </c>
       <c r="R4" s="6">
-        <v>5.5633725971262979</v>
+        <v>14.175769973488251</v>
       </c>
       <c r="S4" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="T4" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="U4" s="8">
-        <v>0.73795945813902653</v>
+        <v>0.79448046727848498</v>
       </c>
       <c r="V4" t="s">
         <v>100</v>
       </c>
       <c r="W4" s="8">
-        <v>0.73033512272971013</v>
+        <v>0.85578046030943</v>
       </c>
       <c r="X4">
-        <v>411.58872900848638</v>
+        <v>1218.4341701333678</v>
       </c>
       <c r="Y4">
-        <v>411.58872900848638</v>
+        <v>1218.4341701333678</v>
       </c>
       <c r="Z4" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="AA4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AB4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AC4" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="AD4" t="s">
         <v>33</v>
@@ -21975,92 +22280,92 @@
       </c>
     </row>
     <row r="5" spans="2:79" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>85</v>
+      <c r="B5">
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>-9</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>-11</v>
       </c>
       <c r="F5">
-        <v>14</v>
+        <v>-20</v>
       </c>
       <c r="G5" s="8">
-        <v>0.63636363636363635</v>
+        <v>0.90909090909090917</v>
       </c>
       <c r="H5" s="8">
-        <v>0.77854797769069428</v>
+        <v>0.70442662272292278</v>
       </c>
       <c r="I5" s="8">
-        <v>9.3122156909467124E-2</v>
+        <v>0.12785966823784833</v>
       </c>
       <c r="J5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5" s="8">
-        <v>0.81818181818181823</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="M5" s="8">
-        <v>0.74436447741204959</v>
+        <v>0.84086948030158037</v>
       </c>
       <c r="N5" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="O5" s="6">
-        <v>10.421102683768694</v>
+        <v>16.817389606031607</v>
       </c>
       <c r="P5">
-        <v>-15.5</v>
+        <v>-6</v>
       </c>
       <c r="Q5" s="6">
-        <v>-5.0788973162313056</v>
+        <v>10.817389606031607</v>
       </c>
       <c r="R5" s="6">
-        <v>5.0788973162313056</v>
+        <v>10.817389606031607</v>
       </c>
       <c r="S5" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="T5" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="U5" s="8">
-        <v>0.77010998512011897</v>
+        <v>0.73307582790326553</v>
       </c>
       <c r="V5" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="W5" s="8">
-        <v>0.75723723126608422</v>
+        <v>0.7869726541024229</v>
       </c>
       <c r="X5">
-        <v>-389.2974423491487</v>
+        <v>852.48096352104903</v>
       </c>
       <c r="Y5">
-        <v>389.2974423491487</v>
+        <v>852.48096352104903</v>
       </c>
       <c r="Z5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC5" t="s">
         <v>100</v>
       </c>
       <c r="AD5" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="AE5" t="s">
         <v>33</v>
@@ -22402,90 +22707,90 @@
         <v>0.78030703867445206</v>
       </c>
     </row>
-    <row r="7" spans="2:79" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>85</v>
+    <row r="7" spans="2:79" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D7">
-        <v>-3</v>
+        <v>11</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F7">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="G7" s="8">
-        <v>9.0909090909090898E-2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="8">
-        <v>0.60342597071914472</v>
+        <v>0.87786079620970381</v>
       </c>
       <c r="I7" s="8">
-        <v>3.3434765398132837E-2</v>
+        <v>0.87786079620970381</v>
       </c>
       <c r="J7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7" s="8">
-        <v>0.81818181818181823</v>
+        <v>1</v>
       </c>
       <c r="M7" s="8">
-        <v>0.504172293270018</v>
+        <v>0.95928693206990123</v>
       </c>
       <c r="N7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="O7" s="6">
-        <v>1.008344586540036</v>
+        <v>21.104312505537827</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>-4.5</v>
       </c>
       <c r="Q7" s="6">
-        <v>4.0083445865400362</v>
+        <v>16.604312505537827</v>
       </c>
       <c r="R7" s="6">
-        <v>4.0083445865400362</v>
+        <v>16.604312505537827</v>
       </c>
       <c r="S7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="T7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="U7" s="8">
-        <v>0.580204772679903</v>
+        <v>0.8932782109281765</v>
       </c>
       <c r="V7" t="s">
         <v>100</v>
       </c>
       <c r="W7" s="8">
-        <v>0.5421885329749605</v>
+        <v>0.92628257149903881</v>
       </c>
       <c r="X7">
-        <v>233.40019498512424</v>
+        <v>1543.3154731171473</v>
       </c>
       <c r="Y7">
-        <v>233.40019498512424</v>
+        <v>1543.3154731171473</v>
       </c>
       <c r="Z7" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="AA7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AB7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AC7" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="AD7" t="s">
         <v>33</v>
@@ -22616,96 +22921,96 @@
         <v>0.75234364520547747</v>
       </c>
     </row>
-    <row r="8" spans="2:79" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>85</v>
+    <row r="8" spans="2:79" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G8" s="8">
-        <v>0.54545454545454541</v>
+        <v>1</v>
       </c>
       <c r="H8" s="8">
-        <v>0.6430193762820442</v>
+        <v>0.8359549543050826</v>
       </c>
       <c r="I8" s="8">
-        <v>4.9405980938870497E-2</v>
+        <v>0.8359549543050826</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="8">
-        <v>0.90909090909090906</v>
+        <v>1</v>
       </c>
       <c r="M8" s="8">
-        <v>0.69918827694249952</v>
+        <v>0.9453183181016942</v>
       </c>
       <c r="N8" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="O8" s="6">
-        <v>8.3902593233099942</v>
+        <v>20.797002998237271</v>
       </c>
       <c r="P8">
-        <v>-7</v>
+        <v>-4.5</v>
       </c>
       <c r="Q8" s="6">
-        <v>1.3902593233099942</v>
+        <v>16.297002998237271</v>
       </c>
       <c r="R8" s="6">
-        <v>1.3902593233099942</v>
+        <v>16.297002998237271</v>
       </c>
       <c r="S8" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="T8" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="U8" s="8">
-        <v>0.57960728901804592</v>
+        <v>0.84667512105612297</v>
       </c>
       <c r="V8" t="s">
         <v>100</v>
       </c>
       <c r="W8" s="8">
-        <v>0.63939778298027272</v>
+        <v>0.89599671957890858</v>
       </c>
       <c r="X8">
-        <v>92.44659703178543</v>
+        <v>1465.335623677134</v>
       </c>
       <c r="Y8">
-        <v>92.44659703178543</v>
+        <v>1465.335623677134</v>
       </c>
       <c r="Z8" t="s">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c r="AA8" t="s">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c r="AB8" t="s">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c r="AC8" t="s">
         <v>100</v>
       </c>
       <c r="AD8" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="AE8" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="AH8" s="2" t="s">
         <v>187</v>
@@ -22831,92 +23136,92 @@
       </c>
     </row>
     <row r="9" spans="2:79" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>85</v>
+      <c r="B9">
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>9</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G9" s="8">
-        <v>0.54545454545454541</v>
+        <v>0.90909090909090917</v>
       </c>
       <c r="H9" s="8">
-        <v>0.63890615245671756</v>
+        <v>0.77902081040226689</v>
       </c>
       <c r="I9" s="8">
-        <v>1.8193550859018526E-2</v>
+        <v>0.77902081040226689</v>
       </c>
       <c r="J9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9" s="8">
-        <v>0.72727272727272729</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="M9" s="8">
-        <v>0.63721114172799675</v>
+        <v>0.86573420952802838</v>
       </c>
       <c r="N9" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="O9" s="6">
-        <v>7.6465337007359615</v>
+        <v>17.314684190560566</v>
       </c>
       <c r="P9">
-        <v>-8.5</v>
+        <v>-4.5</v>
       </c>
       <c r="Q9" s="6">
-        <v>-0.8534662992640385</v>
+        <v>12.814684190560566</v>
       </c>
       <c r="R9" s="6">
-        <v>0.8534662992640385</v>
+        <v>12.814684190560566</v>
       </c>
       <c r="S9" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="T9" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="U9" s="8">
-        <v>0.60615351237107151</v>
+        <v>0.80998314173535302</v>
       </c>
       <c r="V9" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="W9" s="8">
-        <v>0.62168232704953419</v>
+        <v>0.8378586756316907</v>
       </c>
       <c r="X9">
-        <v>-50.926766921342185</v>
+        <v>1079.7685585474433</v>
       </c>
       <c r="Y9">
-        <v>50.926766921342185</v>
+        <v>1079.7685585474433</v>
       </c>
       <c r="Z9" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="AA9" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="AB9" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="AC9" t="s">
         <v>100</v>
       </c>
       <c r="AD9" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="AE9" t="s">
         <v>33</v>
@@ -23049,25 +23354,25 @@
         <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G10" s="8">
-        <v>0.54545454545454541</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="H10" s="8">
-        <v>0.69784167161286881</v>
+        <v>0.59373213266054781</v>
       </c>
       <c r="I10" s="8">
-        <v>9.477769469868258E-2</v>
+        <v>1.9104129821866378E-2</v>
       </c>
       <c r="J10">
         <v>8</v>
@@ -23079,58 +23384,58 @@
         <v>0.72727272727272729</v>
       </c>
       <c r="M10" s="8">
-        <v>0.65685631478004713</v>
+        <v>0.56154707452321295</v>
       </c>
       <c r="N10" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="O10" s="6">
-        <v>7.8822757773605652</v>
+        <v>4.4923765961857036</v>
       </c>
       <c r="P10">
-        <v>-8.5</v>
+        <v>-4.5</v>
       </c>
       <c r="Q10" s="6">
-        <v>-0.61772422263943483</v>
+        <v>-7.6234038142963811E-3</v>
       </c>
       <c r="R10" s="6">
-        <v>0.61772422263943483</v>
+        <v>7.6234038142963811E-3</v>
       </c>
       <c r="S10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="T10" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="U10" s="8">
-        <v>0.71132158229216302</v>
+        <v>0.52596247458344458</v>
       </c>
       <c r="V10" t="s">
         <v>33</v>
       </c>
       <c r="W10" s="8">
-        <v>0.68408894853610502</v>
+        <v>0.54375477455332877</v>
       </c>
       <c r="X10">
-        <v>-28.597013888165257</v>
+        <v>250.18389788380154</v>
       </c>
       <c r="Y10">
-        <v>28.597013888165257</v>
+        <v>250.18389788380154</v>
       </c>
       <c r="Z10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AA10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AB10" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="AC10" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="AD10" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="AE10" t="s">
         <v>33</v>
@@ -23258,87 +23563,87 @@
         <v>0.77010998512011897</v>
       </c>
     </row>
-    <row r="11" spans="2:79" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>85</v>
+    <row r="11" spans="2:79" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>-11</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>-18</v>
       </c>
       <c r="G11" s="8">
-        <v>0.45454545454545453</v>
+        <v>0.81818181818181812</v>
       </c>
       <c r="H11" s="8">
-        <v>0.66992710178053483</v>
+        <v>0.66015723031584694</v>
       </c>
       <c r="I11" s="8">
-        <v>8.1704117404185927E-2</v>
+        <v>4.3212175209734194E-2</v>
       </c>
       <c r="J11">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" s="8">
-        <v>1</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="M11" s="8">
-        <v>0.70815751877532984</v>
+        <v>0.76550695555982784</v>
       </c>
       <c r="N11" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="O11" s="6">
-        <v>7.0815751877532982</v>
+        <v>13.779125200076901</v>
       </c>
       <c r="P11">
         <v>-7.5</v>
       </c>
       <c r="Q11" s="6">
-        <v>-0.4184248122467018</v>
+        <v>6.2791252000769013</v>
       </c>
       <c r="R11" s="6">
-        <v>0.4184248122467018</v>
+        <v>6.2791252000769013</v>
       </c>
       <c r="S11" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="T11" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="U11" s="8">
-        <v>0.66520192901790254</v>
+        <v>0.67782086333074609</v>
       </c>
       <c r="V11" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="W11" s="8">
-        <v>0.68667972389661625</v>
+        <v>0.72166390944528702</v>
       </c>
       <c r="X11">
-        <v>-9.2057887084912657</v>
+        <v>453.82999180444756</v>
       </c>
       <c r="Y11">
-        <v>9.2057887084912657</v>
+        <v>453.82999180444756</v>
       </c>
       <c r="Z11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AA11" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="AB11" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="AC11" t="s">
         <v>33</v>
@@ -23472,93 +23777,93 @@
         <v>0.66520192901790254</v>
       </c>
     </row>
-    <row r="12" spans="2:79" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>85</v>
+    <row r="12" spans="2:79" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>-11</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>-18</v>
       </c>
       <c r="G12" s="8">
-        <v>0.36363636363636365</v>
+        <v>0.81818181818181812</v>
       </c>
       <c r="H12" s="8">
-        <v>0.59373213266054781</v>
+        <v>0.68759973488265635</v>
       </c>
       <c r="I12" s="8">
-        <v>1.9104129821866378E-2</v>
+        <v>0.68759973488265635</v>
       </c>
       <c r="J12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12" s="8">
-        <v>0.72727272727272729</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="M12" s="8">
-        <v>0.56154707452321295</v>
+        <v>0.77465445708209757</v>
       </c>
       <c r="N12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O12" s="6">
-        <v>4.4923765961857036</v>
+        <v>13.943780227477756</v>
       </c>
       <c r="P12">
-        <v>-4.5</v>
+        <v>-7.5</v>
       </c>
       <c r="Q12" s="6">
-        <v>-7.6234038142963811E-3</v>
+        <v>6.443780227477756</v>
       </c>
       <c r="R12" s="6">
-        <v>7.6234038142963811E-3</v>
+        <v>6.443780227477756</v>
       </c>
       <c r="S12" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="T12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="U12" s="8">
-        <v>0.52596247458344458</v>
+        <v>0.73185454066164946</v>
       </c>
       <c r="V12" t="s">
+        <v>100</v>
+      </c>
+      <c r="W12" s="8">
+        <v>0.75325449887187346</v>
+      </c>
+      <c r="X12">
+        <v>496.05139548200003</v>
+      </c>
+      <c r="Y12">
+        <v>496.05139548200003</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC12" t="s">
         <v>33</v>
       </c>
-      <c r="W12" s="8">
-        <v>0.54375477455332877</v>
-      </c>
-      <c r="X12">
-        <v>250.18389788380154</v>
-      </c>
-      <c r="Y12">
-        <v>250.18389788380154</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>100</v>
-      </c>
       <c r="AD12" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="AE12" t="s">
         <v>33</v>
@@ -23691,25 +23996,25 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F13">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="G13" s="8">
         <v>0.90909090909090917</v>
       </c>
       <c r="H13" s="8">
-        <v>0.77902081040226689</v>
+        <v>0.70614617639026034</v>
       </c>
       <c r="I13" s="8">
-        <v>0.77902081040226689</v>
+        <v>0.70614617639026034</v>
       </c>
       <c r="J13">
         <v>10</v>
@@ -23721,55 +24026,55 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="M13" s="8">
-        <v>0.86573420952802838</v>
+        <v>0.84144266485735952</v>
       </c>
       <c r="N13" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O13" s="6">
-        <v>17.314684190560566</v>
+        <v>16.828853297147191</v>
       </c>
       <c r="P13">
-        <v>-4.5</v>
+        <v>-7.5</v>
       </c>
       <c r="Q13" s="6">
-        <v>12.814684190560566</v>
+        <v>9.3288532971471909</v>
       </c>
       <c r="R13" s="6">
-        <v>12.814684190560566</v>
+        <v>9.3288532971471909</v>
       </c>
       <c r="S13" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="T13" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="U13" s="8">
-        <v>0.80998314173535302</v>
+        <v>0.69944855694032304</v>
       </c>
       <c r="V13" t="s">
         <v>100</v>
       </c>
       <c r="W13" s="8">
-        <v>0.8378586756316907</v>
+        <v>0.77044561089884134</v>
       </c>
       <c r="X13">
-        <v>1079.7685585474433</v>
+        <v>726.30689302279768</v>
       </c>
       <c r="Y13">
-        <v>1079.7685585474433</v>
+        <v>726.30689302279768</v>
       </c>
       <c r="Z13" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="AA13" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AB13" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AC13" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="AD13" t="s">
         <v>33</v>
@@ -23901,89 +24206,89 @@
       </c>
     </row>
     <row r="14" spans="2:79" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>10</v>
+      <c r="B14" t="s">
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D14">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>-11</v>
+        <v>-5</v>
       </c>
       <c r="F14">
-        <v>-20</v>
+        <v>-4</v>
       </c>
       <c r="G14" s="8">
-        <v>0.90909090909090917</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="H14" s="8">
-        <v>0.70442662272292278</v>
+        <v>0.64729303103946745</v>
       </c>
       <c r="I14" s="8">
-        <v>0.12785966823784833</v>
+        <v>5.7320547861127169E-3</v>
       </c>
       <c r="J14">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L14" s="8">
-        <v>0.90909090909090906</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="M14" s="8">
-        <v>0.84086948030158037</v>
+        <v>0.45818858610406488</v>
       </c>
       <c r="N14" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="O14" s="6">
-        <v>16.817389606031607</v>
+        <v>1.8327543444162595</v>
       </c>
       <c r="P14">
-        <v>-6</v>
+        <v>-7.5</v>
       </c>
       <c r="Q14" s="6">
-        <v>10.817389606031607</v>
+        <v>-5.6672456555837405</v>
       </c>
       <c r="R14" s="6">
-        <v>10.817389606031607</v>
+        <v>5.6672456555837405</v>
       </c>
       <c r="S14" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="T14" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="U14" s="8">
-        <v>0.73307582790326553</v>
+        <v>0.68605526105943804</v>
       </c>
       <c r="V14" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="W14" s="8">
-        <v>0.7869726541024229</v>
+        <v>0.5721219235817514</v>
       </c>
       <c r="X14">
-        <v>852.48096352104903</v>
+        <v>-388.70322619925224</v>
       </c>
       <c r="Y14">
-        <v>852.48096352104903</v>
+        <v>388.70322619925224</v>
       </c>
       <c r="Z14" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AA14" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AB14" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AC14" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="AD14" t="s">
         <v>33</v>
@@ -24084,96 +24389,96 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="2:79" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:79" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E15">
         <v>11</v>
       </c>
       <c r="F15">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G15" s="8">
-        <v>0.90909090909090917</v>
+        <v>1</v>
       </c>
       <c r="H15" s="8">
-        <v>0.72369351394845427</v>
+        <v>0.84148859197636772</v>
       </c>
       <c r="I15" s="8">
-        <v>0.15250481320650022</v>
+        <v>0.84148859197636772</v>
       </c>
       <c r="J15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="8">
-        <v>0.90909090909090906</v>
+        <v>1</v>
       </c>
       <c r="M15" s="8">
-        <v>0.84729177737675754</v>
+        <v>0.94716286399212246</v>
       </c>
       <c r="N15" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="O15" s="6">
-        <v>16.94583554753515</v>
+        <v>20.837583007826694</v>
       </c>
       <c r="P15">
-        <v>-7</v>
+        <v>-7.5</v>
       </c>
       <c r="Q15" s="6">
-        <v>9.9458355475351503</v>
+        <v>13.337583007826694</v>
       </c>
       <c r="R15" s="6">
-        <v>9.9458355475351503</v>
+        <v>13.337583007826694</v>
       </c>
       <c r="S15" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="T15" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="U15" s="8">
-        <v>0.66899423438219752</v>
+        <v>0.8541805299733255</v>
       </c>
       <c r="V15" t="s">
         <v>100</v>
       </c>
       <c r="W15" s="8">
-        <v>0.75814300587947758</v>
+        <v>0.90067169698272398</v>
       </c>
       <c r="X15">
-        <v>755.5699192562347</v>
+        <v>1207.587505681875</v>
       </c>
       <c r="Y15">
-        <v>755.5699192562347</v>
+        <v>1207.587505681875</v>
       </c>
       <c r="Z15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AA15" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="AB15" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="AC15" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="AD15" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="AE15" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="AH15" s="2" t="s">
         <v>30</v>
@@ -24268,87 +24573,87 @@
         <v>0.5736746511032631</v>
       </c>
     </row>
-    <row r="16" spans="2:79" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:79" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D16">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="E16">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="F16">
-        <v>-20</v>
+        <v>22</v>
       </c>
       <c r="G16" s="8">
-        <v>0.90909090909090917</v>
+        <v>1</v>
       </c>
       <c r="H16" s="8">
-        <v>0.70614617639026034</v>
+        <v>0.85756281214239327</v>
       </c>
       <c r="I16" s="8">
-        <v>0.70614617639026034</v>
+        <v>0.85756281214239327</v>
       </c>
       <c r="J16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="8">
-        <v>0.90909090909090906</v>
+        <v>1</v>
       </c>
       <c r="M16" s="8">
-        <v>0.84144266485735952</v>
+        <v>0.95252093738079768</v>
       </c>
       <c r="N16" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="O16" s="6">
-        <v>16.828853297147191</v>
+        <v>20.955460622377551</v>
       </c>
       <c r="P16">
         <v>-7.5</v>
       </c>
       <c r="Q16" s="6">
-        <v>9.3288532971471909</v>
+        <v>13.455460622377551</v>
       </c>
       <c r="R16" s="6">
-        <v>9.3288532971471909</v>
+        <v>13.455460622377551</v>
       </c>
       <c r="S16" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="T16" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="U16" s="8">
-        <v>0.69944855694032304</v>
+        <v>0.90959970954065694</v>
       </c>
       <c r="V16" t="s">
         <v>100</v>
       </c>
       <c r="W16" s="8">
-        <v>0.77044561089884134</v>
+        <v>0.93106032346072731</v>
       </c>
       <c r="X16">
-        <v>726.30689302279768</v>
+        <v>1259.157896086241</v>
       </c>
       <c r="Y16">
-        <v>726.30689302279768</v>
+        <v>1259.157896086241</v>
       </c>
       <c r="Z16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA16" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="AB16" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="AC16" t="s">
         <v>33</v>
@@ -24427,7 +24732,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D17">
         <v>9</v>
@@ -24442,10 +24747,10 @@
         <v>0.81818181818181823</v>
       </c>
       <c r="H17" s="8">
-        <v>0.65289196263846183</v>
+        <v>0.71693246576219927</v>
       </c>
       <c r="I17" s="8">
-        <v>5.6369724304523361E-2</v>
+        <v>0.13104930182718733</v>
       </c>
       <c r="J17">
         <v>9</v>
@@ -24457,52 +24762,52 @@
         <v>0.81818181818181823</v>
       </c>
       <c r="M17" s="8">
-        <v>0.7630851996673661</v>
+        <v>0.78443203404194517</v>
       </c>
       <c r="N17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O17" s="6">
-        <v>13.73553359401259</v>
+        <v>14.119776612755013</v>
       </c>
       <c r="P17">
-        <v>-6</v>
+        <v>-7.5</v>
       </c>
       <c r="Q17" s="6">
-        <v>7.7355335940125904</v>
+        <v>6.6197766127550128</v>
       </c>
       <c r="R17" s="6">
-        <v>7.7355335940125904</v>
+        <v>6.6197766127550128</v>
       </c>
       <c r="S17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="T17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="U17" s="8">
-        <v>0.691764244288673</v>
+        <v>0.72524191571626451</v>
       </c>
       <c r="V17" t="s">
         <v>100</v>
       </c>
       <c r="W17" s="8">
-        <v>0.72742472197801955</v>
+        <v>0.75483697487910484</v>
       </c>
       <c r="X17">
-        <v>563.4305489159625</v>
+        <v>501.66487878143528</v>
       </c>
       <c r="Y17">
-        <v>563.4305489159625</v>
+        <v>501.66487878143528</v>
       </c>
       <c r="Z17" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AA17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AB17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AC17" t="s">
         <v>33</v>
@@ -24577,77 +24882,77 @@
       </c>
     </row>
     <row r="18" spans="2:79" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>10</v>
+      <c r="B18" t="s">
+        <v>85</v>
       </c>
       <c r="C18" t="s">
         <v>202</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F18">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G18" s="8">
-        <v>0.81818181818181823</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="H18" s="8">
-        <v>0.71693246576219927</v>
+        <v>0.66992710178053483</v>
       </c>
       <c r="I18" s="8">
-        <v>0.13104930182718733</v>
+        <v>8.1704117404185927E-2</v>
       </c>
       <c r="J18">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L18" s="8">
-        <v>0.81818181818181823</v>
+        <v>1</v>
       </c>
       <c r="M18" s="8">
-        <v>0.78443203404194517</v>
+        <v>0.70815751877532984</v>
       </c>
       <c r="N18" t="s">
         <v>189</v>
       </c>
       <c r="O18" s="6">
-        <v>14.119776612755013</v>
+        <v>7.0815751877532982</v>
       </c>
       <c r="P18">
         <v>-7.5</v>
       </c>
       <c r="Q18" s="6">
-        <v>6.6197766127550128</v>
+        <v>-0.4184248122467018</v>
       </c>
       <c r="R18" s="6">
-        <v>6.6197766127550128</v>
+        <v>0.4184248122467018</v>
       </c>
       <c r="S18" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="T18" t="s">
         <v>189</v>
       </c>
       <c r="U18" s="8">
-        <v>0.72524191571626451</v>
+        <v>0.66520192901790254</v>
       </c>
       <c r="V18" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="W18" s="8">
-        <v>0.75483697487910484</v>
+        <v>0.68667972389661625</v>
       </c>
       <c r="X18">
-        <v>501.66487878143528</v>
+        <v>-9.2057887084912657</v>
       </c>
       <c r="Y18">
-        <v>501.66487878143528</v>
+        <v>9.2057887084912657</v>
       </c>
       <c r="Z18" t="s">
         <v>211</v>
@@ -24728,93 +25033,93 @@
         <v>0.68605526105943804</v>
       </c>
     </row>
-    <row r="19" spans="2:79" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:79" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>-11</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>-22</v>
       </c>
       <c r="G19" s="8">
-        <v>0.27272727272727271</v>
+        <v>1</v>
       </c>
       <c r="H19" s="8">
-        <v>0.6843697885913993</v>
+        <v>0.89532241760629661</v>
       </c>
       <c r="I19" s="8">
-        <v>6.8891161920926702E-2</v>
+        <v>0.89532241760629661</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L19" s="8">
-        <v>0.45454545454545453</v>
+        <v>1</v>
       </c>
       <c r="M19" s="8">
-        <v>0.47054750528804218</v>
+        <v>0.96510747253543216</v>
       </c>
       <c r="N19" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="O19" s="6">
-        <v>2.8232850317282532</v>
+        <v>21.232364395779509</v>
       </c>
       <c r="P19">
-        <v>-8.5</v>
+        <v>3</v>
       </c>
       <c r="Q19" s="6">
-        <v>-5.6767149682717468</v>
+        <v>24.232364395779509</v>
       </c>
       <c r="R19" s="6">
-        <v>5.6767149682717468</v>
+        <v>24.232364395779509</v>
       </c>
       <c r="S19" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="T19" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="U19" s="8">
-        <v>0.5</v>
+        <v>0.89094602283401847</v>
       </c>
       <c r="V19" t="s">
+        <v>100</v>
+      </c>
+      <c r="W19" s="8">
+        <v>0.92802674768472526</v>
+      </c>
+      <c r="X19">
+        <v>2252.522970065866</v>
+      </c>
+      <c r="Y19">
+        <v>2252.522970065866</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC19" t="s">
         <v>33</v>
       </c>
-      <c r="W19" s="8">
-        <v>0.48527375264402106</v>
-      </c>
-      <c r="X19">
-        <v>-282.62217397298264</v>
-      </c>
-      <c r="Y19">
-        <v>282.62217397298264</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>188</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>100</v>
-      </c>
       <c r="AD19" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="AE19" t="s">
         <v>33</v>
@@ -24850,30 +25155,30 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="2:79" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:79" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="E20">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F20">
-        <v>22</v>
+        <v>-22</v>
       </c>
       <c r="G20" s="8">
         <v>1</v>
       </c>
       <c r="H20" s="8">
-        <v>0.84891832061826844</v>
+        <v>0.79866274461012143</v>
       </c>
       <c r="I20" s="8">
-        <v>0.84891832061826844</v>
+        <v>0.79866274461012143</v>
       </c>
       <c r="J20">
         <v>11</v>
@@ -24885,55 +25190,55 @@
         <v>1</v>
       </c>
       <c r="M20" s="8">
-        <v>0.94963944020608937</v>
+        <v>0.93288758153670714</v>
       </c>
       <c r="N20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O20" s="6">
-        <v>20.892067684533966</v>
+        <v>20.523526793807559</v>
       </c>
       <c r="P20">
-        <v>-15.5</v>
+        <v>3</v>
       </c>
       <c r="Q20" s="6">
-        <v>5.3920676845339663</v>
+        <v>23.523526793807559</v>
       </c>
       <c r="R20" s="6">
-        <v>5.3920676845339663</v>
+        <v>23.523526793807559</v>
       </c>
       <c r="S20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U20" s="8">
-        <v>0.87596553253033949</v>
+        <v>0.79942025725480104</v>
       </c>
       <c r="V20" t="s">
         <v>100</v>
       </c>
       <c r="W20" s="8">
-        <v>0.91280248636821448</v>
+        <v>0.86615391939575415</v>
       </c>
       <c r="X20">
-        <v>507.93311541817292</v>
+        <v>2040.8946588805541</v>
       </c>
       <c r="Y20">
-        <v>507.93311541817292</v>
+        <v>2040.8946588805541</v>
       </c>
       <c r="Z20" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="AA20" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="AB20" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="AC20" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="AD20" t="s">
         <v>33</v>
@@ -24977,82 +25282,82 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G21" s="8">
-        <v>0.54545454545454541</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="H21" s="8">
-        <v>0.67106413980150548</v>
+        <v>0.64637164919558376</v>
       </c>
       <c r="I21" s="8">
-        <v>0.12742263102675677</v>
+        <v>8.1664044094596044E-2</v>
       </c>
       <c r="J21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L21" s="8">
-        <v>0.54545454545454541</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="M21" s="8">
-        <v>0.58732441023686544</v>
+        <v>0.51848751942883098</v>
       </c>
       <c r="N21" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="O21" s="6">
-        <v>7.0478929228423848</v>
+        <v>2.0739500777153239</v>
       </c>
       <c r="P21">
-        <v>-8.5</v>
+        <v>-3</v>
       </c>
       <c r="Q21" s="6">
-        <v>-1.4521070771576152</v>
+        <v>-0.92604992228467609</v>
       </c>
       <c r="R21" s="6">
-        <v>1.4521070771576152</v>
+        <v>0.92604992228467609</v>
       </c>
       <c r="S21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T21" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="U21" s="8">
-        <v>0.72698261271082809</v>
+        <v>0.57183946880102499</v>
       </c>
       <c r="V21" t="s">
         <v>33</v>
       </c>
       <c r="W21" s="8">
-        <v>0.65715351147384671</v>
+        <v>0.54516349411492793</v>
       </c>
       <c r="X21">
-        <v>-96.790643504987841</v>
+        <v>-44.136653745671083</v>
       </c>
       <c r="Y21">
-        <v>96.790643504987841</v>
+        <v>44.136653745671083</v>
       </c>
       <c r="Z21" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="AA21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AB21" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="AC21" t="s">
         <v>33</v>
@@ -25065,77 +25370,77 @@
       </c>
     </row>
     <row r="22" spans="2:79" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>10</v>
+      <c r="B22" t="s">
+        <v>85</v>
       </c>
       <c r="C22" t="s">
         <v>203</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>-2</v>
+      </c>
+      <c r="G22" s="8">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0.60342597071914472</v>
+      </c>
+      <c r="I22" s="8">
+        <v>3.3434765398132837E-2</v>
+      </c>
+      <c r="J22">
+        <v>9</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0.504172293270018</v>
+      </c>
+      <c r="N22" t="s">
+        <v>154</v>
+      </c>
+      <c r="O22" s="6">
+        <v>1.008344586540036</v>
+      </c>
+      <c r="P22">
         <v>3</v>
       </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H22" s="8">
-        <v>0.64637164919558376</v>
-      </c>
-      <c r="I22" s="8">
-        <v>8.1664044094596044E-2</v>
-      </c>
-      <c r="J22">
-        <v>8</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22" s="8">
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="M22" s="8">
-        <v>0.51848751942883098</v>
-      </c>
-      <c r="N22" t="s">
-        <v>213</v>
-      </c>
-      <c r="O22" s="6">
-        <v>2.0739500777153239</v>
-      </c>
-      <c r="P22">
-        <v>-3</v>
-      </c>
       <c r="Q22" s="6">
-        <v>-0.92604992228467609</v>
+        <v>4.0083445865400362</v>
       </c>
       <c r="R22" s="6">
-        <v>0.92604992228467609</v>
+        <v>4.0083445865400362</v>
       </c>
       <c r="S22" t="s">
         <v>154</v>
       </c>
       <c r="T22" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="U22" s="8">
-        <v>0.57183946880102499</v>
+        <v>0.580204772679903</v>
       </c>
       <c r="V22" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="W22" s="8">
-        <v>0.54516349411492793</v>
+        <v>0.5421885329749605</v>
       </c>
       <c r="X22">
-        <v>-44.136653745671083</v>
+        <v>233.40019498512424</v>
       </c>
       <c r="Y22">
-        <v>44.136653745671083</v>
+        <v>233.40019498512424</v>
       </c>
       <c r="Z22" t="s">
         <v>213</v>
@@ -25156,30 +25461,30 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:79" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:79" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D23">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="E23">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="F23">
-        <v>-22</v>
+        <v>22</v>
       </c>
       <c r="G23" s="8">
         <v>1</v>
       </c>
       <c r="H23" s="8">
-        <v>0.79866274461012143</v>
+        <v>0.91406177325537008</v>
       </c>
       <c r="I23" s="8">
-        <v>0.79866274461012143</v>
+        <v>0.91406177325537008</v>
       </c>
       <c r="J23">
         <v>11</v>
@@ -25191,69 +25496,69 @@
         <v>1</v>
       </c>
       <c r="M23" s="8">
-        <v>0.93288758153670714</v>
+        <v>0.97135392441845669</v>
       </c>
       <c r="N23" t="s">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="O23" s="6">
-        <v>20.523526793807559</v>
+        <v>21.369786337206047</v>
       </c>
       <c r="P23">
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="Q23" s="6">
-        <v>23.523526793807559</v>
+        <v>14.369786337206047</v>
       </c>
       <c r="R23" s="6">
-        <v>23.523526793807559</v>
+        <v>14.369786337206047</v>
       </c>
       <c r="S23" t="s">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="T23" t="s">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="U23" s="8">
-        <v>0.79942025725480104</v>
+        <v>0.923714322605933</v>
       </c>
       <c r="V23" t="s">
         <v>100</v>
       </c>
       <c r="W23" s="8">
-        <v>0.86615391939575415</v>
+        <v>0.94753412351219479</v>
       </c>
       <c r="X23">
-        <v>2040.8946588805541</v>
+        <v>1367.9472878723707</v>
       </c>
       <c r="Y23">
-        <v>2040.8946588805541</v>
+        <v>1367.9472878723707</v>
       </c>
       <c r="Z23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA23" t="s">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="AB23" t="s">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="AC23" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="AD23" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="AE23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="2:79" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:79" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D24">
         <v>11</v>
@@ -25268,10 +25573,10 @@
         <v>1</v>
       </c>
       <c r="H24" s="8">
-        <v>0.8359549543050826</v>
+        <v>0.83800199565554034</v>
       </c>
       <c r="I24" s="8">
-        <v>0.8359549543050826</v>
+        <v>0.83800199565554034</v>
       </c>
       <c r="J24">
         <v>11</v>
@@ -25283,206 +25588,206 @@
         <v>1</v>
       </c>
       <c r="M24" s="8">
-        <v>0.9453183181016942</v>
+        <v>0.94600066521851345</v>
       </c>
       <c r="N24" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="O24" s="6">
-        <v>20.797002998237271</v>
+        <v>20.812014634807294</v>
       </c>
       <c r="P24">
-        <v>-4.5</v>
+        <v>-7</v>
       </c>
       <c r="Q24" s="6">
-        <v>16.297002998237271</v>
+        <v>13.812014634807294</v>
       </c>
       <c r="R24" s="6">
-        <v>16.297002998237271</v>
+        <v>13.812014634807294</v>
       </c>
       <c r="S24" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="T24" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="U24" s="8">
-        <v>0.84667512105612297</v>
+        <v>0.83705873481573345</v>
       </c>
       <c r="V24" t="s">
         <v>100</v>
       </c>
       <c r="W24" s="8">
-        <v>0.89599671957890858</v>
+        <v>0.89152970001712339</v>
       </c>
       <c r="X24">
-        <v>1465.335623677134</v>
+        <v>1237.4493223727691</v>
       </c>
       <c r="Y24">
-        <v>1465.335623677134</v>
+        <v>1237.4493223727691</v>
       </c>
       <c r="Z24" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="AA24" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="AB24" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="AC24" t="s">
         <v>100</v>
       </c>
       <c r="AD24" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="AE24" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D25">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="E25">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="F25">
-        <v>-22</v>
+        <v>20</v>
       </c>
       <c r="G25" s="8">
-        <v>1</v>
+        <v>0.90909090909090917</v>
       </c>
       <c r="H25" s="8">
-        <v>0.75124136002112496</v>
+        <v>0.72369351394845427</v>
       </c>
       <c r="I25" s="8">
-        <v>0.75124136002112496</v>
+        <v>0.15250481320650022</v>
       </c>
       <c r="J25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="8">
-        <v>1</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="M25" s="8">
-        <v>0.91708045334037502</v>
+        <v>0.84729177737675754</v>
       </c>
       <c r="N25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O25" s="6">
-        <v>20.175769973488251</v>
+        <v>16.94583554753515</v>
       </c>
       <c r="P25">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="Q25" s="6">
-        <v>14.175769973488251</v>
+        <v>9.9458355475351503</v>
       </c>
       <c r="R25" s="6">
-        <v>14.175769973488251</v>
+        <v>9.9458355475351503</v>
       </c>
       <c r="S25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="T25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="U25" s="8">
-        <v>0.79448046727848498</v>
+        <v>0.66899423438219752</v>
       </c>
       <c r="V25" t="s">
         <v>100</v>
       </c>
       <c r="W25" s="8">
-        <v>0.85578046030943</v>
+        <v>0.75814300587947758</v>
       </c>
       <c r="X25">
-        <v>1218.4341701333678</v>
+        <v>755.5699192562347</v>
       </c>
       <c r="Y25">
-        <v>1218.4341701333678</v>
+        <v>755.5699192562347</v>
       </c>
       <c r="Z25" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="AA25" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="AB25" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="AC25" t="s">
         <v>100</v>
       </c>
       <c r="AD25" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="AE25" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="2:79" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>5</v>
+      <c r="B26" t="s">
+        <v>85</v>
       </c>
       <c r="C26" t="s">
         <v>204</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E26">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F26">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G26" s="8">
-        <v>1</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="H26" s="8">
-        <v>0.83800199565554034</v>
+        <v>0.6430193762820442</v>
       </c>
       <c r="I26" s="8">
-        <v>0.83800199565554034</v>
+        <v>4.9405980938870497E-2</v>
       </c>
       <c r="J26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="8">
-        <v>1</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="M26" s="8">
-        <v>0.94600066521851345</v>
+        <v>0.69918827694249952</v>
       </c>
       <c r="N26" t="s">
         <v>212</v>
       </c>
       <c r="O26" s="6">
-        <v>20.812014634807294</v>
+        <v>8.3902593233099942</v>
       </c>
       <c r="P26">
         <v>-7</v>
       </c>
       <c r="Q26" s="6">
-        <v>13.812014634807294</v>
+        <v>1.3902593233099942</v>
       </c>
       <c r="R26" s="6">
-        <v>13.812014634807294</v>
+        <v>1.3902593233099942</v>
       </c>
       <c r="S26" t="s">
         <v>212</v>
@@ -25491,19 +25796,19 @@
         <v>212</v>
       </c>
       <c r="U26" s="8">
-        <v>0.83705873481573345</v>
+        <v>0.57960728901804592</v>
       </c>
       <c r="V26" t="s">
         <v>100</v>
       </c>
       <c r="W26" s="8">
-        <v>0.89152970001712339</v>
+        <v>0.63939778298027272</v>
       </c>
       <c r="X26">
-        <v>1237.4493223727691</v>
+        <v>92.44659703178543</v>
       </c>
       <c r="Y26">
-        <v>1237.4493223727691</v>
+        <v>92.44659703178543</v>
       </c>
       <c r="Z26" t="s">
         <v>212</v>
@@ -25524,12 +25829,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="2:79" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:79" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D27">
         <v>11</v>
@@ -25544,10 +25849,10 @@
         <v>1</v>
       </c>
       <c r="H27" s="8">
-        <v>0.85756281214239327</v>
+        <v>0.89593375139878018</v>
       </c>
       <c r="I27" s="8">
-        <v>0.85756281214239327</v>
+        <v>0.89593375139878018</v>
       </c>
       <c r="J27">
         <v>11</v>
@@ -25559,55 +25864,55 @@
         <v>1</v>
       </c>
       <c r="M27" s="8">
-        <v>0.95252093738079768</v>
+        <v>0.96531125046625998</v>
       </c>
       <c r="N27" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="O27" s="6">
-        <v>20.955460622377551</v>
+        <v>21.236847510257718</v>
       </c>
       <c r="P27">
-        <v>-7.5</v>
+        <v>-15.5</v>
       </c>
       <c r="Q27" s="6">
-        <v>13.455460622377551</v>
+        <v>5.7368475102577179</v>
       </c>
       <c r="R27" s="6">
-        <v>13.455460622377551</v>
+        <v>5.7368475102577179</v>
       </c>
       <c r="S27" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="T27" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="U27" s="8">
-        <v>0.90959970954065694</v>
+        <v>0.89635896906443202</v>
       </c>
       <c r="V27" t="s">
         <v>100</v>
       </c>
       <c r="W27" s="8">
-        <v>0.93106032346072731</v>
+        <v>0.930835109765346</v>
       </c>
       <c r="X27">
-        <v>1259.157896086241</v>
+        <v>549.62308730969767</v>
       </c>
       <c r="Y27">
-        <v>1259.157896086241</v>
+        <v>549.62308730969767</v>
       </c>
       <c r="Z27" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="AA27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AB27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AC27" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="AD27" t="s">
         <v>33</v>
@@ -25616,182 +25921,182 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="2:79" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:79" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D28">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="E28">
-        <v>-7</v>
+        <v>11</v>
       </c>
       <c r="F28">
-        <v>-8</v>
+        <v>22</v>
       </c>
       <c r="G28" s="8">
-        <v>0.36363636363636365</v>
+        <v>1</v>
       </c>
       <c r="H28" s="8">
-        <v>0.66370397584562491</v>
+        <v>0.8722124083105568</v>
       </c>
       <c r="I28" s="8">
-        <v>7.0696533405080419E-2</v>
+        <v>0.8722124083105568</v>
       </c>
       <c r="J28">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L28" s="8">
-        <v>0.54545454545454541</v>
+        <v>1</v>
       </c>
       <c r="M28" s="8">
-        <v>0.52426496164551128</v>
+        <v>0.95740413610351893</v>
       </c>
       <c r="N28" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="O28" s="6">
-        <v>4.1941196931640903</v>
+        <v>21.062890994277417</v>
       </c>
       <c r="P28">
-        <v>8.5</v>
+        <v>-15.5</v>
       </c>
       <c r="Q28" s="6">
-        <v>12.69411969316409</v>
+        <v>5.5628909942774172</v>
       </c>
       <c r="R28" s="6">
-        <v>12.69411969316409</v>
+        <v>5.5628909942774172</v>
       </c>
       <c r="S28" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="T28" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="U28" s="8">
-        <v>0.58717475199858149</v>
+        <v>0.91557063438809894</v>
       </c>
       <c r="V28" t="s">
         <v>100</v>
       </c>
       <c r="W28" s="8">
-        <v>0.55571985682204639</v>
+        <v>0.93648738524580888</v>
       </c>
       <c r="X28">
-        <v>745.92358174939864</v>
+        <v>536.63684513182852</v>
       </c>
       <c r="Y28">
-        <v>745.92358174939864</v>
+        <v>536.63684513182852</v>
       </c>
       <c r="Z28" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AA28" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AB28" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AC28" t="s">
         <v>100</v>
       </c>
       <c r="AD28" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="AE28" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D29">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="E29">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="F29">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="G29" s="8">
-        <v>9.0909090909090912E-2</v>
+        <v>1</v>
       </c>
       <c r="H29" s="8">
-        <v>0.60356478379700707</v>
+        <v>0.84891832061826844</v>
       </c>
       <c r="I29" s="8">
-        <v>8.6351486837623614E-3</v>
+        <v>0.84891832061826844</v>
       </c>
       <c r="J29">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L29" s="8">
-        <v>0.81818181818181823</v>
+        <v>1</v>
       </c>
       <c r="M29" s="8">
-        <v>0.50421856429597212</v>
+        <v>0.94963944020608937</v>
       </c>
       <c r="N29" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O29" s="6">
-        <v>1.0084371285919442</v>
+        <v>20.892067684533966</v>
       </c>
       <c r="P29">
-        <v>8.5</v>
+        <v>-15.5</v>
       </c>
       <c r="Q29" s="6">
-        <v>9.5084371285919449</v>
+        <v>5.3920676845339663</v>
       </c>
       <c r="R29" s="6">
-        <v>9.5084371285919449</v>
+        <v>5.3920676845339663</v>
       </c>
       <c r="S29" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="T29" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="U29" s="8">
-        <v>0.54684984027169747</v>
+        <v>0.87596553253033949</v>
       </c>
       <c r="V29" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="W29" s="8">
-        <v>0.52553420228383474</v>
+        <v>0.91280248636821448</v>
       </c>
       <c r="X29">
-        <v>520.0595481472493</v>
+        <v>507.93311541817292</v>
       </c>
       <c r="Y29">
-        <v>520.0595481472493</v>
+        <v>507.93311541817292</v>
       </c>
       <c r="Z29" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="AA29" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="AB29" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="AC29" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="AD29" t="s">
         <v>33</v>
@@ -25801,29 +26106,29 @@
       </c>
     </row>
     <row r="30" spans="2:79" x14ac:dyDescent="0.25">
-      <c r="B30">
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>206</v>
+      </c>
+      <c r="D30">
         <v>5</v>
       </c>
-      <c r="C30" t="s">
-        <v>201</v>
-      </c>
-      <c r="D30">
-        <v>-11</v>
-      </c>
       <c r="E30">
-        <v>-7</v>
+        <v>9</v>
       </c>
       <c r="F30">
-        <v>-18</v>
+        <v>14</v>
       </c>
       <c r="G30" s="8">
-        <v>0.81818181818181812</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="H30" s="8">
-        <v>0.68759973488265635</v>
+        <v>0.77854797769069428</v>
       </c>
       <c r="I30" s="8">
-        <v>0.68759973488265635</v>
+        <v>9.3122156909467124E-2</v>
       </c>
       <c r="J30">
         <v>9</v>
@@ -25835,147 +26140,147 @@
         <v>0.81818181818181823</v>
       </c>
       <c r="M30" s="8">
-        <v>0.77465445708209757</v>
+        <v>0.74436447741204959</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="O30" s="6">
-        <v>13.943780227477756</v>
+        <v>10.421102683768694</v>
       </c>
       <c r="P30">
-        <v>-7.5</v>
+        <v>-15.5</v>
       </c>
       <c r="Q30" s="6">
-        <v>6.443780227477756</v>
+        <v>-5.0788973162313056</v>
       </c>
       <c r="R30" s="6">
-        <v>6.443780227477756</v>
+        <v>5.0788973162313056</v>
       </c>
       <c r="S30" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="T30" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="U30" s="8">
-        <v>0.73185454066164946</v>
+        <v>0.77010998512011897</v>
       </c>
       <c r="V30" t="s">
+        <v>33</v>
+      </c>
+      <c r="W30" s="8">
+        <v>0.75723723126608422</v>
+      </c>
+      <c r="X30">
+        <v>-389.2974423491487</v>
+      </c>
+      <c r="Y30">
+        <v>389.2974423491487</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC30" t="s">
         <v>100</v>
       </c>
-      <c r="W30" s="8">
-        <v>0.75325449887187346</v>
-      </c>
-      <c r="X30">
-        <v>496.05139548200003</v>
-      </c>
-      <c r="Y30">
-        <v>496.05139548200003</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>210</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>33</v>
-      </c>
       <c r="AD30" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="AE30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:79" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:79" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D31">
+        <v>-7</v>
+      </c>
+      <c r="E31">
+        <v>-1</v>
+      </c>
+      <c r="F31">
+        <v>-8</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="H31" s="8">
+        <v>0.639386403752215</v>
+      </c>
+      <c r="I31" s="8">
+        <v>3.778849884226676E-2</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+      <c r="K31">
         <v>5</v>
       </c>
-      <c r="C31" t="s">
-        <v>206</v>
-      </c>
-      <c r="D31">
-        <v>11</v>
-      </c>
-      <c r="E31">
-        <v>11</v>
-      </c>
-      <c r="F31">
-        <v>22</v>
-      </c>
-      <c r="G31" s="8">
-        <v>1</v>
-      </c>
-      <c r="H31" s="8">
-        <v>0.8722124083105568</v>
-      </c>
-      <c r="I31" s="8">
-        <v>0.8722124083105568</v>
-      </c>
-      <c r="J31">
-        <v>11</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
       <c r="L31" s="8">
-        <v>1</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="M31" s="8">
-        <v>0.95740413610351893</v>
+        <v>0.51615910428104128</v>
       </c>
       <c r="N31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O31" s="6">
-        <v>21.062890994277417</v>
+        <v>4.1292728342483302</v>
       </c>
       <c r="P31">
-        <v>-15.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q31" s="6">
-        <v>5.5628909942774172</v>
+        <v>12.629272834248329</v>
       </c>
       <c r="R31" s="6">
-        <v>5.5628909942774172</v>
+        <v>12.629272834248329</v>
       </c>
       <c r="S31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T31" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="U31" s="8">
-        <v>0.91557063438809894</v>
+        <v>0.5</v>
       </c>
       <c r="V31" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="W31" s="8">
-        <v>0.93648738524580888</v>
+        <v>0.50807955214052059</v>
       </c>
       <c r="X31">
-        <v>536.63684513182852</v>
+        <v>641.96674212431265</v>
       </c>
       <c r="Y31">
-        <v>536.63684513182852</v>
+        <v>641.96674212431265</v>
       </c>
       <c r="Z31" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="AA31" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="AB31" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AC31" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="AD31" t="s">
         <v>33</v>
@@ -25984,87 +26289,87 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:79" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:79" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="E32">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="G32" s="8">
-        <v>0.18181818181818182</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="H32" s="8">
-        <v>0.60152181065152122</v>
+        <v>0.60356478379700707</v>
       </c>
       <c r="I32" s="8">
-        <v>6.7558402472518431E-3</v>
+        <v>8.6351486837623614E-3</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K32">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L32" s="8">
-        <v>0.36363636363636365</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="M32" s="8">
-        <v>0.38232545203535562</v>
+        <v>0.50421856429597212</v>
       </c>
       <c r="N32" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="O32" s="6">
-        <v>1.5293018081414225</v>
+        <v>1.0084371285919442</v>
       </c>
       <c r="P32">
-        <v>-6</v>
+        <v>8.5</v>
       </c>
       <c r="Q32" s="6">
-        <v>-4.4706981918585775</v>
+        <v>9.5084371285919449</v>
       </c>
       <c r="R32" s="6">
-        <v>4.4706981918585775</v>
+        <v>9.5084371285919449</v>
       </c>
       <c r="S32" t="s">
-        <v>214</v>
+        <v>153</v>
       </c>
       <c r="T32" t="s">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="U32" s="8">
-        <v>0.5</v>
+        <v>0.54684984027169747</v>
       </c>
       <c r="V32" t="s">
         <v>33</v>
       </c>
       <c r="W32" s="8">
-        <v>0.44116272601767781</v>
+        <v>0.52553420228383474</v>
       </c>
       <c r="X32">
-        <v>-223.38379583043971</v>
+        <v>520.0595481472493</v>
       </c>
       <c r="Y32">
-        <v>223.38379583043971</v>
+        <v>520.0595481472493</v>
       </c>
       <c r="Z32" t="s">
-        <v>214</v>
+        <v>153</v>
       </c>
       <c r="AA32" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="AB32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AC32" t="s">
         <v>33</v>
@@ -26078,85 +26383,85 @@
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B33">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D33">
-        <v>-11</v>
+        <v>7</v>
       </c>
       <c r="E33">
-        <v>-11</v>
+        <v>5</v>
       </c>
       <c r="F33">
-        <v>-22</v>
+        <v>12</v>
       </c>
       <c r="G33" s="8">
-        <v>1</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="H33" s="8">
-        <v>0.89532241760629661</v>
+        <v>0.67106413980150548</v>
       </c>
       <c r="I33" s="8">
-        <v>0.89532241760629661</v>
+        <v>0.12742263102675677</v>
       </c>
       <c r="J33">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L33" s="8">
-        <v>1</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="M33" s="8">
-        <v>0.96510747253543216</v>
+        <v>0.58732441023686544</v>
       </c>
       <c r="N33" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="O33" s="6">
-        <v>21.232364395779509</v>
+        <v>7.0478929228423848</v>
       </c>
       <c r="P33">
-        <v>3</v>
+        <v>-8.5</v>
       </c>
       <c r="Q33" s="6">
-        <v>24.232364395779509</v>
+        <v>-1.4521070771576152</v>
       </c>
       <c r="R33" s="6">
-        <v>24.232364395779509</v>
+        <v>1.4521070771576152</v>
       </c>
       <c r="S33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T33" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="U33" s="8">
-        <v>0.89094602283401847</v>
+        <v>0.72698261271082809</v>
       </c>
       <c r="V33" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="W33" s="8">
-        <v>0.92802674768472526</v>
+        <v>0.65715351147384671</v>
       </c>
       <c r="X33">
-        <v>2252.522970065866</v>
+        <v>-96.790643504987841</v>
       </c>
       <c r="Y33">
-        <v>2252.522970065866</v>
+        <v>96.790643504987841</v>
       </c>
       <c r="Z33" t="s">
-        <v>213</v>
+        <v>153</v>
       </c>
       <c r="AA33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AB33" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="AC33" t="s">
         <v>33</v>
@@ -26169,89 +26474,89 @@
       </c>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B34">
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" t="s">
+        <v>207</v>
+      </c>
+      <c r="D34">
         <v>3</v>
       </c>
-      <c r="C34" t="s">
-        <v>200</v>
-      </c>
-      <c r="D34">
-        <v>11</v>
-      </c>
       <c r="E34">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F34">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G34" s="8">
-        <v>1</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="H34" s="8">
-        <v>0.87786079620970381</v>
+        <v>0.69784167161286881</v>
       </c>
       <c r="I34" s="8">
-        <v>0.87786079620970381</v>
+        <v>9.477769469868258E-2</v>
       </c>
       <c r="J34">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L34" s="8">
-        <v>1</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="M34" s="8">
-        <v>0.95928693206990123</v>
+        <v>0.65685631478004713</v>
       </c>
       <c r="N34" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="O34" s="6">
-        <v>21.104312505537827</v>
+        <v>7.8822757773605652</v>
       </c>
       <c r="P34">
-        <v>-4.5</v>
+        <v>-8.5</v>
       </c>
       <c r="Q34" s="6">
-        <v>16.604312505537827</v>
+        <v>-0.61772422263943483</v>
       </c>
       <c r="R34" s="6">
-        <v>16.604312505537827</v>
+        <v>0.61772422263943483</v>
       </c>
       <c r="S34" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="T34" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="U34" s="8">
-        <v>0.8932782109281765</v>
+        <v>0.71132158229216302</v>
       </c>
       <c r="V34" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="W34" s="8">
-        <v>0.92628257149903881</v>
+        <v>0.68408894853610502</v>
       </c>
       <c r="X34">
-        <v>1543.3154731171473</v>
+        <v>-28.597013888165257</v>
       </c>
       <c r="Y34">
-        <v>1543.3154731171473</v>
+        <v>28.597013888165257</v>
       </c>
       <c r="Z34" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AA34" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AB34" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="AC34" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="AD34" t="s">
         <v>33</v>
@@ -26260,179 +26565,179 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="D35">
-        <v>-11</v>
+        <v>-5</v>
       </c>
       <c r="E35">
-        <v>-11</v>
+        <v>-5</v>
       </c>
       <c r="F35">
-        <v>-22</v>
+        <v>-10</v>
       </c>
       <c r="G35" s="8">
-        <v>1</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="H35" s="8">
-        <v>0.83972084006603231</v>
+        <v>0.62826198069157968</v>
       </c>
       <c r="I35" s="8">
-        <v>0.83972084006603231</v>
+        <v>3.5319325352414221E-2</v>
       </c>
       <c r="J35">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L35" s="8">
-        <v>1</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="M35" s="8">
-        <v>0.94657361335534418</v>
+        <v>0.51245096326082962</v>
       </c>
       <c r="N35" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="O35" s="6">
-        <v>20.824619493817572</v>
+        <v>5.1245096326082962</v>
       </c>
       <c r="P35">
-        <v>-6</v>
+        <v>8.5</v>
       </c>
       <c r="Q35" s="6">
-        <v>14.824619493817572</v>
+        <v>13.624509632608296</v>
       </c>
       <c r="R35" s="6">
-        <v>14.824619493817572</v>
+        <v>13.624509632608296</v>
       </c>
       <c r="S35" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="T35" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="U35" s="8">
-        <v>0.81336482084160555</v>
+        <v>0.60137034004339951</v>
       </c>
       <c r="V35" t="s">
         <v>100</v>
       </c>
       <c r="W35" s="8">
-        <v>0.87996921709847487</v>
+        <v>0.55691065165211451</v>
       </c>
       <c r="X35">
-        <v>1310.1852478784911</v>
+        <v>819.59683280476997</v>
       </c>
       <c r="Y35">
-        <v>1310.1852478784911</v>
+        <v>819.59683280476997</v>
       </c>
       <c r="Z35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AB35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AC35" t="s">
         <v>100</v>
       </c>
       <c r="AD35" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="AE35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="2:31" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D36">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="E36">
-        <v>11</v>
+        <v>-7</v>
       </c>
       <c r="F36">
-        <v>22</v>
+        <v>-8</v>
       </c>
       <c r="G36" s="8">
-        <v>1</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="H36" s="8">
-        <v>0.91406177325537008</v>
+        <v>0.66370397584562491</v>
       </c>
       <c r="I36" s="8">
-        <v>0.91406177325537008</v>
+        <v>7.0696533405080419E-2</v>
       </c>
       <c r="J36">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L36" s="8">
-        <v>1</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="M36" s="8">
-        <v>0.97135392441845669</v>
+        <v>0.52426496164551128</v>
       </c>
       <c r="N36" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="O36" s="6">
-        <v>21.369786337206047</v>
+        <v>4.1941196931640903</v>
       </c>
       <c r="P36">
-        <v>-7</v>
+        <v>8.5</v>
       </c>
       <c r="Q36" s="6">
-        <v>14.369786337206047</v>
+        <v>12.69411969316409</v>
       </c>
       <c r="R36" s="6">
-        <v>14.369786337206047</v>
+        <v>12.69411969316409</v>
       </c>
       <c r="S36" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="T36" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="U36" s="8">
-        <v>0.923714322605933</v>
+        <v>0.58717475199858149</v>
       </c>
       <c r="V36" t="s">
         <v>100</v>
       </c>
       <c r="W36" s="8">
-        <v>0.94753412351219479</v>
+        <v>0.55571985682204639</v>
       </c>
       <c r="X36">
-        <v>1367.9472878723707</v>
+        <v>745.92358174939864</v>
       </c>
       <c r="Y36">
-        <v>1367.9472878723707</v>
+        <v>745.92358174939864</v>
       </c>
       <c r="Z36" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="AA36" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="AB36" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="AC36" t="s">
         <v>100</v>
@@ -26446,28 +26751,28 @@
     </row>
     <row r="37" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B37">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
         <v>208</v>
       </c>
       <c r="D37">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F37">
-        <v>-10</v>
+        <v>6</v>
       </c>
       <c r="G37" s="8">
-        <v>0.45454545454545453</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="H37" s="8">
-        <v>0.62826198069157968</v>
+        <v>0.6843697885913993</v>
       </c>
       <c r="I37" s="8">
-        <v>3.5319325352414221E-2</v>
+        <v>6.8891161920926702E-2</v>
       </c>
       <c r="J37">
         <v>5</v>
@@ -26479,43 +26784,43 @@
         <v>0.45454545454545453</v>
       </c>
       <c r="M37" s="8">
-        <v>0.51245096326082962</v>
+        <v>0.47054750528804218</v>
       </c>
       <c r="N37" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="O37" s="6">
-        <v>5.1245096326082962</v>
+        <v>2.8232850317282532</v>
       </c>
       <c r="P37">
-        <v>8.5</v>
+        <v>-8.5</v>
       </c>
       <c r="Q37" s="6">
-        <v>13.624509632608296</v>
+        <v>-5.6767149682717468</v>
       </c>
       <c r="R37" s="6">
-        <v>13.624509632608296</v>
+        <v>5.6767149682717468</v>
       </c>
       <c r="S37" t="s">
         <v>188</v>
       </c>
       <c r="T37" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="U37" s="8">
-        <v>0.60137034004339951</v>
+        <v>0.5</v>
       </c>
       <c r="V37" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="W37" s="8">
-        <v>0.55691065165211451</v>
+        <v>0.48527375264402106</v>
       </c>
       <c r="X37">
-        <v>819.59683280476997</v>
+        <v>-282.62217397298264</v>
       </c>
       <c r="Y37">
-        <v>819.59683280476997</v>
+        <v>282.62217397298264</v>
       </c>
       <c r="Z37" t="s">
         <v>188</v>
@@ -26533,125 +26838,125 @@
         <v>100</v>
       </c>
       <c r="AE37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>9</v>
+      </c>
+      <c r="F38">
+        <v>12</v>
+      </c>
+      <c r="G38" s="8">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="H38" s="8">
+        <v>0.63890615245671756</v>
+      </c>
+      <c r="I38" s="8">
+        <v>1.8193550859018526E-2</v>
+      </c>
+      <c r="J38">
+        <v>8</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38" s="8">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="M38" s="8">
+        <v>0.63721114172799675</v>
+      </c>
+      <c r="N38" t="s">
+        <v>192</v>
+      </c>
+      <c r="O38" s="6">
+        <v>7.6465337007359615</v>
+      </c>
+      <c r="P38">
+        <v>-8.5</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>-0.8534662992640385</v>
+      </c>
+      <c r="R38" s="6">
+        <v>0.8534662992640385</v>
+      </c>
+      <c r="S38" t="s">
+        <v>188</v>
+      </c>
+      <c r="T38" t="s">
+        <v>192</v>
+      </c>
+      <c r="U38" s="8">
+        <v>0.60615351237107151</v>
+      </c>
+      <c r="V38" t="s">
+        <v>33</v>
+      </c>
+      <c r="W38" s="8">
+        <v>0.62168232704953419</v>
+      </c>
+      <c r="X38">
+        <v>-50.926766921342185</v>
+      </c>
+      <c r="Y38">
+        <v>50.926766921342185</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC38" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>202</v>
-      </c>
-      <c r="D38">
-        <v>11</v>
-      </c>
-      <c r="E38">
-        <v>11</v>
-      </c>
-      <c r="F38">
-        <v>22</v>
-      </c>
-      <c r="G38" s="8">
-        <v>1</v>
-      </c>
-      <c r="H38" s="8">
-        <v>0.84148859197636772</v>
-      </c>
-      <c r="I38" s="8">
-        <v>0.84148859197636772</v>
-      </c>
-      <c r="J38">
-        <v>11</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38" s="8">
-        <v>1</v>
-      </c>
-      <c r="M38" s="8">
-        <v>0.94716286399212246</v>
-      </c>
-      <c r="N38" t="s">
-        <v>189</v>
-      </c>
-      <c r="O38" s="6">
-        <v>20.837583007826694</v>
-      </c>
-      <c r="P38">
-        <v>-7.5</v>
-      </c>
-      <c r="Q38" s="6">
-        <v>13.337583007826694</v>
-      </c>
-      <c r="R38" s="6">
-        <v>13.337583007826694</v>
-      </c>
-      <c r="S38" t="s">
-        <v>189</v>
-      </c>
-      <c r="T38" t="s">
-        <v>189</v>
-      </c>
-      <c r="U38" s="8">
-        <v>0.8541805299733255</v>
-      </c>
-      <c r="V38" t="s">
+      <c r="AD38" t="s">
         <v>100</v>
-      </c>
-      <c r="W38" s="8">
-        <v>0.90067169698272398</v>
-      </c>
-      <c r="X38">
-        <v>1207.587505681875</v>
-      </c>
-      <c r="Y38">
-        <v>1207.587505681875</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>33</v>
       </c>
       <c r="AE38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D39">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="E39">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F39">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="G39" s="8">
-        <v>0.36363636363636365</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="H39" s="8">
-        <v>0.639386403752215</v>
+        <v>0.68111075696042078</v>
       </c>
       <c r="I39" s="8">
-        <v>3.778849884226676E-2</v>
+        <v>8.3055482275830039E-2</v>
       </c>
       <c r="J39">
         <v>6</v>
@@ -26663,52 +26968,52 @@
         <v>0.54545454545454541</v>
       </c>
       <c r="M39" s="8">
-        <v>0.51615910428104128</v>
+        <v>0.59067328262317054</v>
       </c>
       <c r="N39" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="O39" s="6">
-        <v>4.1292728342483302</v>
+        <v>7.0880793914780469</v>
       </c>
       <c r="P39">
-        <v>8.5</v>
+        <v>-6</v>
       </c>
       <c r="Q39" s="6">
-        <v>12.629272834248329</v>
+        <v>1.0880793914780469</v>
       </c>
       <c r="R39" s="6">
-        <v>12.629272834248329</v>
+        <v>1.0880793914780469</v>
       </c>
       <c r="S39" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="T39" t="s">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="U39" s="8">
-        <v>0.5</v>
+        <v>0.64467929693174497</v>
       </c>
       <c r="V39" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="W39" s="8">
-        <v>0.50807955214052059</v>
+        <v>0.6176762897774577</v>
       </c>
       <c r="X39">
-        <v>641.96674212431265</v>
+        <v>77.779444658053677</v>
       </c>
       <c r="Y39">
-        <v>641.96674212431265</v>
+        <v>77.779444658053677</v>
       </c>
       <c r="Z39" t="s">
-        <v>153</v>
+        <v>214</v>
       </c>
       <c r="AA39" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="AB39" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC39" t="s">
         <v>33</v>
@@ -26720,87 +27025,87 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D40">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="E40">
-        <v>-11</v>
+        <v>-3</v>
       </c>
       <c r="F40">
-        <v>-18</v>
+        <v>4</v>
       </c>
       <c r="G40" s="8">
-        <v>0.81818181818181812</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="H40" s="8">
-        <v>0.66015723031584694</v>
+        <v>0.60152181065152122</v>
       </c>
       <c r="I40" s="8">
-        <v>4.3212175209734194E-2</v>
+        <v>6.7558402472518431E-3</v>
       </c>
       <c r="J40">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K40">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L40" s="8">
-        <v>0.81818181818181823</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="M40" s="8">
-        <v>0.76550695555982784</v>
+        <v>0.38232545203535562</v>
       </c>
       <c r="N40" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="O40" s="6">
-        <v>13.779125200076901</v>
+        <v>1.5293018081414225</v>
       </c>
       <c r="P40">
-        <v>-7.5</v>
+        <v>-6</v>
       </c>
       <c r="Q40" s="6">
-        <v>6.2791252000769013</v>
+        <v>-4.4706981918585775</v>
       </c>
       <c r="R40" s="6">
-        <v>6.2791252000769013</v>
+        <v>4.4706981918585775</v>
       </c>
       <c r="S40" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="T40" t="s">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="U40" s="8">
-        <v>0.67782086333074609</v>
+        <v>0.5</v>
       </c>
       <c r="V40" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="W40" s="8">
-        <v>0.72166390944528702</v>
+        <v>0.44116272601767781</v>
       </c>
       <c r="X40">
-        <v>453.82999180444756</v>
+        <v>-223.38379583043971</v>
       </c>
       <c r="Y40">
-        <v>453.82999180444756</v>
+        <v>223.38379583043971</v>
       </c>
       <c r="Z40" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AA40" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="AB40" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="AC40" t="s">
         <v>33</v>
@@ -26814,88 +27119,88 @@
     </row>
     <row r="41" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B41">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D41">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E41">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F41">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G41" s="8">
-        <v>1</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="H41" s="8">
-        <v>0.89593375139878018</v>
+        <v>0.65289196263846183</v>
       </c>
       <c r="I41" s="8">
-        <v>0.89593375139878018</v>
+        <v>5.6369724304523361E-2</v>
       </c>
       <c r="J41">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L41" s="8">
-        <v>1</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="M41" s="8">
-        <v>0.96531125046625998</v>
+        <v>0.7630851996673661</v>
       </c>
       <c r="N41" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="O41" s="6">
-        <v>21.236847510257718</v>
+        <v>13.73553359401259</v>
       </c>
       <c r="P41">
-        <v>-15.5</v>
+        <v>-6</v>
       </c>
       <c r="Q41" s="6">
-        <v>5.7368475102577179</v>
+        <v>7.7355335940125904</v>
       </c>
       <c r="R41" s="6">
-        <v>5.7368475102577179</v>
+        <v>7.7355335940125904</v>
       </c>
       <c r="S41" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="T41" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="U41" s="8">
-        <v>0.89635896906443202</v>
+        <v>0.691764244288673</v>
       </c>
       <c r="V41" t="s">
         <v>100</v>
       </c>
       <c r="W41" s="8">
-        <v>0.930835109765346</v>
+        <v>0.72742472197801955</v>
       </c>
       <c r="X41">
-        <v>549.62308730969767</v>
+        <v>563.4305489159625</v>
       </c>
       <c r="Y41">
-        <v>549.62308730969767</v>
+        <v>563.4305489159625</v>
       </c>
       <c r="Z41" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="AA41" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AB41" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AC41" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="AD41" t="s">
         <v>33</v>
@@ -26905,56 +27210,56 @@
       </c>
     </row>
     <row r="42" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>3</v>
+      <c r="B42" t="s">
+        <v>85</v>
       </c>
       <c r="C42" t="s">
         <v>209</v>
       </c>
       <c r="D42">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F42">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G42" s="8">
-        <v>0.54545454545454541</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="H42" s="8">
-        <v>0.68111075696042078</v>
+        <v>0.71358690741572672</v>
       </c>
       <c r="I42" s="8">
-        <v>8.3055482275830039E-2</v>
+        <v>5.7546763317456562E-2</v>
       </c>
       <c r="J42">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L42" s="8">
-        <v>0.54545454545454541</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="M42" s="8">
-        <v>0.59067328262317054</v>
+        <v>0.72271078732039362</v>
       </c>
       <c r="N42" t="s">
         <v>187</v>
       </c>
       <c r="O42" s="6">
-        <v>7.0880793914780469</v>
+        <v>11.563372597126298</v>
       </c>
       <c r="P42">
         <v>-6</v>
       </c>
       <c r="Q42" s="6">
-        <v>1.0880793914780469</v>
+        <v>5.5633725971262979</v>
       </c>
       <c r="R42" s="6">
-        <v>1.0880793914780469</v>
+        <v>5.5633725971262979</v>
       </c>
       <c r="S42" t="s">
         <v>187</v>
@@ -26963,19 +27268,19 @@
         <v>187</v>
       </c>
       <c r="U42" s="8">
-        <v>0.64467929693174497</v>
+        <v>0.73795945813902653</v>
       </c>
       <c r="V42" t="s">
         <v>100</v>
       </c>
       <c r="W42" s="8">
-        <v>0.6176762897774577</v>
+        <v>0.73033512272971013</v>
       </c>
       <c r="X42">
-        <v>77.779444658053677</v>
+        <v>411.58872900848638</v>
       </c>
       <c r="Y42">
-        <v>77.779444658053677</v>
+        <v>411.58872900848638</v>
       </c>
       <c r="Z42" t="s">
         <v>214</v>
@@ -26996,7 +27301,34 @@
         <v>33</v>
       </c>
     </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>216</v>
+      </c>
+      <c r="C45" t="s">
+        <v>217</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" t="s">
+        <v>218</v>
+      </c>
+    </row>
     <row r="46" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f t="shared" ref="B46:B56" si="0">B47+1</f>
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E46" s="25">
+        <v>28</v>
+      </c>
       <c r="H46" t="s">
         <v>183</v>
       </c>
@@ -27036,8 +27368,24 @@
       <c r="Y46" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AB46" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E47" s="25">
+        <v>24</v>
+      </c>
       <c r="H47">
         <v>10</v>
       </c>
@@ -27074,11 +27422,24 @@
       <c r="X47" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="Y47" s="25">
+      <c r="Y47">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="2:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>189</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E48" s="25">
+        <v>22</v>
+      </c>
       <c r="H48">
         <v>9</v>
       </c>
@@ -27115,11 +27476,24 @@
       <c r="X48" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="Y48" s="25">
+      <c r="Y48">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="8:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>212</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E49" s="25">
+        <v>21</v>
+      </c>
       <c r="H49">
         <v>8</v>
       </c>
@@ -27156,11 +27530,24 @@
       <c r="X49" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="Y49" s="25">
+      <c r="Y49">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="8:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" s="25">
+        <v>20</v>
+      </c>
       <c r="H50">
         <f>H49-1</f>
         <v>7</v>
@@ -27198,13 +27585,26 @@
       <c r="X50" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="Y50" s="25">
+      <c r="Y50">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="8:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>215</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E51" s="25">
+        <v>18</v>
+      </c>
       <c r="H51">
-        <f t="shared" ref="H51:H56" si="0">H50-1</f>
+        <f t="shared" ref="H51:H56" si="1">H50-1</f>
         <v>6</v>
       </c>
       <c r="I51" t="s">
@@ -27240,181 +27640,246 @@
       <c r="X51" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Y51" s="25">
+      <c r="Y51">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="8:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>187</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E52" s="25">
+        <v>17</v>
+      </c>
       <c r="H52">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I52" t="s">
+        <v>192</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L52">
+        <v>19</v>
+      </c>
+      <c r="N52">
+        <v>5</v>
+      </c>
+      <c r="O52" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="R52">
+        <v>16</v>
+      </c>
+      <c r="T52" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="U52">
+        <v>27</v>
+      </c>
+      <c r="V52" t="s">
+        <v>197</v>
+      </c>
+      <c r="X52" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y52">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>186</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E53" s="25">
+        <v>17</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I53" t="s">
+        <v>154</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="L53">
+        <v>17</v>
+      </c>
+      <c r="N53">
+        <v>4</v>
+      </c>
+      <c r="O53" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="R53">
+        <v>16</v>
+      </c>
+      <c r="T53" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="U53">
+        <v>25</v>
+      </c>
+      <c r="V53" t="s">
+        <v>197</v>
+      </c>
+      <c r="X53" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y53">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B54">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I52" t="s">
-        <v>192</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="L52">
-        <v>19</v>
-      </c>
-      <c r="N52">
-        <v>5</v>
-      </c>
-      <c r="O52" t="s">
+      <c r="C54" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E54" s="25">
+        <v>15</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I54" t="s">
         <v>212</v>
       </c>
-      <c r="Q52" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="R52">
-        <v>16</v>
-      </c>
-      <c r="T52" s="20" t="s">
+      <c r="K54" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L54">
+        <v>17</v>
+      </c>
+      <c r="N54">
+        <v>3</v>
+      </c>
+      <c r="O54" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="R54">
+        <v>13</v>
+      </c>
+      <c r="T54" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="U52">
-        <v>27</v>
-      </c>
-      <c r="V52" t="s">
-        <v>197</v>
-      </c>
-      <c r="X52" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y52" s="25">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="8:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H53">
+      <c r="U54">
+        <v>23</v>
+      </c>
+      <c r="V54" t="s">
+        <v>196</v>
+      </c>
+      <c r="X54" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y54">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B55">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I53" t="s">
+      <c r="C55" t="s">
+        <v>192</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E55" s="25">
+        <v>10</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I55" t="s">
+        <v>167</v>
+      </c>
+      <c r="K55" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K53" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="L53">
+      <c r="L55">
         <v>17</v>
       </c>
-      <c r="N53">
-        <v>4</v>
-      </c>
-      <c r="O53" t="s">
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="R55">
+        <v>13</v>
+      </c>
+      <c r="T55" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="U55">
+        <v>20</v>
+      </c>
+      <c r="V55" t="s">
+        <v>196</v>
+      </c>
+      <c r="X55" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="Q53" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="R53">
-        <v>16</v>
-      </c>
-      <c r="T53" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="U53">
-        <v>25</v>
-      </c>
-      <c r="V53" t="s">
-        <v>197</v>
-      </c>
-      <c r="X53" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y53" s="25">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="8:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H54">
+      <c r="Y55">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B56">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I54" t="s">
-        <v>212</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="L54">
-        <v>17</v>
-      </c>
-      <c r="N54">
-        <v>3</v>
-      </c>
-      <c r="O54" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q54" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="R54">
-        <v>13</v>
-      </c>
-      <c r="T54" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="U54">
-        <v>23</v>
-      </c>
-      <c r="V54" t="s">
-        <v>196</v>
-      </c>
-      <c r="X54" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y54" s="25">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="8:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H55">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I55" t="s">
-        <v>167</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="L55">
-        <v>17</v>
-      </c>
-      <c r="N55">
-        <v>2</v>
-      </c>
-      <c r="O55" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q55" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="R55">
-        <v>13</v>
-      </c>
-      <c r="T55" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="U55">
-        <v>20</v>
-      </c>
-      <c r="V55" t="s">
-        <v>196</v>
-      </c>
-      <c r="X55" s="2" t="s">
+      <c r="C56" t="s">
         <v>188</v>
       </c>
-      <c r="Y55" s="25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="8:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E56" s="25">
+        <v>7</v>
+      </c>
       <c r="H56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I56" t="s">
@@ -27450,11 +27915,24 @@
       <c r="X56" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="Y56" s="25">
+      <c r="Y56">
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="8:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f>B58+1</f>
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>213</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E57" s="25">
+        <v>6</v>
+      </c>
       <c r="H57">
         <v>10</v>
       </c>
@@ -27491,11 +27969,23 @@
       <c r="X57" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="Y57" s="25">
+      <c r="Y57">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="8:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E58" s="25">
+        <v>6</v>
+      </c>
       <c r="H58">
         <v>9</v>
       </c>
@@ -27532,11 +28022,24 @@
       <c r="X58" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="Y58" s="25">
+      <c r="Y58">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <f t="shared" ref="B59:B72" si="2">B60+1</f>
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E59" s="25">
+        <v>4</v>
+      </c>
       <c r="H59">
         <v>8</v>
       </c>
@@ -27573,11 +28076,24 @@
       <c r="X59" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="Y59" s="25">
+      <c r="Y59">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="8:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E60" s="25">
+        <v>4</v>
+      </c>
       <c r="H60">
         <v>7</v>
       </c>
@@ -27614,11 +28130,24 @@
       <c r="X60" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="Y60" s="25">
+      <c r="Y60">
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="8:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
+        <v>212</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E61" s="25">
+        <v>3</v>
+      </c>
       <c r="H61">
         <v>6</v>
       </c>
@@ -27649,11 +28178,24 @@
       <c r="X61" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="Y61" s="25">
+      <c r="Y61">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="8:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="C62" t="s">
+        <v>215</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E62" s="25">
+        <v>2</v>
+      </c>
       <c r="H62">
         <v>5</v>
       </c>
@@ -27684,11 +28226,24 @@
       <c r="X62" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="Y62" s="25">
+      <c r="Y62">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>188</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E63" s="25">
+        <v>2</v>
+      </c>
       <c r="H63">
         <v>4</v>
       </c>
@@ -27719,11 +28274,24 @@
       <c r="X63" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="Y63" s="25">
+      <c r="Y63">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="8:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="C64" t="s">
+        <v>189</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E64" s="25">
+        <v>1</v>
+      </c>
       <c r="H64">
         <v>3</v>
       </c>
@@ -27748,11 +28316,24 @@
       <c r="X64" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="Y64" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="8:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>187</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="25">
+        <v>227</v>
+      </c>
       <c r="H65">
         <v>2</v>
       </c>
@@ -27777,11 +28358,18 @@
       <c r="X65" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="Y65" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="8:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>153</v>
+      </c>
       <c r="H66">
         <v>1</v>
       </c>
@@ -27806,11 +28394,18 @@
       <c r="X66" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Y66" s="25">
+      <c r="Y66">
         <v>440</v>
       </c>
     </row>
-    <row r="67" spans="8:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>170</v>
+      </c>
       <c r="H67">
         <v>10</v>
       </c>
@@ -27833,7 +28428,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="68" spans="8:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>210</v>
+      </c>
       <c r="H68">
         <v>9</v>
       </c>
@@ -27856,7 +28458,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="69" spans="8:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>191</v>
+      </c>
       <c r="H69">
         <v>8</v>
       </c>
@@ -27879,7 +28488,14 @@
         <v>196</v>
       </c>
     </row>
-    <row r="70" spans="8:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>155</v>
+      </c>
       <c r="H70">
         <v>7</v>
       </c>
@@ -27902,7 +28518,14 @@
         <v>196</v>
       </c>
     </row>
-    <row r="71" spans="8:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>190</v>
+      </c>
       <c r="H71">
         <v>6</v>
       </c>
@@ -27925,7 +28548,14 @@
         <v>196</v>
       </c>
     </row>
-    <row r="72" spans="8:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>211</v>
+      </c>
       <c r="H72">
         <v>5</v>
       </c>
@@ -27948,7 +28578,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="73" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <f>B74+1</f>
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>214</v>
+      </c>
       <c r="H73">
         <v>4</v>
       </c>
@@ -27971,7 +28608,13 @@
         <v>196</v>
       </c>
     </row>
-    <row r="74" spans="8:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>156</v>
+      </c>
       <c r="H74">
         <v>3</v>
       </c>
@@ -27994,7 +28637,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="75" spans="8:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:25" x14ac:dyDescent="0.25">
       <c r="H75">
         <v>2</v>
       </c>
@@ -28017,7 +28660,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="76" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:25" x14ac:dyDescent="0.25">
       <c r="H76">
         <v>1</v>
       </c>
@@ -28031,7 +28674,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="77" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.25">
       <c r="H77">
         <v>10</v>
       </c>
@@ -28045,7 +28688,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:25" x14ac:dyDescent="0.25">
       <c r="H78">
         <v>9</v>
       </c>
@@ -28059,7 +28702,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="79" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:25" x14ac:dyDescent="0.25">
       <c r="H79">
         <v>8</v>
       </c>
@@ -28073,7 +28716,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="80" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.25">
       <c r="H80">
         <v>7</v>
       </c>
@@ -28173,23 +28816,17 @@
     </row>
   </sheetData>
   <autoFilter ref="T46:V75" xr:uid="{ECBB0E72-491A-4808-A57D-3D7A9394C08C}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="LAL"/>
-        <filter val="SAS"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T47:V75">
       <sortCondition descending="1" ref="U46:U73"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
   <tableParts count="3">
-    <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
